--- a/code/crawling/result.xlsx
+++ b/code/crawling/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>page</t>
         </is>
       </c>
@@ -478,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>생산의 경계</t>
+          <t>공급곡선 이동</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>생산에 운송,저장,판매 등 서비스 제공도 생산에 포함이 된다면 생산요소를 제공하는 것도 생산에 포함되나요?</t>
+          <t>교재 67쪽에 있는 가격 규제 정책과 사회적 잉여에서 2번에 ‘가격이 낮아졌으니 공급량이 줄어든다’ 이건 이해가 가는데 왜 거래량을 볼 때 그래프를 이동시켜서 보지 않나요?</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -491,203 +496,225 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>생산</t>
+          <t>공급곡선 이동</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.아래 내용은 일반적인 경우를 가정하고 답변하였습니다.문제의 발문, 자료, 선지 등에 따라 달라질 수 있는 부분이 있으므로 문제를 통해 질문을 한다면더욱 명확한 답변을 드릴 수 있습니다.생산은 '부가 가치를 창출'하는 경제 활동을 의미합니다.생산 요소를 제공하는 행위 자체를 '생산'으로 정의할 수는 없지만,생산 요소의 제공을 통해 생산에 기여하는 것이므로 '생산 활동에 기여한다(참여한다).'로 설명할 수 있습니다.생산, 분배, 소비는 명확히 구분되는 개념이기는 하지만 경제 활동(생산, 분배, 소비)이 연속성을 가지고 순환하는 과정임을생각한다면 내용 이해에 도움이 될 것이라고 생각합니다.답변이 학습에 도움이 되었기를 바랍니다. </t>
+          <t>교재 67쪽에 있는 가격 규제 정책과 사회적 잉여에서 2번에 ‘가격이 낮아졌으니 공급량이 줄어든다’ 이건 이해가 가는데 왜 거래량을 볼 때 그래프를 이동시켜서 보지 않나요?답변입니다.질문하신 2번의 내용은 가격규제 정책으로 가격이 낮아져 공급량이 줄어든 경우 입니다.  이 경우는 가격이 변수이기 때문에 공급이 아닌 공급량의 변화이고 , 그 이유로 공급 곡선의 이동이 아니라 공급곡선 상의 점의 이동이기 때문입니다.이해에 도움이 되셨길 바랍니다^^</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P109. 총공급의 변동.</t>
+          <t>국내총생산</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>총수요, 총공급의 변동 파트에서…박봄 선생님께서 "국내 기업들이 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다." 이 부부분을 총공급 변동으로 설명하셨는데요. 수출 상품의 가격 경쟁력이 향상되면 수출이 증가할 것이고, 그럼 순수출이 증가해서 총수요가 증가하는 것이 맞지 않나요?</t>
+          <t>국내 총생산이 최종생산품의 시장가치 합이라고 설명을 해주셨는데 그럼 원래 최종생산품으로 이어져야 할 재료이지만 그 자체로도 최종생산품의 가치를 지니는 경우에는 국내총생산에 포함이 되는지 궁금합니다.(예를 들어 스마트폰을 생산하기 위해 액정, 배터리, 각종 센서 등이 필요하지만 최종적인 스마트폰의 형태가 아닌 액정의 형태로 판매가 될 경우 이것들도 국내 총생산에 들어가는지)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>총공급의 변동</t>
+          <t>국내총생산</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>총수요, 총공급의 변동 파트에서…박봄 선생님께서 "국내 기업들이 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다." 이 부부분을 총공급 변동으로 설명하셨는데요. 수출 상품의 가격 경쟁력이 향상되면 수출이 증가할 것이고, 그럼 순수출이 증가해서 총수요가 증가하는 것이 맞지 않나요?위 질문에 관한 답변입니다.일단 질문에서 말씀하신 '국내 기업들이 에너지 절감으로 수출 제품의 가격 경쟁력이 향상되었다.'는 부분에서 에너지 절감 노력은 생산비의 절감이라고 볼 수 있고, 총공급을 늘리는 직접적인 영향에 해당됩니다. 물론, 그 이후에 수출경쟁력이 높아졌기 때문에 순수출은 증가할 것입니다.수요, 공급에서 학습하셨던 것을 기억해 보시면 비슷하다고 할 수 있습니다. 원인이냐 결과냐의 문제로 보시면 됩니다. 생산비 절감이 직접적으로 미치는 부분은 총공급입니다. 그 결과 그것이 수출품이라면 총수요 증가 요인은 되겠지만 1차적으로는 총공급의 요인으로 보시는 게 맞습니다.질문하신 부분은 충분히  수요와 공급에서 늘 고민하는 부분입니다. 아시다시피 수요와 공급 법칙은 다른 모든 것이 일정할 때 직접적인 영향을 미치는 부분만을 변동의 원인으로 보기 때문에 인강에서 설명하신 총수요와 총공급의 변동 원인을 적용시키셔서 문제를 푸시면 됩니다.아주 예리하고 늘 고민스러운 문제를 물어봐 주셨는데, 이해에 도움이 되셨으면 좋겠습니다.^^</t>
+          <t>국내 총생산이 최종생산품의 시장가치 합이라고 설명을 해주셨는데 그럼 원래 최종생산품으로 이어져야 할 재료이지만 그 자체로도 최종생산품의 가치를 지니는 경우에는 국내총생산에 포함이 되는지 궁금합니다.(예를 들어 스마트폰을 생산하기 위해 액정, 배터리, 각종 센서 등이 필요하지만 최종적인 스마트폰의 형태가 아닌 액정의 형태로 판매가 될 경우 이것들도 국내 총생산에 들어가는지)답변입니다.가능한 부분입니다.예를 들어 밀가루로 빵을 만드는 경우 빵은 최종 생산물이 되고가계에 밀가루를 판매하는 경우 이 밀가루도 최종 생산물에 포함됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>노동시장</t>
+          <t>강의에서 넘어간 부분이 있습니다.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>노동시장에서 노동수요와 노동공급이 만나서 형성되는 것이 무엇인가요?</t>
+          <t>유사한 내용인 p.77의 '공급의 가격 탄력성에 영향을 미치는 요인'은 설명 해주셨는데 p.73의 '수요의 가격 탄력성에 영향을 미치는 요인은 12강에서 시간 문제로 그 다음거부터 한다고 하시고 그냥 넘어가셨네요....</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>노동시장</t>
+          <t>수강후기 게시판 문의</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.노동시장의 경우에는 노동수요와 노동공급에 의해균형 임금 수준과 균형 노동 거래량이 형성됩니다.생산물 시장과 마찬가지로 생산요소 시장에서도 거래되는 객체의 균형이 형성된다고 생각하면 되겠습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.설명하지 않고 넘어간 부분에 대한 강의 위치가 궁금하시거나 강의 누락 여부에 대하여 질문하고자 하신다면수강후기 게시판을 통해서 강사께 문의하실 수 있습니다.강의오류 확인요청, 강의활용법, 신규 강의 일정, 강사제공 학습자료 요청, 강사 이벤트, 숙제제출 등강사 선생님께 문의하시는 내용은 수강후기 게시판에 문의하여 주십시오.강사 선생님과 제작팀은 수강후기를 통해 소통하고 있습니다.참고로EBS교재 내용에는 있으나 강의 설명이 없는 부분 중 이해가 어려운 부분이 있다면교재 페이지를 작성하시고 질문하시면 상담 받으실 수 있습니다.그 외사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24번 문제</t>
+          <t>혼합 경제 체제 질문</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24번 문제 1번 선지에서 A재는 공급량과 수요량이 모두 0인 상태인건가요?  A재가 무엇을 의미하는지를 잘 모르겠어요</t>
+          <t>시장 경제에서 발생하는 문제를 해결하기 위해 계획 경제 체제를 채택한다는 말은시장 경제 체제를 중심으로 계획 경제 체제의 일부 요소를 받아들이는 것과 어떤 차이점으로틀린 답인지 모르겠어요...ㅜㅜ</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>시장 균형 가격이 형성되지 않는 재화</t>
+          <t>혼합 경제 체제</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.A재의 경우 모든 수량에 대하여 공급자가 최소로 받고자 하는 가격이 소비자가 최대로 지불하고자 하는 가격보다 높아시장 균형 가격이 형성되지 않는 경우입니다.가격을 기준으로 보자면 낮은 가격 수준에서는 수요량은 존재하지만 공급량은 존재하지 않고,높은 가격 수준에서는 공급량은 존재하지만 수요량은 존재하지 않는 것을 볼 수 있습니다.강의에서 강사님께서 예시로 든 '우주여행'같은 경우 공급자가 최소로 받고자 하는 가격이 매우 높지만수요자는 그 수준으로 지불할 의사가 없기 때문에 시장 균형 가격이 형성되지 않는 것입니다.만약 기술이 발달하여 공급자가 최소로 받고자 하는 가격이 낮아진다면 시장 균형 가격이 형성될 수 있을 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.해당 문제를 첨부한다면 더 확실한 답변을 할 수 있습니다.이번 질문에 대해서는해당 표현에 대한 일반적인 답변을 드리겠습니다.혼합 경제 체제의 경우 기존의 경제 체제를 기준으로 다른 경제 체제의 방식을 일부 도입하는 것입니다.대표적으로 대공황 시기에 미국에서는 시장 경제 체제에서 발생했던 문제를 해결하기 위해 계획 경제 체제에서의시장에 대한 정부 개입이라는 요소를 도입한 것입니다.이는 둘을 혼합한 것이지 시장 경제 체제에서 계획 경제 체제로 체제를 전환한 것은 아닙니다.질문하신 '시장 경제에서 발생하는 문제를 해결하기 위해 계획 경제 체제를 채택한다'는 말은 혼합 경제 체제가 아니라 경제 체제를 전환한 것으로 봐야합니다.그리고 '시장 경제 체제를 중심으로 계획 경제 체제의 일부 요소를 받아들이는'의 경우 위에서 설명한 혼합 경제 체제에 해당하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>정부의 생산물 시장에서의 수요자</t>
+          <t>효율성</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>교재와 강의에서는정부는 생산물 시장에서의 수요자라고만 하셨는데정부는 생산물 시장에서의 수요자면서 공급자가 맞는거 아닌가요?</t>
+          <t>계획경제체제는 자원배분효율성이 낮다고하는데 시장경제체제는 자원배분효율성이 높은건가요자원배분효율성이랑 자원효율성은 같은 말 인가요?</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>정부의 생산물 시장에서의 수요자</t>
+          <t>효율성</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>네. 정부는 생산물 시장의 수요자이면서 공급자라고 볼 수 있습니다.정부가 생산하는 대표적인 생산물로 국방 서비스, 도로 등 공공재가 있습니다.도움이 되셨으면 합니다:)</t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.시장 경제 체제의 경우 일반적으로 시장 원리에 의한자원 배분이 이루어지므로 재화, 서비스 그리고 생산요소 등을 필요한 곳에 필요한 만큼 전해주게 되어 재원 배분이 효율적으로 이루어집니다.일반적으로 '자원 배분의 효율성'이라는 표현을 쓰지만 '자원효율성'도 같은 의미로 쓰일 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35번 문제 풀이</t>
+          <t>균형가격</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>안녕하세요35번 [정답 해설]을 보고도 이해가 안돼서 질문 드려요자료1은 그래프이고 자료2는 표인데 어떻게 접근해서 풀어야 할 지 모르겠습니다35번 문제 푸는 전체적인 방법과 ㄱㄴㄷㄹ보기 설명까지 부탁드립니다</t>
+          <t>왜 그래프가 계단모양인지 모르겠어요..지금까지는 다 직선으로 그리지 않았나요…?</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35번 문제 풀이</t>
+          <t>균형가격</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>문제의 난이도가 높아 질문이 다수 들어오고 있는 문제입니다. 직관적인 이해를 위해 아래 그래프를 첨부해두었습니다. 자료에 따라 다음과 같은 그래프가 그려진다는 점을 토대로 정답과 해설을 비교하여 풀어보시기 바랍니다. 그래도 풀이가 어렵다면 다시한번 질문을 올려주세요!</t>
+          <t>네. 답변드리겠습니다. 공급를 나타내는 그래프는 다양한 형태로 그려질 수 있습니다. 그중 가장 일반적인 형태가 우상향하는 직선 형태입니다.일반적인 문제에서는 '공급 곡선은 우상향하는 직선이다.'라는 단서 조항이 함께 제시됩니다.그러나 35번 문제에는 위 조건이 제시되어 있지 않습니다.따라서, 공급이 점 형태일 수도, 수평선 형태일 수도, 계단 형태일 수도 있습니다.&lt;자료 2&gt;를 보면 최소 요구 금액과 공급자 수가 제시되어 있으며, X재 시장의 공급자 수는 70명, 각 공급자는 X재 1개만을 공급합니다.최소 요구 금액 30, 50, 70, 90에 해당하는 각각의 공급자 수를 더하면 70명입니다.이는 X재가 최소 30원은 돼야 시장에서 공급을 시작한다는 점을 알 수 있습니다.가격이 30원일 때부터 비로소 20개가 공급되며, 가격이 상승하더라도 50개가 되기 전까지는 공급량이 변하지 않습니다.예를 들어, 가격이 40원이 되더라도 그 가격에 판매할 공급자 수는 20명 뿐이기 때문입니다.가격이 50원으로 상승하면 공급자 수가 이전에 비해 20명이 증가하여 총 40개가 공급되기 시작합니다.위와 같은 원리에 따라 공급 곡선은 계단식으로 그려지게 됩니다.답변이 학습에 도움이 되었으면 합니다:)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>외부 불경제 &lt;생산 측면&gt;</t>
+          <t>헌법 제23조 1항 재산권 보장</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>안녕하세요외부 경제가 발생하는 경우 중 생산 측면에서, 보조금을 지급하여 생산량을 늘리고 가격을 낮추는 결과를 얻고자 했기에 보조금을 지급한 이후의 가격이 낮아졌는데, 외부 불경제가 발생하는 경우 중 생산 측면의 경우에는 세금을 부과하여 생산량을 줄이고 가격을 높이는결과를 내고자 했기에 P3가 P1의 아래가 아닌 P2의 위에 위치해야하는 것이 아닌지 문의드립니다.</t>
+          <t>'모든 국민의 재산권은 보장된다.'에서 재산권 보장에서 알 수 있는 게 시장 경제라고 하셨는데 생산 수단의 사유화라는 특징을 가진 자본주의 경제체제를 알 수 있는 부분 아닌가요? 재산권 보장이라는 말에서 자본주의 경제 체제와 시장 경제 체제가 모두 나타나는 말인 건지 둘 중 하나만 얘기할 수 있는 건지 궁금합니다!</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -695,135 +722,155 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>외부 불경제 &lt;생산 측면&gt;</t>
+          <t>경제 체제</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>외부 경제가 발생하는 경우 중 생산 측면에서, 보조금을 지급하여 생산량을 늘리고 가격을 낮추는 결과를 얻고자 했기에 보조금을 지급한 이후의 가격이 낮아졌는데, 외부 불경제가 발생하는 경우 중 생산 측면의 경우에는 세금을 부과하여 생산량을 줄이고 가격을 높이는 결과를 내고자 했기에 P3가 P1의 아래가 아닌 P2의 위에 위치해야하는 것이 아닌지 문의드립니다.답변입니다.가격이 P3가 아니라세금이 P1~P3 값이라는 의미입니다.가격은 P2입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.경제 체제를 경제 문제 해결 방식에 따라 '전통 경제 체제, 계획 경제 체제, 시장 경제 체제'로 구분하고,생산 수단 소유 형태에 따라 '사회주의 경제 체제, 자본주의 경제 체제'로 구분하고 있지만시장 경제 체제는 자본주의와 결합되지 않으면 그 원리와 체제가 성립되기 어렵고,계획 경제 체제와 사회주의의 결합도 마찬가지입니다.해당 자료를 분석함에 있어서 시장 경제 체제와 자본주의를 함께 생각해야 하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>균형가격</t>
+          <t>희소성 관련 질문합니다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>자료2에 나와있는 공급량을 자료1에 그리면 수요곡선과 공급곡선의 가격이 50과 60사이에서 만나고 60에 더 가깝게 그려지지만 딱 60원을 지나지는 않는데 어떻게 60원이라고 할 수 있는건가요?</t>
+          <t>문제를 풀며 궁금해진 건데, 희귀하지만 무상재인 경우는 없는 걸까요? 아무도 원하지 않아서요. 그 경우에는 인간의 욕구보다는 많이 존재하는 거 아닌가요? 그게 아니면 희귀하다고 하는 경우는 다 경제재일 때만을 의미하는 건가요?</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>균형가격</t>
+          <t>희소성 관련 질문합니다</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>그래프로 이해하시면 편하실 것 같아 그림으로 첨부해드립니다!</t>
+          <t>네. 답변 드리겠습니다.우선 희소성과 희귀성의 개념을 구분해야 합니다. 희소성은 '인간의 욕구에 비해 이를 충족시켜줄 수 있는 자원이 상대적으로 부족한 상태'를 말하며,희귀성은 '자원이 절대적으로 부족한 상태'를 말합니다.둘 중에 어떤 특성을 기준으로 사례를 묻느냐에 따라 정답은 달라질 수 있습니다.첫 째, 희귀하지만 무상재인 경우가 존재할 수 있느냐? 가능합니다. 예를 들어, A라는 광물이 부존량은 부족하지만 이를 필요로 하는 사람이 부존량보다 적다면 시장에서 가격이 결정될 수 없습니다. 사람들은 시장에서 돈을 주고 구입하지 않아도 주변에서 얻을 수 있기 때문입니다.둘째, 희소하지만 무상재인 경우가 존재할 수 있느냐? 불가능합니다. 인간의 욕구에 비해 자원이 부족하기 때문에 시장에서 수요와 공급의 원리에 따라 가격이 결정됩니다.주말에도 학습에 열중하는 태도가 멋지십니다^^ 도움이 되셨으면 하네요:)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>궁금해요!</t>
+          <t>물가, 금리, 통화량</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>안녕하세요.제가 여쭈어 보고 싶은건 총 세가지 입니다.1.경제황동 유형에서 생산은 재화나 서비스의 가치를 증대 시키는 것은 생산이고 생산활동에 참여한 대가를 받는 활동을 분배라고 배웠습니다.그렇다면 은행이 기업에게 자본을 빌려준 대가로 이자를 받는 것 역시 분배로 볼 수 있는 건가요?그에 더해 분배를 받는 쪽은 반드시 가계여야만 하는 걸까요?2.소비는 만족감을 얻기 위해 재화나 서비스를 구매 하는 것이라면 같은 사과리는 물건이 있더라도가계가 사과를 산다면 생산물로써, 기업이나 정부가 산다면 생산요소로써 구매하는 거라고 이해해야 할까요?3.경제 순환 모형에서 정부는 조세를 통해 공공 서비스를 제공하므로 생산을 하고, 공무원들의 봉급을 지급하므로 분배를 하는것이며,생산물 시장에서 재화와 서비스를 구매하므로 소비 역시 하는 건가요?그렇다면 정부가 사과라는 물건을 구매할때 생산물의 성격인지 생산요소의 성격인지 구분할 수 있는 방법이 있을까요?</t>
+          <t>통화량, 금리, 물가 관계가 헷갈려요.경제 안정화때랑 평소때랑 다른가요..?</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>궁금해요!</t>
+          <t>물가, 금리, 통화량</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.경제황동 유형에서 생산은 재화나 서비스의 가치를 증대 시키는 것은 생산이고 생산활동에 참여한 대가를 받는 활동을 분배라고 배웠습니다.그렇다면 은행이 기업에게 자본을 빌려준 대가로 이자를 받는 것 역시 분배로 볼 수 있는 건가요?그에 더해 분배를 받는 쪽은 반드시 가계여야만 하는 걸까요?2.소비는 만족감을 얻기 위해 재화나 서비스를 구매 하는 것이라면 같은 사과리는 물건이 있더라도가계가 사과를 산다면 생산물로써, 기업이나 정부가 산다면 생산요소로써 구매하는 거라고 이해해야 할까요?3.경제 순환 모형에서 정부는 조세를 통해 공공 서비스를 제공하므로 생산을 하고, 공무원들의 봉급을 지급하므로 분배를 하는것이며,생산물 시장에서 재화와 서비스를 구매하므로 소비 역시 하는 건가요?그렇다면 정부가 사과라는 물건을 구매할때 생산물의 성격인지 생산요소의 성격인지 구분할 수 있는 방법이 있을까요?-------------------------------------------------------------------------------------------------------------1. 은행의 대출을 통해 거둔 수익은 금융 서비스를 제공한 대가로 얻는 판매 수입이라고 볼 수 있습니다. 가계는 노동, 토지, 자본 등 생산요소의 소유자로 이를 제공하고 이에 대한 대가를 받는 과정을 분배 활동이라고 합니다.2. 비슷하지만, 한 가지는 명확하지 않을 수 있습니다. 정부에서 사과를 부가가치를 창출하기 위한 수단이 아니라 최종 생산물로써 활용하는 상황에선 생산 요소라고 보기 어렵습니다.3. 앞서 답변 드렸던 것처럼 구매한 재화를 중간재로 사용하느냐, 최종 생산물로 사용하느냐에 따라 달라질 수 있습니다.+ 답변의 질을 위하여 하나의 게시글에는 한 가지 질문만 올려주시면 감사하겠습니다.</t>
+          <t>질문을 명확하게 해주시면 더욱 도움이 되어드릴 수 있을 것 같습니다ㅠ제 짐작에 따라 위 개념 간 기본적인 관계에 대해 설명해드리겠습니다.'통화량'이 늘어나게 되면, 통화의 가치가 하락하게 됩니다. 이는 통화의 가치를 의미하는 '금리'의 하락과 함께 합니다.이로 인해, 가계에서는 소비 지출이 증가하고, 기업의 투자 지출이 증가하게 됩니다.이는 총수요의 증가를 불러오고 결국 '물가'가 상승하고, 국민소득이 증가하게 됩니다. 통화량 증가를 통해 경제 안정화(경기침체 상황)를 목표로 하는 정책을 확대 통화 정책이라고 합니다.경기침체가 아닌 경기과열 상황에서의 경제 안정화 정책으로는 긴축 통화 정책이 있고 위 과정과 반대로 이루어집니다.도움이 되셨으면 하네요:)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>어려워요</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>p.83 외부 효과 적용 연습</t>
+          <t>35번 문제</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>에서 4번째문제가 잘 이해가 안돼요ㅠㅠ 생선자에 세금 부과를 했다면 왜 사적 비용이 증가되는 건가요.?</t>
+          <t>다른 답변을 보았는데 그래프가 왜 그렇게 계단식으로 그려지는지 모르겠어요전체적인 문제풀이 부탁드려요</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>p.83 외부 효과 적용 연습</t>
+          <t>35번 문제</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>에서 4번째문제가 잘 이해가 안돼요ㅠㅠ 생선자에 세금 부과를 했다면 왜 사적 비용이 증가되는 건가요.?답변입니다.개인으로서 생산자가 부담하는 세금이라서 사적 비용에 해당됩니다.꽃밭을 조성하기 위해 개인이 사용하는 비용도 사적 비용이 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>네. 답변드리겠습니다. 공급를 나타내는 그래프는 다양한 형태로 그려질 수 있습니다. 그중 가장 일반적인 형태가 우상향하는 직선 형태입니다.일반적인 문제에서는 '공급 곡선은 우상향하는 직선이다.'라는 단서 조항이 함께 제시됩니다.그러나 35번 문제에는 위 조건이 제시되어 있지 않습니다.따라서, 공급이 점 형태일 수도, 수평선 형태일 수도, 계단 형태일 수도 있습니다.&lt;자료 2&gt;를 보면 최소 요구 금액과 공급자 수가 제시되어 있으며, X재 시장의 공급자 수는 70명, 각 공급자는 X재 1개만을 공급합니다.최소 요구 금액 30, 50, 70, 90에 해당하는 각각의 공급자 수를 더하면 70명입니다.이는 X재가 최소 30원은 돼야 시장에서 공급을 시작한다는 점을 알 수 있습니다.가격이 30원일 때부터 비로소 20개가 공급되며, 가격이 상승하더라도 50개가 되기 전까지는 공급량이 변하지 않습니다.예를 들어, 가격이 40원이 되더라도 그 가격에 판매할 공급자 수는 20명 뿐이기 때문입니다.가격이 50원으로 상승하면 공급자 수가 이전에 비해 20명이 증가하여 총 40개가 공급되기 시작합니다.위와 같은 원리에 따라 공급 곡선은 계단식으로 그려지게 됩니다.답변이 학습에 도움이 되었으면 합니다:)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>외부효과 그래프</t>
+          <t>생산의 경계</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>외부 효과 그래프에서 최적생산량은 항상 ’사회적‘비용과 수요가 만나는 지점이라고 생각하면 될까요?</t>
+          <t>생산에 운송,저장,판매 등 서비스 제공도 생산에 포함이 된다면 생산요소를 제공하는 것도 생산에 포함되나요?</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -831,103 +878,118 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>외부효과 그래프</t>
+          <t>생산</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>외부 효과 그래프에서 최적생산량은 항상 ’사회적‘비용과 수요가 만나는 지점이라고 생각하면 될까요?답변입니다.네 그렇습니다. 생산측면의 외부그래프의 경우 사회적 비용과 수요가 만나는 지점의 수량이 최적 생산량이 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.아래 내용은 일반적인 경우를 가정하고 답변하였습니다.문제의 발문, 자료, 선지 등에 따라 달라질 수 있는 부분이 있으므로 문제를 통해 질문을 한다면더욱 명확한 답변을 드릴 수 있습니다.생산은 '부가 가치를 창출'하는 경제 활동을 의미합니다.생산 요소를 제공하는 행위 자체를 '생산'으로 정의할 수는 없지만,생산 요소의 제공을 통해 생산에 기여하는 것이므로 '생산 활동에 기여한다(참여한다).'로 설명할 수 있습니다.생산, 분배, 소비는 명확히 구분되는 개념이기는 하지만 경제 활동(생산, 분배, 소비)이 연속성을 가지고 순환하는 과정임을생각한다면 내용 이해에 도움이 될 것이라고 생각합니다.답변이 학습에 도움이 되었기를 바랍니다. </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>83p 외부효과 적용 연습</t>
+          <t>P109. 총공급의 변동.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>83p 외부효과 적용 연습 두 번째 문제 (그래프 문제)에서 마지막 빈칸이 Q¹Q²라고 설명해주셨는데 Q²-Q¹이 맞지 않나요? 왜 Q¹과 Q²를 곱한 값이 답인지 이해가 안 되어서  질문 드립니다.</t>
+          <t>총수요, 총공급의 변동 파트에서…박봄 선생님께서 "국내 기업들이 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다." 이 부부분을 총공급 변동으로 설명하셨는데요. 수출 상품의 가격 경쟁력이 향상되면 수출이 증가할 것이고, 그럼 순수출이 증가해서 총수요가 증가하는 것이 맞지 않나요?</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83p 외부효과 적용 연습</t>
+          <t>총공급의 변동</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83p 외부효과 적용 연습 두 번째 문제 (그래프 문제)에서 마지막 빈칸이 Q¹Q²라고 설명해주셨는데 Q²-Q¹이 맞지 않나요? 왜 Q¹과 Q²를 곱한 값이 답인지 이해가 안 되어서  질문 드립니다답변입니다.경제 그래프에서 Q1Q2라고 표현하는 것은 Q1~Q2까지의 길이를 의미합니다.문의하신 것처럼 Q²-Q¹ 값이기도 합니다.곱하기가 아니라 ~의 의미라고 생각해주세요.도움이 되셨으면 좋겠습니다.</t>
+          <t>총수요, 총공급의 변동 파트에서…박봄 선생님께서 "국내 기업들이 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다." 이 부부분을 총공급 변동으로 설명하셨는데요. 수출 상품의 가격 경쟁력이 향상되면 수출이 증가할 것이고, 그럼 순수출이 증가해서 총수요가 증가하는 것이 맞지 않나요?위 질문에 관한 답변입니다.일단 질문에서 말씀하신 '국내 기업들이 에너지 절감으로 수출 제품의 가격 경쟁력이 향상되었다.'는 부분에서 에너지 절감 노력은 생산비의 절감이라고 볼 수 있고, 총공급을 늘리는 직접적인 영향에 해당됩니다. 물론, 그 이후에 수출경쟁력이 높아졌기 때문에 순수출은 증가할 것입니다.수요, 공급에서 학습하셨던 것을 기억해 보시면 비슷하다고 할 수 있습니다. 원인이냐 결과냐의 문제로 보시면 됩니다. 생산비 절감이 직접적으로 미치는 부분은 총공급입니다. 그 결과 그것이 수출품이라면 총수요 증가 요인은 되겠지만 1차적으로는 총공급의 요인으로 보시는 게 맞습니다.질문하신 부분은 충분히  수요와 공급에서 늘 고민하는 부분입니다. 아시다시피 수요와 공급 법칙은 다른 모든 것이 일정할 때 직접적인 영향을 미치는 부분만을 변동의 원인으로 보기 때문에 인강에서 설명하신 총수요와 총공급의 변동 원인을 적용시키셔서 문제를 푸시면 됩니다.아주 예리하고 늘 고민스러운 문제를 물어봐 주셨는데, 이해에 도움이 되셨으면 좋겠습니다.^^</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>개념</t>
+          <t>노동시장</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>기회비용과매몰비용의차이를가르쳐주시고매몰비용이왜 합리적선택을할때고려하면안된다고하는지가르쳐주세요</t>
+          <t>노동시장에서 노동수요와 노동공급이 만나서 형성되는 것이 무엇인가요?</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>합리적 선택</t>
+          <t>노동시장</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.기회비용의 정의는 '선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게 되는 대안들 중 가장 가치가 큰 것'입니다.정의를 통해 봤을 때 기회비용은 현재의 여러 선택지 중 하나를 선택할 때 포기하게 될 가치를 의미하는 것입니다.이와 달리 매몰비용은 '이미 지출하여 회수가 불가능한 비용'을 의미합니다.결국 매몰비용은 이미 선택을 하고 비용을 지불했기 때문에 현재의 합리적 선택을 위해서는 고려하지 않아야 합니다.만약 이미 지출한 비용이라고 할지라도 회수가 가능하다면 현재의 선택에 영향을 미칠 수 있기 때문에이 비용은 매몰비용에 해당하지 않고 기회비용에 해당할 수 있습니다.(이 경우는 문제에서 주어진 상황과 조건 등에 따라 어떤 선택을 했는지 고려하여 기회비용으로 계산해야 합니다.)답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.노동시장의 경우에는 노동수요와 노동공급에 의해균형 임금 수준과 균형 노동 거래량이 형성됩니다.생산물 시장과 마찬가지로 생산요소 시장에서도 거래되는 객체의 균형이 형성된다고 생각하면 되겠습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>개념</t>
+          <t>24번 문제</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>본원소득수지,이전소득수지가먼지가르쳐주세요</t>
+          <t>24번 문제 1번 선지에서 A재는 공급량과 수요량이 모두 0인 상태인건가요?  A재가 무엇을 의미하는지를 잘 모르겠어요</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -935,536 +997,611 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>본원 소득 수지, 이전 소득 수지</t>
+          <t>시장 균형 가격이 형성되지 않는 재화</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.본원 소득 수지와 이전 소득 수지는 국제 수지 중 경상 수지를 구성하는 항목으로본원 소득 수지의 경우 투자 소득(주식 배당금, 예금 이자 등)과 근로 소득(급료 및 임금 등)과 관련하여수취한 외화와 지급한 외화의 차액입니다.이전 소득 수지의 경우 아무런 대가 없이 주고받는 외화의 수취와 지급의 차액으로외국에 전달하는 무상 원조, 구호 물자, 기부금 등이 이에 해당합니다.두 경우 모두 국제 수지를 구성하는 항목이므로 '외화의 수취와 지급의 차액'을 파악해야 합니다. 답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.A재의 경우 모든 수량에 대하여 공급자가 최소로 받고자 하는 가격이 소비자가 최대로 지불하고자 하는 가격보다 높아시장 균형 가격이 형성되지 않는 경우입니다.가격을 기준으로 보자면 낮은 가격 수준에서는 수요량은 존재하지만 공급량은 존재하지 않고,높은 가격 수준에서는 공급량은 존재하지만 수요량은 존재하지 않는 것을 볼 수 있습니다.강의에서 강사님께서 예시로 든 '우주여행'같은 경우 공급자가 최소로 받고자 하는 가격이 매우 높지만수요자는 그 수준으로 지불할 의사가 없기 때문에 시장 균형 가격이 형성되지 않는 것입니다.만약 기술이 발달하여 공급자가 최소로 받고자 하는 가격이 낮아진다면 시장 균형 가격이 형성될 수 있을 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>개념</t>
+          <t>정부의 생산물 시장에서의 수요자</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>근로소득,사업소득,이전소득,재산소득이먼지예를들어설명해주세요</t>
+          <t>교재와 강의에서는정부는 생산물 시장에서의 수요자라고만 하셨는데정부는 생산물 시장에서의 수요자면서 공급자가 맞는거 아닌가요?</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>경상 소득</t>
+          <t>정부의 생산물 시장에서의 수요자</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.근로 소득은 '고용 계약에 따라 근로를 제공한 대가로 얻는 소득'입니다.대표적으로 봉급(직장에서 계속적으로 일하는 사람이 그 일의 대가로 정기적으로 받는 보수, ex: 월급),명절 상여금과 같이 정기적으로 받는 상여금 등이 있습니다.사업 소득은 '자영업자 또는 고용주가 사업 경영으로 얻는 소득'입니다.대표적인 예시로 이윤이 있습니다. 어떤 사업체든 사업체를 운영하고 얻는 소득은 사업 소득이 될 수 있습니다.(ex: 미용실에서 발생한 이윤)재산 소득은 '금융 자산이나 실물 자산을 운용하여 얻는 소득'입니다.소유한 주식에서 나오는 주식 배당금, 저축한 예금 등에서 나오는 이자, 토지를 제공한 대가로 받는 임대료 등이 있습니다.이전 소득은 '생산 활동에 참여하지 않고 무상으로 얻는 소득'으로 공적 연금, 사회 보험금 등이 있습니다.(ex: 국민 연금, 공무원 연금, 기초 연금 등)답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>네. 정부는 생산물 시장의 수요자이면서 공급자라고 볼 수 있습니다.정부가 생산하는 대표적인 생산물로 국방 서비스, 도로 등 공공재가 있습니다.도움이 되셨으면 합니다:)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>p.75 수요의 가격 탄력성</t>
+          <t>35번 문제 풀이</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75페이지에 2번 두번째문제 중 숙박 서비스의 탄력성을 강의와 답지에서는 ’탄력적‘이라고 설명하는데 ’완전탄력적‘인거 아닌가요? 가격을 10% 인상한만큼 판매 수입도 10% 감소했으니까요!!</t>
+          <t>안녕하세요35번 [정답 해설]을 보고도 이해가 안돼서 질문 드려요자료1은 그래프이고 자료2는 표인데 어떻게 접근해서 풀어야 할 지 모르겠습니다35번 문제 푸는 전체적인 방법과 ㄱㄴㄷㄹ보기 설명까지 부탁드립니다</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>수요의 가격 탄력성</t>
+          <t>35번 문제 풀이</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제인 '가격을 10% 인상했더니 판매 수입이 10%감소 했다.'의 경우가격 변동률(10%)보다 판매량 감소율이 더 커야(판매량은 10%보다 많이 감소) 성립할 수 있으므로,해당 숙박 서비스의 수요의 가격 탄력성은 '탄력적'입니다. 질문하신 '완전 탄력적'인 경우는 가격이 미세하게 변동(거의 0에 가까운 변화)해도 수요량이 '무한히 변동'하는 경우로문제의 '판매 수입이 10% 감소했어요.'가 성립할 수 없습니다.또한 수요의 가격 탄력성이 완전 탄력적인 경우는 현실에서 예를 찾기 힘든이론적으로만 생각할 수 있는 극단적인 상황이라는 점을 기억하면 문제 풀이에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>문제의 난이도가 높아 질문이 다수 들어오고 있는 문제입니다. 직관적인 이해를 위해 아래 그래프를 첨부해두었습니다. 자료에 따라 다음과 같은 그래프가 그려진다는 점을 토대로 정답과 해설을 비교하여 풀어보시기 바랍니다. 그래도 풀이가 어렵다면 다시한번 질문을 올려주세요!</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+        <v>33</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001267/%EC%A7%88%EB%AC%B8.jpg"]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>초과공급량</t>
+          <t>외부 불경제 &lt;생산 측면&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>균형가격 500원에서 수요자 생산자 2명이므로 가격이 600원으로 오른다면 수요자 1명,공급자 3명으로 초과공급량 1개 맞지않나요?선지 3번이 틀린 이유를 모르겠어요</t>
+          <t>안녕하세요외부 경제가 발생하는 경우 중 생산 측면에서, 보조금을 지급하여 생산량을 늘리고 가격을 낮추는 결과를 얻고자 했기에 보조금을 지급한 이후의 가격이 낮아졌는데, 외부 불경제가 발생하는 경우 중 생산 측면의 경우에는 세금을 부과하여 생산량을 줄이고 가격을 높이는결과를 내고자 했기에 P3가 P1의 아래가 아닌 P2의 위에 위치해야하는 것이 아닌지 문의드립니다.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>초과공급량</t>
+          <t>외부 불경제 &lt;생산 측면&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">균형가격 500원에서 수요자 생산자 2명이므로 가격이 600원으로 오른다면 수요자 1명,공급자 3명으로 초과공급량 1개 맞지않나요?선지 3번이 틀린 이유를 모르겠어요위의 질문에 대한 답변입니다.이 문제에서의 균형 가격은 500원으로 균형 거래량은 2개 입니다. 그 이유는 500원 보다 낮은 가격이 최대 지불용의인 갑,을은 참여하지 않으므로 병, 정만 거래에 참여하며,500원보다 높은 가격이 최소 요구 금액인 C,D는 참여하지 않으므로 A,B만 거래에 참여하여, 수요량과 공급량이 2개로 일치합니다.이런 방법으로 본다면 600원 보다 낮은 가격이 최대 지불용의인 갑,을,병은 참여하지 않고 정만 참여하며,600원보다 높은 가격이 최소 요구 금액인 D는 참여하지 않고 A,B,C가 참여하므로 공급량은 3, 수요량은 1로 초과 공급은 2가 됩니다.이해에 도움이 되셨길 바랍니다.  </t>
+          <t>외부 경제가 발생하는 경우 중 생산 측면에서, 보조금을 지급하여 생산량을 늘리고 가격을 낮추는 결과를 얻고자 했기에 보조금을 지급한 이후의 가격이 낮아졌는데, 외부 불경제가 발생하는 경우 중 생산 측면의 경우에는 세금을 부과하여 생산량을 줄이고 가격을 높이는 결과를 내고자 했기에 P3가 P1의 아래가 아닌 P2의 위에 위치해야하는 것이 아닌지 문의드립니다.답변입니다.가격이 P3가 아니라세금이 P1~P3 값이라는 의미입니다.가격은 P2입니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>총수요 총공급</t>
+          <t>균형가격</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>수출 제품의 가격 경쟁률이 올라가면 순수출이 늘고 그럼 결국 총수요가 증가하는게 왜 아닌가요?왜 총공급이 증가하는건지 이해가 안됩니다ㅠㅠ</t>
+          <t>자료2에 나와있는 공급량을 자료1에 그리면 수요곡선과 공급곡선의 가격이 50과 60사이에서 만나고 60에 더 가깝게 그려지지만 딱 60원을 지나지는 않는데 어떻게 60원이라고 할 수 있는건가요?</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>총수요와 총공급</t>
+          <t>균형가격</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.'국내 기업들의 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다.'해당 내용의 경우 변동 원인인 '에너지 절감 노력'으로 총수요 혹은 총공급의 변화를 파악해야 합니다.에너지 절감 노력은 생산 기술 향상 또는 생산 비용의 감소로 파악해야 하므로 총공급 증가로 분석해야 합니다.총수요와 총공급의 변동과 관련해서는 '변동 원인'이 무엇인지 파악하는 것이 중요합니다.문제 풀이시에 '변동 원인'을 찾는 연습을 한다면 좀 더 쉽게 문제 해결을 할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>그래프로 이해하시면 편하실 것 같아 그림으로 첨부해드립니다!</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001259/%EC%A7%88%EB%AC%B8.jpg"]</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>수요의 가격탄력성에 영향을 주는 요인</t>
+          <t>궁금해요!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12강 끝에 다음시간에 한다고 하시고 스무스하게 빼먹고 넘어가던데…강의 어디에 나올까요?</t>
+          <t>안녕하세요.제가 여쭈어 보고 싶은건 총 세가지 입니다.1.경제황동 유형에서 생산은 재화나 서비스의 가치를 증대 시키는 것은 생산이고 생산활동에 참여한 대가를 받는 활동을 분배라고 배웠습니다.그렇다면 은행이 기업에게 자본을 빌려준 대가로 이자를 받는 것 역시 분배로 볼 수 있는 건가요?그에 더해 분배를 받는 쪽은 반드시 가계여야만 하는 걸까요?2.소비는 만족감을 얻기 위해 재화나 서비스를 구매 하는 것이라면 같은 사과리는 물건이 있더라도가계가 사과를 산다면 생산물로써, 기업이나 정부가 산다면 생산요소로써 구매하는 거라고 이해해야 할까요?3.경제 순환 모형에서 정부는 조세를 통해 공공 서비스를 제공하므로 생산을 하고, 공무원들의 봉급을 지급하므로 분배를 하는것이며,생산물 시장에서 재화와 서비스를 구매하므로 소비 역시 하는 건가요?그렇다면 정부가 사과라는 물건을 구매할때 생산물의 성격인지 생산요소의 성격인지 구분할 수 있는 방법이 있을까요?</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>수강후기 게시판</t>
+          <t>궁금해요!</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.질문하신 부분은 담당부서에 문의 후 재안내 예정입니다.============================Q&amp;A운영자입니다.이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강사께서 특정 부분의 설명을 넘어가셨거나 어디에서 강의를 다시 진행하셨는지에 대한 구체적인 강의 구성은 이곳에서 알기가 어렵습니다.해당 내용은 수강후기 게시판을 통해서 강사께 문의하시는 것이 정확할 것으로 판단됩니다.수강후기 게시판 이용 부탁드립니다.좋은 하루 보내세요.</t>
+          <t>1.경제황동 유형에서 생산은 재화나 서비스의 가치를 증대 시키는 것은 생산이고 생산활동에 참여한 대가를 받는 활동을 분배라고 배웠습니다.그렇다면 은행이 기업에게 자본을 빌려준 대가로 이자를 받는 것 역시 분배로 볼 수 있는 건가요?그에 더해 분배를 받는 쪽은 반드시 가계여야만 하는 걸까요?2.소비는 만족감을 얻기 위해 재화나 서비스를 구매 하는 것이라면 같은 사과리는 물건이 있더라도가계가 사과를 산다면 생산물로써, 기업이나 정부가 산다면 생산요소로써 구매하는 거라고 이해해야 할까요?3.경제 순환 모형에서 정부는 조세를 통해 공공 서비스를 제공하므로 생산을 하고, 공무원들의 봉급을 지급하므로 분배를 하는것이며,생산물 시장에서 재화와 서비스를 구매하므로 소비 역시 하는 건가요?그렇다면 정부가 사과라는 물건을 구매할때 생산물의 성격인지 생산요소의 성격인지 구분할 수 있는 방법이 있을까요?-------------------------------------------------------------------------------------------------------------1. 은행의 대출을 통해 거둔 수익은 금융 서비스를 제공한 대가로 얻는 판매 수입이라고 볼 수 있습니다. 가계는 노동, 토지, 자본 등 생산요소의 소유자로 이를 제공하고 이에 대한 대가를 받는 과정을 분배 활동이라고 합니다.2. 비슷하지만, 한 가지는 명확하지 않을 수 있습니다. 정부에서 사과를 부가가치를 창출하기 위한 수단이 아니라 최종 생산물로써 활용하는 상황에선 생산 요소라고 보기 어렵습니다.3. 앞서 답변 드렸던 것처럼 구매한 재화를 중간재로 사용하느냐, 최종 생산물로 사용하느냐에 따라 달라질 수 있습니다.+ 답변의 질을 위하여 하나의 게시글에는 한 가지 질문만 올려주시면 감사하겠습니다.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>p.83 외부 효과 적용 연습</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>139 페이지  윗쪽생산가능곡선에서C 의 경우   X재의 기회비용이    - &gt;  Y재1 이라고 하셨는데 C는  X재 400개,  Y재 0 개 생산하는데   X재의  기회비용이  왜  Y재 1 인가요?박봄선생님의 이전 설명에 따르면 X재의 기회비용은  0/400   이라서       X재의 기회비용은  0  아닌가요?그리고B 의 경우   Y재의 기회비용이    - &gt;  X재1 이라고 하셨는데 C는  X재 0개,  Y재 400 개 생산하는데   Y재의  기회비용이  왜  X재 1 인가요?박봄선생님의 이전 설명에 따르면 Y재의 기회비용은  0/400   이라서       Y재의 기회비용은  0  아닌가요?감사합니다</t>
+          <t>에서 4번째문제가 잘 이해가 안돼요ㅠㅠ 생선자에 세금 부과를 했다면 왜 사적 비용이 증가되는 건가요.?</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>생산 가능 곡선, 기회비용</t>
+          <t>p.83 외부 효과 적용 연습</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.먼저 생산 가능 곡선의 의미를 설명드리겠습니다.생산 가능 곡선은 주어진 자원을 사용하여 최대로 생산 가능한 두 재화의 조합을 표시한 선입니다.즉, 주어진 그래프에서 A, B, C 점 모두 비효율이 발생하지 않는 X재와 Y재의 생산 조합인 것입니다.C점은 X재 400개 또는 Y재 0개를 생산하는 점이 아니라X재 400개와 Y재 0개를 동시에 생산하는 점인 것입니다.그렇기때문에 기회비용은 X재 400개와 Y재 0개의 사이에서 구하는 것이 아니라그래프 상의 두 점의 관계(B와 C, B와 A, A와 B)를 통해서 구해야 하는 것입니다.C점의 생산을 하는 상황에서 B점으로 변경하고자 한다면,X재 생산 400개를 포기하는 대신 Y재 400개를 생산할 수 있으므로Y재 1개 생산의 기회비용은 X재 1개가 되는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>에서 4번째문제가 잘 이해가 안돼요ㅠㅠ 생선자에 세금 부과를 했다면 왜 사적 비용이 증가되는 건가요.?답변입니다.개인으로서 생산자가 부담하는 세금이라서 사적 비용에 해당됩니다.꽃밭을 조성하기 위해 개인이 사용하는 비용도 사적 비용이 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>가격수준</t>
+          <t>외부효과 그래프</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ㄱ보기에서 가격수준이 높다는 게 무슨 뜻인가요??</t>
+          <t>외부 효과 그래프에서 최적생산량은 항상 ’사회적‘비용과 수요가 만나는 지점이라고 생각하면 될까요?</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>가격수준</t>
+          <t>외부효과 그래프</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 경우 수요와 공급 법칙을 따르는X재이므로 우상향하는 공급곡선, 우하향하는 수요 곡선을 가정하고 있습니다.가격 수준이란 단순하게 가격이 얼마인가를 나타내는 표현으로가격 B는 수요량과 공급량이 일치하므로 균형가격 수준,가격 A는 초과 수요가 있으므로 균형 가격인 B보다 가격 수준이 낮은(일상 표현을 쓴다면 가격이 더 싼) 상태,C는 초과 공급이 있으므로 균형 가격인 B보다 가격 수준이 높은 상태,D는 C보다 초과 공급이 더 크므로 가격 수준이 더 높은 상태인 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>외부 효과 그래프에서 최적생산량은 항상 ’사회적‘비용과 수요가 만나는 지점이라고 생각하면 될까요?답변입니다.네 그렇습니다. 생산측면의 외부그래프의 경우 사회적 비용과 수요가 만나는 지점의 수량이 최적 생산량이 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>공급곡선</t>
+          <t>83p 외부효과 적용 연습</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>수요가 증가하는만큼 공급이 감소할때에도 거래량은 변화가 없고 균형점이 a로 가지 않나요?왜 선생님께서 바로 공급곡선을 수직으로 그리셨는지 모르겠어요…</t>
+          <t>83p 외부효과 적용 연습 두 번째 문제 (그래프 문제)에서 마지막 빈칸이 Q¹Q²라고 설명해주셨는데 Q²-Q¹이 맞지 않나요? 왜 Q¹과 Q²를 곱한 값이 답인지 이해가 안 되어서  질문 드립니다.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>공급곡선</t>
+          <t>83p 외부효과 적용 연습</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>수요가 증가하는만큼 공급이 감소할때에도 거래량은 변화가 없고 균형점이 a로 가지 않나요?왜 선생님께서 바로 공급곡선을 수직으로 그리셨는지 모르겠어요…답변입니다.주어진 조건이 수요곡선만 증가하였는데 균형점이 E에서 a로 이동하는 경우는 공급곡선이 수직인 경우에만 가능하기 때문입니다.공급곡선이 같은 비율로 감소하는 경우 가능하지만 주어진 조건이 없어서 같은 비율이 아닌 경우도 가능하므로 어떤 경우에도 균형점이 a로 바뀌는 것은 공급곡선이 수직인 경우만 가능하기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>83p 외부효과 적용 연습 두 번째 문제 (그래프 문제)에서 마지막 빈칸이 Q¹Q²라고 설명해주셨는데 Q²-Q¹이 맞지 않나요? 왜 Q¹과 Q²를 곱한 값이 답인지 이해가 안 되어서  질문 드립니다답변입니다.경제 그래프에서 Q1Q2라고 표현하는 것은 Q1~Q2까지의 길이를 의미합니다.문의하신 것처럼 Q²-Q¹ 값이기도 합니다.곱하기가 아니라 ~의 의미라고 생각해주세요.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>미래가격 하락</t>
+          <t>개념</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>미래 가격이 상승할 것으로 예상되면 미래에 파는 게 이득이니까 현재의 공급이 감소한다는 건 이해했는데 미래 가격이 하락할 것으로 예상될 때 공급이 증가하는 건 이해가 잘 안 가요.나중엔 지금보다 비싸게 못 파니까 지금 팔려고 공급이 증가하는 건가요? 근데 가격이 하락할 거라면 소비자들이 지금 안 살텐데 그럼 지금 공급을 해봤자 안 팔리지 않나요…? 공급해도 안 팔릴 걸 아는데도 공급이 증가하나요?? 여기선 그런 건 배제하고 생각해야되는 걸까요?</t>
+          <t>기회비용과매몰비용의차이를가르쳐주시고매몰비용이왜 합리적선택을할때고려하면안된다고하는지가르쳐주세요</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>미래가격 하락</t>
+          <t>합리적 선택</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>미래 가격이 상승할 것으로 예상되면 미래에 파는 게 이득이니까 현재의 공급이 감소한다는 건 이해했는데 미래 가격이 하락할 것으로 예상될 때 공급이 증가하는 건 이해가 잘 안 가요.나중엔 지금보다 비싸게 못 파니까 지금 팔려고 공급이 증가하는 건가요? 근데 가격이 하락할 거라면 소비자들이 지금 안 살텐데 그럼 지금 공급을 해봤자 안 팔리지 않나요…? 공급해도 안 팔릴 걸 아는데도 공급이 증가하나요?? 여기선 그런 건 배제하고 생각해야되는 걸까요?답변입니다.이런 부분은 철저하게 생산자의 입장에서만 생각해야 합니다.이런 부분이 혼란이 오는게 대부분 소비자의 입장에서만 고민하였기 때문입니다.미래 가격이 하락할 것이 예상된다면 이후에 더 저렴한 가격으로 팔아야 하니 당장 공급을 증가시키는게 이윤을 추구하는 기업의 목적이 실현된다고 생각해야 합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.기회비용의 정의는 '선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게 되는 대안들 중 가장 가치가 큰 것'입니다.정의를 통해 봤을 때 기회비용은 현재의 여러 선택지 중 하나를 선택할 때 포기하게 될 가치를 의미하는 것입니다.이와 달리 매몰비용은 '이미 지출하여 회수가 불가능한 비용'을 의미합니다.결국 매몰비용은 이미 선택을 하고 비용을 지불했기 때문에 현재의 합리적 선택을 위해서는 고려하지 않아야 합니다.만약 이미 지출한 비용이라고 할지라도 회수가 가능하다면 현재의 선택에 영향을 미칠 수 있기 때문에이 비용은 매몰비용에 해당하지 않고 기회비용에 해당할 수 있습니다.(이 경우는 문제에서 주어진 상황과 조건 등에 따라 어떤 선택을 했는지 고려하여 기회비용으로 계산해야 합니다.)답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19번 선지 질문입니다</t>
+          <t>개념</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19번 문제의 2번 선지에서  X재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 증가한다라고 나와있는데 X재 하나를 생산할 때 Y재 1개,  Z재 3개가 투입되며 비용은 총 40,000원,생산 비용에는 다른 비용은 없다고 했으니 X재 1개에 40,000원, 2개에 80.000이면 ‘추가로 발생하는 비용‘이 40,000 있는거 아닌가요?2번 선지가 왜 옳지 않은 선지인지 이해가 안갑니다.</t>
+          <t>본원소득수지,이전소득수지가먼지가르쳐주세요</t>
         </is>
       </c>
       <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>본원 소득 수지, 이전 소득 수지</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.본원 소득 수지와 이전 소득 수지는 국제 수지 중 경상 수지를 구성하는 항목으로본원 소득 수지의 경우 투자 소득(주식 배당금, 예금 이자 등)과 근로 소득(급료 및 임금 등)과 관련하여수취한 외화와 지급한 외화의 차액입니다.이전 소득 수지의 경우 아무런 대가 없이 주고받는 외화의 수취와 지급의 차액으로외국에 전달하는 무상 원조, 구호 물자, 기부금 등이 이에 해당합니다.두 경우 모두 국제 수지를 구성하는 항목이므로 '외화의 수취와 지급의 차액'을 파악해야 합니다. 답변이 학습에 도움이 되었기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>19번 선지 질문입니다</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>19번 문제의 2번 선지에서  X재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 증가한다라고 나와있는데 X재 하나를 생산할 때 Y재 1개,  Z재 3개가 투입되며 비용은 총 40,000원,생산 비용에는 다른 비용은 없다고 했으니 X재 1개에 40,000원, 2개에 80.000이면 ‘추가로 발생하는 비용‘이 40,000 있는거 아닌가요?2번 선지가 왜 옳지 않은 선지인지 이해가 안갑니다.답변입니다.생산량이 1개씩 증가할 때마다 추가로 발생하는 비용 4만원으로 변동이 없어서 틀린 선지가 됩니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>소비자 잉여 그래프</t>
+          <t>개념</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>친절하고 자세한 답변 감사합니다.그럼 '(개별 소비자의 소비자 잉여의 합) =(시장의 소비자 잉여)'라는 이해는 맞는 것이지요?</t>
+          <t>근로소득,사업소득,이전소득,재산소득이먼지예를들어설명해주세요</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>소비자 잉여</t>
+          <t>경상 소득</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.시장의 수요에서 학습했듯이 시장 수요 곡선은 개별 수요 곡선의 합을 의미합니다.그렇기때문에 개별 소비자의 소비자 잉여의 합은 시장의 소비자 잉여와 같게 되는 것이 맞습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.근로 소득은 '고용 계약에 따라 근로를 제공한 대가로 얻는 소득'입니다.대표적으로 봉급(직장에서 계속적으로 일하는 사람이 그 일의 대가로 정기적으로 받는 보수, ex: 월급),명절 상여금과 같이 정기적으로 받는 상여금 등이 있습니다.사업 소득은 '자영업자 또는 고용주가 사업 경영으로 얻는 소득'입니다.대표적인 예시로 이윤이 있습니다. 어떤 사업체든 사업체를 운영하고 얻는 소득은 사업 소득이 될 수 있습니다.(ex: 미용실에서 발생한 이윤)재산 소득은 '금융 자산이나 실물 자산을 운용하여 얻는 소득'입니다.소유한 주식에서 나오는 주식 배당금, 저축한 예금 등에서 나오는 이자, 토지를 제공한 대가로 받는 임대료 등이 있습니다.이전 소득은 '생산 활동에 참여하지 않고 무상으로 얻는 소득'으로 공적 연금, 사회 보험금 등이 있습니다.(ex: 국민 연금, 공무원 연금, 기초 연금 등)답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>균형점 변동</t>
+          <t>p.75 수요의 가격 탄력성</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>109p 개념 또 봄에서 갑국,을국의 균형점 변동 방향을 찾는데 갑국은 정부 지출을 확대하면 총수요 증가이고 균형점은 E-&gt;D로 가고 을국은 생산비가 하락하면 총공급 증가로 균형점은 E-&gt;B 아닌가요?근데 답지에는 갑국: E-&gt;B 을국: E-&gt;D 이라고 되어있어요. 잘 이해가 안가서 자세한 설명 부탁드립니다.</t>
+          <t>75페이지에 2번 두번째문제 중 숙박 서비스의 탄력성을 강의와 답지에서는 ’탄력적‘이라고 설명하는데 ’완전탄력적‘인거 아닌가요? 가격을 10% 인상한만큼 판매 수입도 10% 감소했으니까요!!</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>국민 경제의 균형과 변동</t>
+          <t>수요의 가격 탄력성</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.먼저, 갑국의 정부 지출 확대가 총수요 증가 요인, 을국의 생산비 하락이 총공급 증가 요인인 것은 맞습니다.총수요가 증가하는 경우는 총공급 곡선은 변화가 없는 상태에서 '총수요 곡선'만 오른쪽으로 이동하므로E점이 B점으로 이동하게 되는 것이고,총공급이 증가하는 경우는 총수요 곡선은 변화가 없는 상태에서 '총공급 곡선'만 오른쪽으로 이동하므로E점이 D점으로 이동하게 되는 것입니다.시장 균형의 결정과 변동에서 수요 또는 공급 곡선 자체가 이동하는 것처럼곡선상의 점이 이동하는 것이 아니라 곡선 자체가 이동한다는 것을 생각하면 쉽게 이해할 수 있을 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제인 '가격을 10% 인상했더니 판매 수입이 10%감소 했다.'의 경우가격 변동률(10%)보다 판매량 감소율이 더 커야(판매량은 10%보다 많이 감소) 성립할 수 있으므로,해당 숙박 서비스의 수요의 가격 탄력성은 '탄력적'입니다. 질문하신 '완전 탄력적'인 경우는 가격이 미세하게 변동(거의 0에 가까운 변화)해도 수요량이 '무한히 변동'하는 경우로문제의 '판매 수입이 10% 감소했어요.'가 성립할 수 없습니다.또한 수요의 가격 탄력성이 완전 탄력적인 경우는 현실에서 예를 찾기 힘든이론적으로만 생각할 수 있는 극단적인 상황이라는 점을 기억하면 문제 풀이에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72번 문제 질문</t>
+          <t>초과공급량</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>국공채 매입은 침체 상황 즉 확대 재정 정책 아닌가요? 그래서 매입으로 인해 통화량이 증가해서 정답은 1번같은데 해설지엔 3번이라 되어있고 답 풀이가 명확하게 되어있지 않네요</t>
+          <t>균형가격 500원에서 수요자 생산자 2명이므로 가격이 600원으로 오른다면 수요자 1명,공급자 3명으로 초과공급량 1개 맞지않나요?선지 3번이 틀린 이유를 모르겠어요</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>72번 문제 질문</t>
+          <t>초과공급량</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>국공채 매입은 침체 상황 즉 확대 재정 정책 아닌가요? 그래서 매입으로 인해 통화량이 증가해서 정답은 1번같은데 해설지엔 3번이라 되어있고 답 풀이가 명확하게 되어있지 않네요답변입니다.우선 국공채 매입은 중앙은행이 실시하는 통화정책입니다.재정정책은 정부가 실시하는 이른바 세금 인하등이 해당됩니다.재정정책이냐 통화정책이냐 구분하는 문제가 꽤 있으니 꼭 확인해주세요.ㄴ은 중앙은행이 시중에 있는 국공채를 매입하면 중앙은행이 갖고 있는 돈이 시중에 풀리므로 통화량 증가요인이 되고ㄷ은 을국 중앙은행이 기준 금리를 대폭 인상하면 을국 기업의 경제적 부담이 커지므로 투자지출은 감소하게 됩니다. 반대로 기준 금리를 인하하면 이전보다 이자를 적게 지급해도 되므로 투자를 더 늘리게 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">균형가격 500원에서 수요자 생산자 2명이므로 가격이 600원으로 오른다면 수요자 1명,공급자 3명으로 초과공급량 1개 맞지않나요?선지 3번이 틀린 이유를 모르겠어요위의 질문에 대한 답변입니다.이 문제에서의 균형 가격은 500원으로 균형 거래량은 2개 입니다. 그 이유는 500원 보다 낮은 가격이 최대 지불용의인 갑,을은 참여하지 않으므로 병, 정만 거래에 참여하며,500원보다 높은 가격이 최소 요구 금액인 C,D는 참여하지 않으므로 A,B만 거래에 참여하여, 수요량과 공급량이 2개로 일치합니다.이런 방법으로 본다면 600원 보다 낮은 가격이 최대 지불용의인 갑,을,병은 참여하지 않고 정만 참여하며,600원보다 높은 가격이 최소 요구 금액인 D는 참여하지 않고 A,B,C가 참여하므로 공급량은 3, 수요량은 1로 초과 공급은 2가 됩니다.이해에 도움이 되셨길 바랍니다.  </t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>64p 35번 문제 질문드립니다.</t>
+          <t>총수요 총공급</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>해당 문제에서처럼 공급곡선이 기울기가 일정한 직선으로 그려지지 않는 경우에는 균형 가격을 어떻게 찾아야하나요?</t>
+          <t>수출 제품의 가격 경쟁률이 올라가면 순수출이 늘고 그럼 결국 총수요가 증가하는게 왜 아닌가요?왜 총공급이 증가하는건지 이해가 안됩니다ㅠㅠ</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>64p 35번 문제 질문드립니다.</t>
+          <t>총수요와 총공급</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>해당 문제에서처럼 공급곡선이 기울기가 일정한 직선으로 그려지지 않는 경우에는 균형 가격을 어떻게 찾아야하나요?답변입니다.현재 문제를 보면 수요곡선이 주어져 있고 최소요구금액과 공급자수가 주어져 있으니공급곡선을 그릴 수 있습니다.균형가격은 수요곡선과 공급곡선이 만나는 점이 됩니다.도움이 되셨으면 좋겠습니다.아래 그래프는 함께 답변해주신 선생님께서 그려주신 건데 검정 색이 주어진 자료를 바탕으로 그린 공급곡선입니다.참고해주세요.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.'국내 기업들의 에너지 절감 노력으로 수출 제품의 가격 경쟁력이 향상되었다.'해당 내용의 경우 변동 원인인 '에너지 절감 노력'으로 총수요 혹은 총공급의 변화를 파악해야 합니다.에너지 절감 노력은 생산 기술 향상 또는 생산 비용의 감소로 파악해야 하므로 총공급 증가로 분석해야 합니다.총수요와 총공급의 변동과 관련해서는 '변동 원인'이 무엇인지 파악하는 것이 중요합니다.문제 풀이시에 '변동 원인'을 찾는 연습을 한다면 좀 더 쉽게 문제 해결을 할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>소비자 잉여 그래프</t>
+          <t>수요의 가격탄력성에 영향을 주는 요인</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>영상 해당 부분에서 시장 가격이 2000원일 때 소비자 잉여가 그래프 하단의 면적인 2000×4÷2=4000, 4000원으로 설명해주셨는데, 해당 그래프에서 갑의 소비자 잉여는 1500원, 을은 1000원, 병은 500원으로 총합이 3000원입니다. 개별 소비자의 소비자 잉여와 그래프 상의 면적으로 계산하는 소비자 잉여의 관계에 대한 저의 접근이 틀린 것 같은데, 그 부분을 모르겠어서 질문드립니다. 그래프 하단의 면적으로 구하는 소비자 잉여(영상 해당 부분의 그래프에서는 2000×4÷2=4000원)와 개별 소비자의 소비자 잉여(갑, 을, 병 각각의 소비자 잉여)의 관계를 어떻게 이해하면 되나요? 자세한 설명 부탁드립니다.</t>
+          <t>12강 끝에 다음시간에 한다고 하시고 스무스하게 빼먹고 넘어가던데…강의 어디에 나올까요?</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>소비자 잉여</t>
+          <t>수강후기 게시판</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.(파란색과 빨간색으로 내용을 구분했습니다.)해당 강의에 나왔듯이수요자가 갑~무만 있다고 가정하는 경우 소비자인 갑, 을, 병, 정의 소비자 잉여는각각 1500원, 1000원, 500원, 0원이고 이를 합한 것이 해당 시장의 소비자 잉여인 것이 맞습니다.하지만 일반적인 수요곡선에서는 0~갑, 갑과 을, 을과 병, 병과 정, 정과 무 사이에또 다른 수요자(개별 수요자)가 무수히 많이 있다는 것을 가정하고 그래프를 곡선(혹은 직선)의 형태로 그리는 것입니다.이러한 경우는 미세하게 나누어진 개별 소비자들의 잉여를 모두 더해야 하므로수요곡선 아래 삼각형 전체 면적으로 소비자 잉여를 구합니다.(강의에서 4000원으로 계산한 경우)만약, 사이에 있는 개별 수요자를 가정하지 않는다면 그래프는 곡선(혹은 직선)의 형태를 가지지 않고계단식으로 그려지게 될 것입니다.('갑의 막대그래프, 을의 막대그래프' 식으로 그려지는 것입니다.)그리고 이 경우에는 갑, 을, 병, 정의 각 소비자 잉여를 합해 시장 전체의 소비자 잉여(3,000원)를 구하는 것이 맞습니다.해당 강의 내용에서는 직선의 수요곡선을 그렸으므로0~갑, 갑~을, 을~병, 병~정에 있는 개별 소비자가 있다는 점을 생각해야 하는 것이죠.마지막으로, 위와 같은 이유로 문제를 풀이하는 경우,'X재 시장에서 수요자는 갑~무뿐이다.', 'X재는 수요 법칙을 따르며, 수요 곡선은 직선이다.'와 같은 표현을 확인하고문제를 풀이해야 합니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.질문하신 부분은 담당부서에 문의 후 재안내 예정입니다.============================Q&amp;A운영자입니다.이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강사께서 특정 부분의 설명을 넘어가셨거나 어디에서 강의를 다시 진행하셨는지에 대한 구체적인 강의 구성은 이곳에서 알기가 어렵습니다.해당 내용은 수강후기 게시판을 통해서 강사께 문의하시는 것이 정확할 것으로 판단됩니다.수강후기 게시판 이용 부탁드립니다.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1475,195 +1612,229 @@
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>코로나 금리 인상</t>
+          <t>기회비용</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>코로나 때는 경기 침체기였는데 금리 인상해서 총수요를 줄인 이유는 뭔가요? 인플레이션과 관련있어서 그런건가요?</t>
+          <t>139 페이지  윗쪽생산가능곡선에서C 의 경우   X재의 기회비용이    - &gt;  Y재1 이라고 하셨는데 C는  X재 400개,  Y재 0 개 생산하는데   X재의  기회비용이  왜  Y재 1 인가요?박봄선생님의 이전 설명에 따르면 X재의 기회비용은  0/400   이라서       X재의 기회비용은  0  아닌가요?그리고B 의 경우   Y재의 기회비용이    - &gt;  X재1 이라고 하셨는데 C는  X재 0개,  Y재 400 개 생산하는데   Y재의  기회비용이  왜  X재 1 인가요?박봄선생님의 이전 설명에 따르면 Y재의 기회비용은  0/400   이라서       Y재의 기회비용은  0  아닌가요?감사합니다</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>코로나 금리 인상</t>
+          <t>생산 가능 곡선, 기회비용</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>코로나 때는 경기 침체기였는데 금리 인상해서 총수요를 줄인 이유는 뭔가요? 인플레이션과 관련있어서 그런건가요?답변입니다.일반적으로 경기 침체기는 금리를 인하하여 총수요를 증대시키는 정책을 펼칩니다.그러나 코로나 시기에 금리인상을 한 이유는 고물가를 진정시키기 위한 정책으로 봐야합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.먼저 생산 가능 곡선의 의미를 설명드리겠습니다.생산 가능 곡선은 주어진 자원을 사용하여 최대로 생산 가능한 두 재화의 조합을 표시한 선입니다.즉, 주어진 그래프에서 A, B, C 점 모두 비효율이 발생하지 않는 X재와 Y재의 생산 조합인 것입니다.C점은 X재 400개 또는 Y재 0개를 생산하는 점이 아니라X재 400개와 Y재 0개를 동시에 생산하는 점인 것입니다.그렇기때문에 기회비용은 X재 400개와 Y재 0개의 사이에서 구하는 것이 아니라그래프 상의 두 점의 관계(B와 C, B와 A, A와 B)를 통해서 구해야 하는 것입니다.C점의 생산을 하는 상황에서 B점으로 변경하고자 한다면,X재 생산 400개를 포기하는 대신 Y재 400개를 생산할 수 있으므로Y재 1개 생산의 기회비용은 X재 1개가 되는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>154pg 환율 변동의 영향</t>
+          <t>가격수준</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>갑국은 대미 무역에서 경상수지가 개선된다. 라고 나와있는데갑국통화/달러 환율이 상승했으니 갑국의 수출이 증가했기 때문인가요? 환율이 높아지면 갑국에게 수입면에선 불리한거 아닌가요...</t>
+          <t>ㄱ보기에서 가격수준이 높다는 게 무슨 뜻인가요??</t>
         </is>
       </c>
       <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>가격수준</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 경우 수요와 공급 법칙을 따르는X재이므로 우상향하는 공급곡선, 우하향하는 수요 곡선을 가정하고 있습니다.가격 수준이란 단순하게 가격이 얼마인가를 나타내는 표현으로가격 B는 수요량과 공급량이 일치하므로 균형가격 수준,가격 A는 초과 수요가 있으므로 균형 가격인 B보다 가격 수준이 낮은(일상 표현을 쓴다면 가격이 더 싼) 상태,C는 초과 공급이 있으므로 균형 가격인 B보다 가격 수준이 높은 상태,D는 C보다 초과 공급이 더 크므로 가격 수준이 더 높은 상태인 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>154pg 환율 변동의 영향</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>갑국은 대미 무역에서 경상수지가 개선된다. 라고 나와있는데갑국통화/달러 환율이 상승했으니 갑국의 수출이 증가했기 때문인가요? 환율이 높아지면 갑국에게 수입면에선 불리한거 아닌가요...답변입니다.환율이 상승하면 수출이 증대되고 수입이 감소하는게 맞습니다.경상수지가 개선된다는 것의 의미는 이전보다 외화 유입액이 증가(유입액이 증가하거나 유출액이 감소하는 것 모두 가능)하는 것을 말합니다.유출액은 감소(수입 감소), 유입액은 증가(수출효과)하여 경상수지가 개선됩니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022년 9월 12번</t>
+          <t>공급곡선</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>t+1의 순수출이 왜 30이 아니라 20인가요실질GDP에서 소비지출 기업투자 정부 지출을 뺀것이 순수출 아닌가요? 그럼 30이 나오는데요</t>
+          <t>수요가 증가하는만큼 공급이 감소할때에도 거래량은 변화가 없고 균형점이 a로 가지 않나요?왜 선생님께서 바로 공급곡선을 수직으로 그리셨는지 모르겠어요…</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>공급곡선</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>수요가 증가하는만큼 공급이 감소할때에도 거래량은 변화가 없고 균형점이 a로 가지 않나요?왜 선생님께서 바로 공급곡선을 수직으로 그리셨는지 모르겠어요…답변입니다.주어진 조건이 수요곡선만 증가하였는데 균형점이 E에서 a로 이동하는 경우는 공급곡선이 수직인 경우에만 가능하기 때문입니다.공급곡선이 같은 비율로 감소하는 경우 가능하지만 주어진 조건이 없어서 같은 비율이 아닌 경우도 가능하므로 어떤 경우에도 균형점이 a로 바뀌는 것은 공급곡선이 수직인 경우만 가능하기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2022년 9월 12번</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>t+1의 순수출이 왜 30이 아니라 20인가요실질GDP에서 소비지출 기업투자 정부 지출을 뺀것이 순수출 아닌가요? 그럼 30이 나오는데요?답변입니다.20억 달러가 맞습니다.주어진 자료는 지출 측면인 총수요=가계소비 + 기업투자 + 정부지출 + 순수춭의 공식을 가지고 푸는 문제입니다.아래 과정을 통해 혹시 실수한 부분이 있는지 살펴봐 주세요.t+1년 명목 GDP가 전년 대비 10% 증가하여 220억 달러가 되었다고 했으니기준연도인 t년의 명목과 실질GDP는 200억 달러가 되고t+1년 경제성장률이 5%라고 제시되어 있으니 경제성장률은 실질GDP 변화율이니t+1년 실질 GDP는 200억달러*1.05 = 210억 달러가 됩니다.t년(200억 달러)의 가계소비(110억 달러) + 기업투자 (40억 달러) + 정부지출(20억 달러) + 순수출(30억 달러)가 됩니다.t+1년(210억 달러)의 가계 소비(120억 달러) + 기업투자(40억 달러) + 정부지출(30억 달러) + 순수출(20억 달러)가 됩니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>총수요 증가의 원인</t>
+          <t>미래가격 하락</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>교재 109쪽의 위쪽 예시문제 2번째부분에 “정부의 신도시 건설 계획에 따라 건설 회사들이 설비를 확장하였다.” 라고 하는데,선생님이 설명해주신 회사들이 설비 확장이 기업의 투자지출에 해당되어서 총수요가 늘어날 수 있지만, 정부의 신도시 건설 계획으로 인한것이니, 정부의 신도시 건설 계획도 정부지출로 총수요의 증가 원인이 될 수 있지 않을까요?</t>
+          <t>미래 가격이 상승할 것으로 예상되면 미래에 파는 게 이득이니까 현재의 공급이 감소한다는 건 이해했는데 미래 가격이 하락할 것으로 예상될 때 공급이 증가하는 건 이해가 잘 안 가요.나중엔 지금보다 비싸게 못 파니까 지금 팔려고 공급이 증가하는 건가요? 근데 가격이 하락할 거라면 소비자들이 지금 안 살텐데 그럼 지금 공급을 해봤자 안 팔리지 않나요…? 공급해도 안 팔릴 걸 아는데도 공급이 증가하나요?? 여기선 그런 건 배제하고 생각해야되는 걸까요?</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>총수요 증가의 원인</t>
+          <t>미래가격 하락</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>네. 답변드리겠습니다. '정부의 신도시 건설 계획'만으로는 정부 지출에 포함된다고 보기도, 그렇지 않다고 말하기도 어렵습니다.건설 회사들이 설비는 확장하는 과정에 정부의 지원이 있었는지 없었는지를 파악할 수 없기 때문입니다.대부분의 경제 개념이나 원리들이 딱 잘라말하기 어려운 부분들이 많습니다.모든 경제 활동은 순환하고 연관성을 갖기 때문입니다.따라서, 개념 정립에 있어서는 오늘 질문처럼 끝없이 탐구하는 것을, 문제 풀이에 있어서는 선지에서 요구하는 것 이상으로 확장시키지 않는 것을 추천드립니다ㅎㅎ도움이 되셨으면 합니다:)</t>
+          <t>미래 가격이 상승할 것으로 예상되면 미래에 파는 게 이득이니까 현재의 공급이 감소한다는 건 이해했는데 미래 가격이 하락할 것으로 예상될 때 공급이 증가하는 건 이해가 잘 안 가요.나중엔 지금보다 비싸게 못 파니까 지금 팔려고 공급이 증가하는 건가요? 근데 가격이 하락할 거라면 소비자들이 지금 안 살텐데 그럼 지금 공급을 해봤자 안 팔리지 않나요…? 공급해도 안 팔릴 걸 아는데도 공급이 증가하나요?? 여기선 그런 건 배제하고 생각해야되는 걸까요?답변입니다.이런 부분은 철저하게 생산자의 입장에서만 생각해야 합니다.이런 부분이 혼란이 오는게 대부분 소비자의 입장에서만 고민하였기 때문입니다.미래 가격이 하락할 것이 예상된다면 이후에 더 저렴한 가격으로 팔아야 하니 당장 공급을 증가시키는게 이윤을 추구하는 기업의 목적이 실현된다고 생각해야 합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>균형 거래량 감소</t>
+          <t>19번 선지 질문입니다</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>왜 ㄷ이 틀렸는지 모르겠어요 원래의 공급곡선 그래프를 위로 10만큼 올려서 그리면 그게 생산자에게 10원의 세금을 부과했을 때의 공급곡선이 되고, 그러면 수요와 공급 곡선의 교점이 원래 수량인 60개보다 작은 쪽에 형성되니깐 균형거래량이 감소하는 거 아닌가요??</t>
+          <t>19번 문제의 2번 선지에서  X재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 증가한다라고 나와있는데 X재 하나를 생산할 때 Y재 1개,  Z재 3개가 투입되며 비용은 총 40,000원,생산 비용에는 다른 비용은 없다고 했으니 X재 1개에 40,000원, 2개에 80.000이면 ‘추가로 발생하는 비용‘이 40,000 있는거 아닌가요?2번 선지가 왜 옳지 않은 선지인지 이해가 안갑니다.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>균형거래량 감소</t>
+          <t>19번 선지 질문입니다</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>난이도가 상당히 높은 문제입니다. 비슷한 질문이 많았는데 그래프로 보여드리는게 효과적이더군요.그래프 첨부드립니다:)</t>
+          <t>19번 문제의 2번 선지에서  X재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 증가한다라고 나와있는데 X재 하나를 생산할 때 Y재 1개,  Z재 3개가 투입되며 비용은 총 40,000원,생산 비용에는 다른 비용은 없다고 했으니 X재 1개에 40,000원, 2개에 80.000이면 ‘추가로 발생하는 비용‘이 40,000 있는거 아닌가요?2번 선지가 왜 옳지 않은 선지인지 이해가 안갑니다.답변입니다.생산량이 1개씩 증가할 때마다 추가로 발생하는 비용 4만원으로 변동이 없어서 틀린 선지가 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>희귀성</t>
+          <t>소비자 잉여 그래프</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>㉠이 왜 희귀성과 희소성이 모두 있는거에요? 절대적인 양이 부족한거는 희귀성 아닌가요..?</t>
+          <t>친절하고 자세한 답변 감사합니다.그럼 '(개별 소비자의 소비자 잉여의 합) =(시장의 소비자 잉여)'라는 이해는 맞는 것이지요?</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1671,131 +1842,163 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>희소성과 희귀성</t>
+          <t>소비자 잉여</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제는 희소성의 유무를 파악할 수 있는 질문 '인간의 욕구보다 많이 존재하여 무상으로 소비할 수 있는가?'에 따라A는 무상재, B는 경제재로 구분합니다.그 후 경제재인 B를 '㉠ 절대적인 양이 적은 재화(희귀성 있음)', '㉡ 절대적인 양이 적지 않은 재화(희귀성 없음)'로다시 분류하는 것입니다.최종적으로 A는 희소성이 없는 무상재,경제재인 B 중 ㉠은 희소성과 희귀성이 동시에 있는 경제재, ㉡은 희소성은 있지만 희귀성은 없는 경제재로구분할 수 있는 것입니다.재화에 따라 희소성과 희귀성이 둘 다 있을 수 있다는 점을 기억하시면 문제 풀이에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.시장의 수요에서 학습했듯이 시장 수요 곡선은 개별 수요 곡선의 합을 의미합니다.그렇기때문에 개별 소비자의 소비자 잉여의 합은 시장의 소비자 잉여와 같게 되는 것이 맞습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>선지 3번이요ㅠ</t>
+          <t>균형점 변동</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3번이 이해가ㅜ되지 않습니다.</t>
+          <t>109p 개념 또 봄에서 갑국,을국의 균형점 변동 방향을 찾는데 갑국은 정부 지출을 확대하면 총수요 증가이고 균형점은 E-&gt;D로 가고 을국은 생산비가 하락하면 총공급 증가로 균형점은 E-&gt;B 아닌가요?근데 답지에는 갑국: E-&gt;B 을국: E-&gt;D 이라고 되어있어요. 잘 이해가 안가서 자세한 설명 부탁드립니다.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>선지 3번이요ㅠ</t>
+          <t>국민 경제의 균형과 변동</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3번이 이해가ㅜ되지 않습니다.답변입니다.문제의 조건 중 갑국의 Y재 1개 소비의 기회비용이 증가했다고 되어 있으니비교우위 재화가 갑국은 Y, 을국은 X가 됩니다.을국의 X재 소비량이 30개이고갑국의 소비량이 X재 30, Y 30개이니갑국은 Y재 10개를 주고 X재 30개를 받은 상황이 되니 이때 을국의 소비점은 (X 30, Y 10)따라서 교역조건이 X 3 = Y 1이 되고 을국의 X재 최대 생산량은 60개가 됩니다.선지 3번을 보면 을국의 Y재 최대 생산량이 20개보다 많다고 되어 있는데교역 후 교역 조건이 X 3 = Y 1이므로 Y재 최대 생산량이 20개를 초과하면예를 들어 30개라면 교역 전 을국내에서 거래 조건은 X2 = Y1이 되는데 교역후 교역조건인 X3 = Y1로 적용하면이전보다 X재를 1개 더 줘야하므로 손해가 발생하여 교역하지 않게 됩니다.따라서 20개를 초과하면 안됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.먼저, 갑국의 정부 지출 확대가 총수요 증가 요인, 을국의 생산비 하락이 총공급 증가 요인인 것은 맞습니다.총수요가 증가하는 경우는 총공급 곡선은 변화가 없는 상태에서 '총수요 곡선'만 오른쪽으로 이동하므로E점이 B점으로 이동하게 되는 것이고,총공급이 증가하는 경우는 총수요 곡선은 변화가 없는 상태에서 '총공급 곡선'만 오른쪽으로 이동하므로E점이 D점으로 이동하게 되는 것입니다.시장 균형의 결정과 변동에서 수요 또는 공급 곡선 자체가 이동하는 것처럼곡선상의 점이 이동하는 것이 아니라 곡선 자체가 이동한다는 것을 생각하면 쉽게 이해할 수 있을 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>42쪽 22번 1번</t>
+          <t>72번 문제 질문</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1번에서 과세대상소득 증가율이 세액증가율과 같다고했는데 세액증가율은 증가가 없이 계속 같은값이고 과세대상소득은 증가하고있는데 어떻게 증가율이 같다고할수있나요..?</t>
+          <t>국공채 매입은 침체 상황 즉 확대 재정 정책 아닌가요? 그래서 매입으로 인해 통화량이 증가해서 정답은 1번같은데 해설지엔 3번이라 되어있고 답 풀이가 명확하게 되어있지 않네요</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>42쪽 22번 1번</t>
+          <t>72번 문제 질문</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1번에서 과세대상소득 증가율이 세액증가율과 같다고했는데 세액증가율은 증가가 없이 계속 같은값이고 과세대상소득은 증가하고있는데 어떻게 증가율이 같다고할수있나요..?답변입니다.갑국의 세율이 비례세이기 때문입니다.우상향하는 비례세 그래프의 경우 과세표준 금액이 증가할수록 세액이 일정하게 증가하므로 과세대상소득 증가율이 세액증가율과 같게 됩니다.예를 들어 10% 비례세가 적용되고소득이 1천 만원일 때 세액은 100 만원인데소득이 10% 증가(1,100 만원)하면 세액은 110만원으로 세액도 동일하게 10% 증가하게 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>국공채 매입은 침체 상황 즉 확대 재정 정책 아닌가요? 그래서 매입으로 인해 통화량이 증가해서 정답은 1번같은데 해설지엔 3번이라 되어있고 답 풀이가 명확하게 되어있지 않네요답변입니다.우선 국공채 매입은 중앙은행이 실시하는 통화정책입니다.재정정책은 정부가 실시하는 이른바 세금 인하등이 해당됩니다.재정정책이냐 통화정책이냐 구분하는 문제가 꽤 있으니 꼭 확인해주세요.ㄴ은 중앙은행이 시중에 있는 국공채를 매입하면 중앙은행이 갖고 있는 돈이 시중에 풀리므로 통화량 증가요인이 되고ㄷ은 을국 중앙은행이 기준 금리를 대폭 인상하면 을국 기업의 경제적 부담이 커지므로 투자지출은 감소하게 됩니다. 반대로 기준 금리를 인하하면 이전보다 이자를 적게 지급해도 되므로 투자를 더 늘리게 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>교재 161p. 아래 4번 문장</t>
+          <t>64p 35번 문제 질문드립니다.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>상품 수출액과 상품 수입액의 합은 2018년보다 2019년이 크다. (X) 가 정답이고 그 이유가 알 수 없기 때문이라고 적혀있는데상품 수출액과 상품 수입액의 합은 상품 수지를 나타내므로 맞는 말 아닌가요?</t>
+          <t>해당 문제에서처럼 공급곡선이 기울기가 일정한 직선으로 그려지지 않는 경우에는 균형 가격을 어떻게 찾아야하나요?</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>교재 161p. 아래 4번 문장</t>
+          <t>64p 35번 문제 질문드립니다.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>상품 수출액과 상품 수입액의 합은 2018년보다 2019년이 크다. (X) 가 정답이고 그 이유가 알 수 없기 때문이라고 적혀있는데상품 수출액과 상품 수입액의 합은 상품 수지를 나타내므로 맞는 말 아닌가요?답변입니다.그렇지 않습니다.상품수지 = 상품 수출액 – 상품 수입액입니다.결과만 알뿐이지 과정은 파악하기 어렵습니다.예를 들어 상품수지가 100억 달러인데상품수출액이 200억 달러이고 상품 수입액이 100억 달러도 가능하고상품 수출액이 300억 달러이고 상품 수입액이 200억 달러인 경우도 가능하기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>해당 문제에서처럼 공급곡선이 기울기가 일정한 직선으로 그려지지 않는 경우에는 균형 가격을 어떻게 찾아야하나요?답변입니다.현재 문제를 보면 수요곡선이 주어져 있고 최소요구금액과 공급자수가 주어져 있으니공급곡선을 그릴 수 있습니다.균형가격은 수요곡선과 공급곡선이 만나는 점이 됩니다.도움이 되셨으면 좋겠습니다.아래 그래프는 함께 답변해주신 선생님께서 그려주신 건데 검정 색이 주어진 자료를 바탕으로 그린 공급곡선입니다.참고해주세요.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001238/35%EB%B2%88_%EB%AC%B8%EC%A0%9C_%EA%B7%B8%EB%9E%98%ED%94%84.png"]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>상여금</t>
+          <t>소비자 잉여 그래프</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">p.173 91번문제 문제 내에 제시된 상여금이 정기적인지 비정기적인지 어떻게 알 수 있는건가요?월급 명세서라는 점에서 상여금이 정기적으로 지급된다고 생각하면 되는건가요? </t>
+          <t>영상 해당 부분에서 시장 가격이 2000원일 때 소비자 잉여가 그래프 하단의 면적인 2000×4÷2=4000, 4000원으로 설명해주셨는데, 해당 그래프에서 갑의 소비자 잉여는 1500원, 을은 1000원, 병은 500원으로 총합이 3000원입니다. 개별 소비자의 소비자 잉여와 그래프 상의 면적으로 계산하는 소비자 잉여의 관계에 대한 저의 접근이 틀린 것 같은데, 그 부분을 모르겠어서 질문드립니다. 그래프 하단의 면적으로 구하는 소비자 잉여(영상 해당 부분의 그래프에서는 2000×4÷2=4000원)와 개별 소비자의 소비자 잉여(갑, 을, 병 각각의 소비자 잉여)의 관계를 어떻게 이해하면 되나요? 자세한 설명 부탁드립니다.</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1803,870 +2006,998 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>상여금</t>
+          <t>소비자 잉여</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>네. 답변드리겠습니다.우선, 월급 명세서에 적혀있다고해서 무조건 경상소득에 포함되는 것은 아닙니다.상여금은 대다수의 기업에서 정기적으로 지급하고 있으므로 통상적으로 경상 소득에 포함되는 개념입니다.'상여금은 경상소득에 포함된다'라고 암기하시면 되겠습니다.화이팅하세요:)</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.(파란색과 빨간색으로 내용을 구분했습니다.)해당 강의에 나왔듯이수요자가 갑~무만 있다고 가정하는 경우 소비자인 갑, 을, 병, 정의 소비자 잉여는각각 1500원, 1000원, 500원, 0원이고 이를 합한 것이 해당 시장의 소비자 잉여인 것이 맞습니다.하지만 일반적인 수요곡선에서는 0~갑, 갑과 을, 을과 병, 병과 정, 정과 무 사이에또 다른 수요자(개별 수요자)가 무수히 많이 있다는 것을 가정하고 그래프를 곡선(혹은 직선)의 형태로 그리는 것입니다.이러한 경우는 미세하게 나누어진 개별 소비자들의 잉여를 모두 더해야 하므로수요곡선 아래 삼각형 전체 면적으로 소비자 잉여를 구합니다.(강의에서 4000원으로 계산한 경우)만약, 사이에 있는 개별 수요자를 가정하지 않는다면 그래프는 곡선(혹은 직선)의 형태를 가지지 않고계단식으로 그려지게 될 것입니다.('갑의 막대그래프, 을의 막대그래프' 식으로 그려지는 것입니다.)그리고 이 경우에는 갑, 을, 병, 정의 각 소비자 잉여를 합해 시장 전체의 소비자 잉여(3,000원)를 구하는 것이 맞습니다.해당 강의 내용에서는 직선의 수요곡선을 그렸으므로0~갑, 갑~을, 을~병, 병~정에 있는 개별 소비자가 있다는 점을 생각해야 하는 것이죠.마지막으로, 위와 같은 이유로 문제를 풀이하는 경우,'X재 시장에서 수요자는 갑~무뿐이다.', 'X재는 수요 법칙을 따르며, 수요 곡선은 직선이다.'와 같은 표현을 확인하고문제를 풀이해야 합니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>상품거래액</t>
+          <t>코로나 금리 인상</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>p.163 87번문제 1번선지상품거래액이 상품 수출액과 수입액을 더한 값이라고 생각하면 되는건가요??</t>
+          <t>코로나 때는 경기 침체기였는데 금리 인상해서 총수요를 줄인 이유는 뭔가요? 인플레이션과 관련있어서 그런건가요?</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>상품거래액</t>
+          <t>코로나 금리 인상</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>네. 정확합니다!</t>
+          <t>코로나 때는 경기 침체기였는데 금리 인상해서 총수요를 줄인 이유는 뭔가요? 인플레이션과 관련있어서 그런건가요?답변입니다.일반적으로 경기 침체기는 금리를 인하하여 총수요를 증대시키는 정책을 펼칩니다.그러나 코로나 시기에 금리인상을 한 이유는 고물가를 진정시키기 위한 정책으로 봐야합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>교재 143쪽 78번의 5번 선지</t>
+          <t>154pg 환율 변동의 영향</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1~4번은 이해가 갔는데, 5번 선지는 어ㅔ떻게 접근해야하는지도 감이 안 잡힙니다 ㅠㅠ</t>
+          <t>갑국은 대미 무역에서 경상수지가 개선된다. 라고 나와있는데갑국통화/달러 환율이 상승했으니 갑국의 수출이 증가했기 때문인가요? 환율이 높아지면 갑국에게 수입면에선 불리한거 아닌가요...</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>비교 우위</t>
+          <t>154pg 환율 변동의 영향</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.5번 선지의 경우 갑국의 X재 생산의 기회비용을 통해 구할 수 있습니다.선지에서 '교역 전과 후 갑국의 X재 소비량이 같다면,'의 내용을 통해 교역 전 X재를 30개 소비했음을 가정하고 있습니다.(그림에서 갑국의 교역 후 소비점이 'X재 30개', Y재 30개인 부분을 확인)생산 가능 곡선을 통해 X재 1개 생산의 기회비용이 Y재 4/5개임을 구하게 되면결국 X재 30개를 생산하기 위해 Y재 24개 생산을 포기 했음을 구할 수 있습니다.이는 X재 0개, Y재 40개를 생산하던 상황에서, X재 생산 30개를 늘리면서 Y재 생산을 24개 줄였다는 것이고Y재 40개(Y재 최대 생산량)-Y재 24개(X재 30개를 생산하기 위해 포기한 Y재)=Y재 16개(X재 30개를 생산할 때 Y재 생산량)임을 알 수 있습니다.교역 후 갑국의 Y재 소비량은 30개이므로, 교역을 통해 Y재 소비가 14개 증가했음을 확인할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>갑국은 대미 무역에서 경상수지가 개선된다. 라고 나와있는데갑국통화/달러 환율이 상승했으니 갑국의 수출이 증가했기 때문인가요? 환율이 높아지면 갑국에게 수입면에선 불리한거 아닌가요...답변입니다.환율이 상승하면 수출이 증대되고 수입이 감소하는게 맞습니다.경상수지가 개선된다는 것의 의미는 이전보다 외화 유입액이 증가(유입액이 증가하거나 유출액이 감소하는 것 모두 가능)하는 것을 말합니다.유출액은 감소(수입 감소), 유입액은 증가(수출효과)하여 경상수지가 개선됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>외화의 수요와 공급</t>
+          <t>2022년 9월 12번</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>외화 수요가 외화가 해외로 유출되는건데 수입 증가가 왜 외화 수요 증가 요인이 되는거죠? 수입하면 우리나라 돈이 해외로 가는거 아닌가요..? 외화는 외국돈 아닌가용..</t>
+          <t>t+1의 순수출이 왜 30이 아니라 20인가요실질GDP에서 소비지출 기업투자 정부 지출을 뺀것이 순수출 아닌가요? 그럼 30이 나오는데요</t>
         </is>
       </c>
       <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022년 9월 12번</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>t+1의 순수출이 왜 30이 아니라 20인가요실질GDP에서 소비지출 기업투자 정부 지출을 뺀것이 순수출 아닌가요? 그럼 30이 나오는데요?답변입니다.20억 달러가 맞습니다.주어진 자료는 지출 측면인 총수요=가계소비 + 기업투자 + 정부지출 + 순수춭의 공식을 가지고 푸는 문제입니다.아래 과정을 통해 혹시 실수한 부분이 있는지 살펴봐 주세요.t+1년 명목 GDP가 전년 대비 10% 증가하여 220억 달러가 되었다고 했으니기준연도인 t년의 명목과 실질GDP는 200억 달러가 되고t+1년 경제성장률이 5%라고 제시되어 있으니 경제성장률은 실질GDP 변화율이니t+1년 실질 GDP는 200억달러*1.05 = 210억 달러가 됩니다.t년(200억 달러)의 가계소비(110억 달러) + 기업투자 (40억 달러) + 정부지출(20억 달러) + 순수출(30억 달러)가 됩니다.t+1년(210억 달러)의 가계 소비(120억 달러) + 기업투자(40억 달러) + 정부지출(30억 달러) + 순수출(20억 달러)가 됩니다.도움이 되셨으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>7</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>외화의 수요</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.외화의 수요는 상품 수입 대금의 지급, 해외 투자 등을 목적으로 외화를 사고자 하는 것으로외국으로의 대금 지급, 투자 등에 의해 '외화'가 해외로 유출되는 경우입니다.만약 우리나라에서 미국으로부터의 수입이 증가하게 된다면 대금 지급은 일반적으로 기축 통화인 달러화로 이루어집니다.(기축통화: 국가 간의 결제나 금융 거래에서 기본이 되는 통화를 의미. 미국의 달러화가 대표적인 기축 통화.)결국 우리나라의 미국 상품 수입 기업은 소지하고 있는 외화로 대금을 지급하거나 외화를 구입하여 지급하게 되는 것입니다.국제 거래에서는 자국의 통화가 아닌 기축 통화가 사용된다는 점을 기억하시면 학습에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다. </t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4번</t>
+          <t>총수요 증가의 원인</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4번에서 ㄱ과 ㄴ둘다 개별 주체가 합리적으로 행동한다는것을 전제로 한다고 했는데 ㄴ은 그렇지만 ㄱ은 그렇지 않은것 아닌가요?</t>
+          <t>교재 109쪽의 위쪽 예시문제 2번째부분에 “정부의 신도시 건설 계획에 따라 건설 회사들이 설비를 확장하였다.” 라고 하는데,선생님이 설명해주신 회사들이 설비 확장이 기업의 투자지출에 해당되어서 총수요가 늘어날 수 있지만, 정부의 신도시 건설 계획으로 인한것이니, 정부의 신도시 건설 계획도 정부지출로 총수요의 증가 원인이 될 수 있지 않을까요?</t>
         </is>
       </c>
       <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>총수요 증가의 원인</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>네. 답변드리겠습니다. '정부의 신도시 건설 계획'만으로는 정부 지출에 포함된다고 보기도, 그렇지 않다고 말하기도 어렵습니다.건설 회사들이 설비는 확장하는 과정에 정부의 지원이 있었는지 없었는지를 파악할 수 없기 때문입니다.대부분의 경제 개념이나 원리들이 딱 잘라말하기 어려운 부분들이 많습니다.모든 경제 활동은 순환하고 연관성을 갖기 때문입니다.따라서, 개념 정립에 있어서는 오늘 질문처럼 끝없이 탐구하는 것을, 문제 풀이에 있어서는 선지에서 요구하는 것 이상으로 확장시키지 않는 것을 추천드립니다ㅎㅎ도움이 되셨으면 합니다:)</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>경제적 유인</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.4번 선지의 ㉠은 생활습관병을 유발하는 제품 소비자에게 '세금을 부과'하여 해당 제품 소비를 '덜 하도록 유도'하는'부정적 유인', ㉡은 금연 교육 이수 시 '과태료를 감면'해주는 방법을 통해 금연 교육 이수를 '더 하도록 유도'하는'긍정적 유인'에 해당합니다.경제적 유인 중 긍정적 유인(편익 증가, 비용 감소)과 부정적 유인(편익 감소, 비용 증가) 모두 자신에게 발생하는금전적인 보상과 손실을 고려하여 합리적 판단을 통해 행동하도록 유도하는 것으로둘 모두 행위자가 합리적으로 행동한다는 것을 전제로 하고 있습니다.㉠의 경우에도 자신에게 발생할 세금 부과(비용 증가로 작용)를 고려하여 해당 제품을 덜 소비하도록 유도하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>미래가격</t>
+          <t>균형 거래량 감소</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>미래가격이 상승하면 공급자 입장에서는 더 비싸게 팔수 있으므로 공급이 더 증가하는 것이 아닌가요? 왜 공급이 줄어드나요</t>
+          <t>왜 ㄷ이 틀렸는지 모르겠어요 원래의 공급곡선 그래프를 위로 10만큼 올려서 그리면 그게 생산자에게 10원의 세금을 부과했을 때의 공급곡선이 되고, 그러면 수요와 공급 곡선의 교점이 원래 수량인 60개보다 작은 쪽에 형성되니깐 균형거래량이 감소하는 거 아닌가요??</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>공급 변동의 요인</t>
+          <t>균형거래량 감소</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.공급자 입장에서 미래에 가격이 상승할 것으로 예상이 된다면현재 공급을 하는 것보다 상승한 가격으로 공급할 수 있는 미래에 공급을 하는 것이 더 이득이 될 것입니다.결국 공급자는 미래에 공급할 것을 목적으로 '현재의 공급은 감소'시키게 되는 것입니다.공급 변동의 요인에서는 '미래 가격 예상'은 예상에 따라 '현재의 공급'을 어떻게 변화시킬 것인지를분석해야 하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>난이도가 상당히 높은 문제입니다. 비슷한 질문이 많았는데 그래프로 보여드리는게 효과적이더군요.그래프 첨부드립니다:)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001232/SmartSelect_20240210_182821_Samsung_Notes.jpg"]</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>암묵적비용</t>
+          <t>희귀성</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>다른 대안 선택으로 인해 포기한 가치를 암묵적비용이라 한다는데...저기서의 포기한 가치는 포기한 대안의 편익인가요?</t>
+          <t>㉠이 왜 희귀성과 희소성이 모두 있는거에요? 절대적인 양이 부족한거는 희귀성 아닌가요..?</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>암묵적 비용</t>
+          <t>희소성과 희귀성</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'를 의미합니다.예를 들어 A와 B 두 개의 선택지가 있을때, A를 선택했다면 A선택의 암묵적 비용은 B에서 얻을 수 있었던 가치입니다.이 경우 A와 B 선택의 문제가 소비의 상황이라면 암묵적 비용은 B의 편익이 되는 것입니다.단, B를 선택하기 위해 들어가는 비용(소비의 경우에는 가격)이 있다면 B의 편익에서 위의 비용을 빼줘야 암묵적 비용을 구할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제는 희소성의 유무를 파악할 수 있는 질문 '인간의 욕구보다 많이 존재하여 무상으로 소비할 수 있는가?'에 따라A는 무상재, B는 경제재로 구분합니다.그 후 경제재인 B를 '㉠ 절대적인 양이 적은 재화(희귀성 있음)', '㉡ 절대적인 양이 적지 않은 재화(희귀성 없음)'로다시 분류하는 것입니다.최종적으로 A는 희소성이 없는 무상재,경제재인 B 중 ㉠은 희소성과 희귀성이 동시에 있는 경제재, ㉡은 희소성은 있지만 희귀성은 없는 경제재로구분할 수 있는 것입니다.재화에 따라 희소성과 희귀성이 둘 다 있을 수 있다는 점을 기억하시면 문제 풀이에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>수요량과 공급량</t>
+          <t>선지 3번이요ㅠ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>200일때 왜 수요량이 공급량보다 큰지 잘 모르겠어요ㅠㅠ</t>
+          <t>3번이 이해가ㅜ되지 않습니다.</t>
         </is>
       </c>
       <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>선지 3번이요ㅠ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3번이 이해가ㅜ되지 않습니다.답변입니다.문제의 조건 중 갑국의 Y재 1개 소비의 기회비용이 증가했다고 되어 있으니비교우위 재화가 갑국은 Y, 을국은 X가 됩니다.을국의 X재 소비량이 30개이고갑국의 소비량이 X재 30, Y 30개이니갑국은 Y재 10개를 주고 X재 30개를 받은 상황이 되니 이때 을국의 소비점은 (X 30, Y 10)따라서 교역조건이 X 3 = Y 1이 되고 을국의 X재 최대 생산량은 60개가 됩니다.선지 3번을 보면 을국의 Y재 최대 생산량이 20개보다 많다고 되어 있는데교역 후 교역 조건이 X 3 = Y 1이므로 Y재 최대 생산량이 20개를 초과하면예를 들어 30개라면 교역 전 을국내에서 거래 조건은 X2 = Y1이 되는데 교역후 교역조건인 X3 = Y1로 적용하면이전보다 X재를 1개 더 줘야하므로 손해가 발생하여 교역하지 않게 됩니다.따라서 20개를 초과하면 안됩니다.도움이 되셨으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>5</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>수요량과 공급량</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 경우 가격 수준의 300원일 때 초과 수요나 초과 공급이 발생하지 않습니다.(문제의 표 내용 참고)이는 300원이 시장 균형 가격이라는 의미입니다.(균형 수준에서는 수요량과 공급량이 일치하여, 초과 수요나 초과 공급 발생하지 않습니다.)또 문제의 발문을 보면 '수요와 공급 법칙을 따르는 X재'라고 나와있습니다.즉, 균형 가격인 300원보다 가격이 하락한다면,(표에서 200원인 경우)수요 법칙에 따라 수요량은 증가하고, 공급 법칙에 따라 공급량은 감소합니다.결국 수요량과 공급량이 일치하는 균형 수준인 300원에서 가격 수준이 200원으로 하락하게 되면,수요량은 증가하고, 공급량은 감소하기 때문에 수요량이 공급량보다 크게 나타나는 것입니다.답변에 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>경상수지</t>
+          <t>42쪽 22번 1번</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 개념 또봄 첫번째에서 갑국은 대미무역에서 경상수지가 개선된다는게 무슨 뜻인가요?</t>
+          <t>1번에서 과세대상소득 증가율이 세액증가율과 같다고했는데 세액증가율은 증가가 없이 계속 같은값이고 과세대상소득은 증가하고있는데 어떻게 증가율이 같다고할수있나요..?</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>경상수지</t>
+          <t>42쪽 22번 1번</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.우선 용어 설명을 먼저 하자면,경상 수지: 상품, 서비스 및 생산 요소 등의 거래(경상 거래)에 따른 외화의 수취(유입)와 지급(유출)의 차액교재의 해당 내용에서 '달러 대비 갑국 화폐 가치 하락'은 환율 상승을 의미합니다.'달러 가치는 상승'하고 '갑국 화폐 가치는 하락'하면서▶재화의 수출 증가, 수입 감소▶외국인의 갑국 서비스(ex: 갑국 여행 등) 이용 증가, 갑국 국민의 외국 서비스(ex: 해외 여행) 이용 감소이 나타나게 되고, 이는 외화의 수취 증가, 지급 감소로 이어집니다.(다르게 표현하자면 '외화의 유입 증가, 유출 감소')이렇게 외화의 수취가 증가하고 지급이 감소되는 경우를 수지 '개선'이라고 부르게 됩니다.추가로 외화 수취가 지급보다 더 크다면 경상 수지 흑자라고 부를 수 있습니다.혹시 교재의 국제 수지 단원을 학습하기 전이시라면 해당 단원 학습을 통해더 쉽게 이해할 수가 있습니다.감사합니다.</t>
+          <t>1번에서 과세대상소득 증가율이 세액증가율과 같다고했는데 세액증가율은 증가가 없이 계속 같은값이고 과세대상소득은 증가하고있는데 어떻게 증가율이 같다고할수있나요..?답변입니다.갑국의 세율이 비례세이기 때문입니다.우상향하는 비례세 그래프의 경우 과세표준 금액이 증가할수록 세액이 일정하게 증가하므로 과세대상소득 증가율이 세액증가율과 같게 됩니다.예를 들어 10% 비례세가 적용되고소득이 1천 만원일 때 세액은 100 만원인데소득이 10% 증가(1,100 만원)하면 세액은 110만원으로 세액도 동일하게 10% 증가하게 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>64번 문제 질문</t>
+          <t>교재 161p. 아래 4번 문장</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10원의 세금이 붙는다는 설명은 자료 1,2에는 없고 ㄷ밖에 없는데 문제를 저렇게 10원의 세금이 있다고 해석해도 되나요?</t>
+          <t>상품 수출액과 상품 수입액의 합은 2018년보다 2019년이 크다. (X) 가 정답이고 그 이유가 알 수 없기 때문이라고 적혀있는데상품 수출액과 상품 수입액의 합은 상품 수지를 나타내므로 맞는 말 아닌가요?</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>64번 문제 질문</t>
+          <t>교재 161p. 아래 4번 문장</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>아닙니다!파란색은 ㄷ선지에만 해당되는 그래프가 맞습니다.</t>
+          <t>상품 수출액과 상품 수입액의 합은 2018년보다 2019년이 크다. (X) 가 정답이고 그 이유가 알 수 없기 때문이라고 적혀있는데상품 수출액과 상품 수입액의 합은 상품 수지를 나타내므로 맞는 말 아닌가요?답변입니다.그렇지 않습니다.상품수지 = 상품 수출액 – 상품 수입액입니다.결과만 알뿐이지 과정은 파악하기 어렵습니다.예를 들어 상품수지가 100억 달러인데상품수출액이 200억 달러이고 상품 수입액이 100억 달러도 가능하고상품 수출액이 300억 달러이고 상품 수입액이 200억 달러인 경우도 가능하기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>경기과열</t>
+          <t>상여금</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p.123 두번째 문제경기 과열이 부정적인 것이라고 생각해서 (나)를 비용인상 인플레이션이라고 생각했는데요.경기 과열이 정확하게 무엇을 나타내는지 모르겠어요,,,비용 인상 인플레이션이 경기 과열의 가능성이 낮은 이유가 궁금합니다!!!</t>
+          <t xml:space="preserve">p.173 91번문제 문제 내에 제시된 상여금이 정기적인지 비정기적인지 어떻게 알 수 있는건가요?월급 명세서라는 점에서 상여금이 정기적으로 지급된다고 생각하면 되는건가요? </t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>경기 과열</t>
+          <t>상여금</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>p.123 두번째 문제경기 과열이 부정적인 것이라고 생각해서 (나)를 비용인상 인플레이션이라고 생각했는데요.경기 과열이 정확하게 무엇을 나타내는지 모르겠어요,,,비용 인상 인플레이션이 경기 과열의 가능성이 낮은 이유가 궁금합니다!!!답변 드립니다.1. 경기 과열(over-heating) - 투자나 재정의 확대 등 수요 측면의 과잉 현상으로 수요, 공급의 균형이 무너지고 물가의 지속적인 상승(수요 견인 인플레이션)으로 비정상적으로 활발한 경기 현상.2. 비용인상 인플레이션 - 생산비(원자재 가격, 원유 가격 등)의 상승으로 인해 총공급이 감소하여 발생하는  인플레이션* 질문 1) 수요견인 인플레이션(경기 과열)과 비용인상 인플레이션은 둘 다 부정적인 결과를 가져옵니다.              경기 과열도 통화량의 증가로 물가가 큰 폭으로 올라가게 되면 시장에서 소비가 줄고 그에 따                 라 경기가 침체되어 결국 경기 불황으로 이어집니다.              비용인상 인플레이션은 총공급 감소의 원인으로 경기는 불황이나 비싼 생산비로 물가는 지속                 적으로 상승하게 되니 과열은 아니지만 경기 불황의 원인이 됩니다.  질문2) 결국 두 가지 모두 국민 경제에는 부정적인 영향을 끼치게 됩니다.    질문3) 비용인상 인플레이션은 생산이 줄고 그로 인해 실업이 증가하며 물가가 상승하니 시장에서 수요             가 줄어들게 됩니다. 결기 과열은 수요과잉입니다.이해에 도움이 되셨길 바랍니다.</t>
+          <t>네. 답변드리겠습니다.우선, 월급 명세서에 적혀있다고해서 무조건 경상소득에 포함되는 것은 아닙니다.상여금은 대다수의 기업에서 정기적으로 지급하고 있으므로 통상적으로 경상 소득에 포함되는 개념입니다.'상여금은 경상소득에 포함된다'라고 암기하시면 되겠습니다.화이팅하세요:)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>사회간접자본투자&amp;공공사업확대</t>
+          <t>상품거래액</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>두가지가 어떻게정부지출을 늘리게 되는지 설명부탁드립니다</t>
+          <t>p.163 87번문제 1번선지상품거래액이 상품 수출액과 수입액을 더한 값이라고 생각하면 되는건가요??</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>사회간접자본 투자&amp;공공사업확대</t>
+          <t>상품거래액</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>두가지가 어떻게정부지출을 늘리게 되는지 설명부탁드립니다답변드립니다.우선 이 내용은 각각의 뜻을 알고 계시면 간단합니다.1. 사회 간접자본 (Social Overhead Capital) - 생산에 직접적으로 투입되지는 않으나 간접적으로 기여하는                                                              자본(도로, 철도, 항만, 통신, 전력,공공서비스 등)2. 공공사업(公共事業) - 나라에서 하는 공공의 이익을 위한 일. 국가는 공공사업을 통해 빈곤층에게 직업을                                제공하고 다양한 기반 시설의 정비로 국민들의 만족도를 높임.                               (예) 미국의 대공황 시 후버 댐 건설- 항상 그렇지는 않지만 대부분 사회 간접자본이나 공공사업은 기업 보다는 정부의 정책으로 이루어지고 정부의 재정으로 충당하여 공급하게 됩니다. 그러므로 두 가지를 확대하는 것은 정부지출을 늘리는 일이므로 불황 시 경제를 회복하는 확대 정책이 됩니다.이해에 도움이 되셨길 바랍니다.</t>
+          <t>네. 정확합니다!</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>교재 143쪽 78번의 5번 선지</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1~4번은 이해가 갔는데, 5번 선지는 어ㅔ떻게 접근해야하는지도 감이 안 잡힙니다 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>비교 우위</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.5번 선지의 경우 갑국의 X재 생산의 기회비용을 통해 구할 수 있습니다.선지에서 '교역 전과 후 갑국의 X재 소비량이 같다면,'의 내용을 통해 교역 전 X재를 30개 소비했음을 가정하고 있습니다.(그림에서 갑국의 교역 후 소비점이 'X재 30개', Y재 30개인 부분을 확인)생산 가능 곡선을 통해 X재 1개 생산의 기회비용이 Y재 4/5개임을 구하게 되면결국 X재 30개를 생산하기 위해 Y재 24개 생산을 포기 했음을 구할 수 있습니다.이는 X재 0개, Y재 40개를 생산하던 상황에서, X재 생산 30개를 늘리면서 Y재 생산을 24개 줄였다는 것이고Y재 40개(Y재 최대 생산량)-Y재 24개(X재 30개를 생산하기 위해 포기한 Y재)=Y재 16개(X재 30개를 생산할 때 Y재 생산량)임을 알 수 있습니다.교역 후 갑국의 Y재 소비량은 30개이므로, 교역을 통해 Y재 소비가 14개 증가했음을 확인할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>외화의 수요와 공급</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>외화 수요가 외화가 해외로 유출되는건데 수입 증가가 왜 외화 수요 증가 요인이 되는거죠? 수입하면 우리나라 돈이 해외로 가는거 아닌가요..? 외화는 외국돈 아닌가용..</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>외화의 수요</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.외화의 수요는 상품 수입 대금의 지급, 해외 투자 등을 목적으로 외화를 사고자 하는 것으로외국으로의 대금 지급, 투자 등에 의해 '외화'가 해외로 유출되는 경우입니다.만약 우리나라에서 미국으로부터의 수입이 증가하게 된다면 대금 지급은 일반적으로 기축 통화인 달러화로 이루어집니다.(기축통화: 국가 간의 결제나 금융 거래에서 기본이 되는 통화를 의미. 미국의 달러화가 대표적인 기축 통화.)결국 우리나라의 미국 상품 수입 기업은 소지하고 있는 외화로 대금을 지급하거나 외화를 구입하여 지급하게 되는 것입니다.국제 거래에서는 자국의 통화가 아닌 기축 통화가 사용된다는 점을 기억하시면 학습에 도움이 될 것입니다.답변이 학습에 도움이 되었기를 바랍니다. </t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4번</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4번에서 ㄱ과 ㄴ둘다 개별 주체가 합리적으로 행동한다는것을 전제로 한다고 했는데 ㄴ은 그렇지만 ㄱ은 그렇지 않은것 아닌가요?</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>경제적 유인</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.4번 선지의 ㉠은 생활습관병을 유발하는 제품 소비자에게 '세금을 부과'하여 해당 제품 소비를 '덜 하도록 유도'하는'부정적 유인', ㉡은 금연 교육 이수 시 '과태료를 감면'해주는 방법을 통해 금연 교육 이수를 '더 하도록 유도'하는'긍정적 유인'에 해당합니다.경제적 유인 중 긍정적 유인(편익 증가, 비용 감소)과 부정적 유인(편익 감소, 비용 증가) 모두 자신에게 발생하는금전적인 보상과 손실을 고려하여 합리적 판단을 통해 행동하도록 유도하는 것으로둘 모두 행위자가 합리적으로 행동한다는 것을 전제로 하고 있습니다.㉠의 경우에도 자신에게 발생할 세금 부과(비용 증가로 작용)를 고려하여 해당 제품을 덜 소비하도록 유도하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>미래가격</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>미래가격이 상승하면 공급자 입장에서는 더 비싸게 팔수 있으므로 공급이 더 증가하는 것이 아닌가요? 왜 공급이 줄어드나요</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>공급 변동의 요인</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.공급자 입장에서 미래에 가격이 상승할 것으로 예상이 된다면현재 공급을 하는 것보다 상승한 가격으로 공급할 수 있는 미래에 공급을 하는 것이 더 이득이 될 것입니다.결국 공급자는 미래에 공급할 것을 목적으로 '현재의 공급은 감소'시키게 되는 것입니다.공급 변동의 요인에서는 '미래 가격 예상'은 예상에 따라 '현재의 공급'을 어떻게 변화시킬 것인지를분석해야 하는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>암묵적비용</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>다른 대안 선택으로 인해 포기한 가치를 암묵적비용이라 한다는데...저기서의 포기한 가치는 포기한 대안의 편익인가요?</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>암묵적 비용</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'를 의미합니다.예를 들어 A와 B 두 개의 선택지가 있을때, A를 선택했다면 A선택의 암묵적 비용은 B에서 얻을 수 있었던 가치입니다.이 경우 A와 B 선택의 문제가 소비의 상황이라면 암묵적 비용은 B의 편익이 되는 것입니다.단, B를 선택하기 위해 들어가는 비용(소비의 경우에는 가격)이 있다면 B의 편익에서 위의 비용을 빼줘야 암묵적 비용을 구할 수 있습니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>수요량과 공급량</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>200일때 왜 수요량이 공급량보다 큰지 잘 모르겠어요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>수요량과 공급량</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 경우 가격 수준의 300원일 때 초과 수요나 초과 공급이 발생하지 않습니다.(문제의 표 내용 참고)이는 300원이 시장 균형 가격이라는 의미입니다.(균형 수준에서는 수요량과 공급량이 일치하여, 초과 수요나 초과 공급 발생하지 않습니다.)또 문제의 발문을 보면 '수요와 공급 법칙을 따르는 X재'라고 나와있습니다.즉, 균형 가격인 300원보다 가격이 하락한다면,(표에서 200원인 경우)수요 법칙에 따라 수요량은 증가하고, 공급 법칙에 따라 공급량은 감소합니다.결국 수요량과 공급량이 일치하는 균형 수준인 300원에서 가격 수준이 200원으로 하락하게 되면,수요량은 증가하고, 공급량은 감소하기 때문에 수요량이 공급량보다 크게 나타나는 것입니다.답변에 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>경상수지</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 개념 또봄 첫번째에서 갑국은 대미무역에서 경상수지가 개선된다는게 무슨 뜻인가요?</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>경상수지</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>안녕하세요.질문에 답변드리겠습니다.우선 용어 설명을 먼저 하자면,경상 수지: 상품, 서비스 및 생산 요소 등의 거래(경상 거래)에 따른 외화의 수취(유입)와 지급(유출)의 차액교재의 해당 내용에서 '달러 대비 갑국 화폐 가치 하락'은 환율 상승을 의미합니다.'달러 가치는 상승'하고 '갑국 화폐 가치는 하락'하면서▶재화의 수출 증가, 수입 감소▶외국인의 갑국 서비스(ex: 갑국 여행 등) 이용 증가, 갑국 국민의 외국 서비스(ex: 해외 여행) 이용 감소이 나타나게 되고, 이는 외화의 수취 증가, 지급 감소로 이어집니다.(다르게 표현하자면 '외화의 유입 증가, 유출 감소')이렇게 외화의 수취가 증가하고 지급이 감소되는 경우를 수지 '개선'이라고 부르게 됩니다.추가로 외화 수취가 지급보다 더 크다면 경상 수지 흑자라고 부를 수 있습니다.혹시 교재의 국제 수지 단원을 학습하기 전이시라면 해당 단원 학습을 통해더 쉽게 이해할 수가 있습니다.감사합니다.</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>64번 문제 질문</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10원의 세금이 붙는다는 설명은 자료 1,2에는 없고 ㄷ밖에 없는데 문제를 저렇게 10원의 세금이 있다고 해석해도 되나요?</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>64번 문제 질문</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>아닙니다!파란색은 ㄷ선지에만 해당되는 그래프가 맞습니다.</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>경기과열</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>p.123 두번째 문제경기 과열이 부정적인 것이라고 생각해서 (나)를 비용인상 인플레이션이라고 생각했는데요.경기 과열이 정확하게 무엇을 나타내는지 모르겠어요,,,비용 인상 인플레이션이 경기 과열의 가능성이 낮은 이유가 궁금합니다!!!</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>경기 과열</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>p.123 두번째 문제경기 과열이 부정적인 것이라고 생각해서 (나)를 비용인상 인플레이션이라고 생각했는데요.경기 과열이 정확하게 무엇을 나타내는지 모르겠어요,,,비용 인상 인플레이션이 경기 과열의 가능성이 낮은 이유가 궁금합니다!!!답변 드립니다.1. 경기 과열(over-heating) - 투자나 재정의 확대 등 수요 측면의 과잉 현상으로 수요, 공급의 균형이 무너지고 물가의 지속적인 상승(수요 견인 인플레이션)으로 비정상적으로 활발한 경기 현상.2. 비용인상 인플레이션 - 생산비(원자재 가격, 원유 가격 등)의 상승으로 인해 총공급이 감소하여 발생하는  인플레이션* 질문 1) 수요견인 인플레이션(경기 과열)과 비용인상 인플레이션은 둘 다 부정적인 결과를 가져옵니다.              경기 과열도 통화량의 증가로 물가가 큰 폭으로 올라가게 되면 시장에서 소비가 줄고 그에 따                 라 경기가 침체되어 결국 경기 불황으로 이어집니다.              비용인상 인플레이션은 총공급 감소의 원인으로 경기는 불황이나 비싼 생산비로 물가는 지속                 적으로 상승하게 되니 과열은 아니지만 경기 불황의 원인이 됩니다.  질문2) 결국 두 가지 모두 국민 경제에는 부정적인 영향을 끼치게 됩니다.    질문3) 비용인상 인플레이션은 생산이 줄고 그로 인해 실업이 증가하며 물가가 상승하니 시장에서 수요             가 줄어들게 됩니다. 결기 과열은 수요과잉입니다.이해에 도움이 되셨길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>사회간접자본투자&amp;공공사업확대</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>두가지가 어떻게정부지출을 늘리게 되는지 설명부탁드립니다</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>사회간접자본 투자&amp;공공사업확대</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>두가지가 어떻게정부지출을 늘리게 되는지 설명부탁드립니다답변드립니다.우선 이 내용은 각각의 뜻을 알고 계시면 간단합니다.1. 사회 간접자본 (Social Overhead Capital) - 생산에 직접적으로 투입되지는 않으나 간접적으로 기여하는                                                              자본(도로, 철도, 항만, 통신, 전력,공공서비스 등)2. 공공사업(公共事業) - 나라에서 하는 공공의 이익을 위한 일. 국가는 공공사업을 통해 빈곤층에게 직업을                                제공하고 다양한 기반 시설의 정비로 국민들의 만족도를 높임.                               (예) 미국의 대공황 시 후버 댐 건설- 항상 그렇지는 않지만 대부분 사회 간접자본이나 공공사업은 기업 보다는 정부의 정책으로 이루어지고 정부의 재정으로 충당하여 공급하게 됩니다. 그러므로 두 가지를 확대하는 것은 정부지출을 늘리는 일이므로 불황 시 경제를 회복하는 확대 정책이 됩니다.이해에 도움이 되셨길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>64번 문제 질문</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>최소 요구 금액별 공급자 수로 점을 찍으면 (20개,30원),(40개,50원),(50개,70원),(70개,90원)인데
 어떻게 (40개,60원)과 만나서 균형점을 형성하는 건가요?
 40개 초과~50개 미만,50원 초과~60개 미만의 점과 만나야 하는거 아닌가요?</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>6</v>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>64번 문제 질문</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>그래프로 보시면 이해가 빠르실 것 같아 그래프 첨부드립니다.새해에도 행복한 일만 가득하시길 바랍니다 :)</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>5</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
+      <c r="F62" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>효율성과 형평성</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>7번문제에 관한 Q&amp;A를 찾아보니 경제문제에서 생산물, 생산방법의 결정은 효율성을분배방식의 결정은 효율성과 형평성을 기준으로 한다고 하셨는데 생산물과 생산 방식도 형평성을 고려할 수 았지 않나요?특정 기업에서 이익은 적지만 사회적약자를 위한 제품을 생산하는 경우는 형평성을 고려한 방향이라고 볼 수 있지 않나용?</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>효율성과 형평성</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>7번 문제에 관한 Q&amp;A를 찾아보니 경제문제에서 생산물, 생산방법의 결정은 효율성을분배방식의 결정은 효율성과 형평성을 기준으로 한다고 하셨는데 생산물과 생산 방식도 형평성을 고려할 수 았지 않나요?특정 기업에서 이익은 적지만 사회적약자를 위한 제품을 생산하는 경우는 형평성을 고려한 방향이라고 볼 수 있지 않나용?답변입니다.기본적 경제문제는 일반적인 이윤의 극대화를 추구하는 기업에 대한 내용을 다루고 있습니다. 이때 효율성만 주로 추구합니다.문의하신 것처럼 사회적 약자를 위한 제품을 생산하는 경우는 구체적으로 언급할 때만 고려하시는게 좋습니다.그래서 생산물, 생산방법의 결정은 효율성만 추구합니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>33 페이지 15번 문제 선지 4번</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>선지 4번이 “Y재의 가격이 하락한다면 선택 가능한 X재의 최대 수량은 감소한다”입니다.강의에서 감소가 아니라 증가 하기 때문에 틀렸다고 설명하셨고 답지에도 그렇게 나와있습니다.그런데 X재의 최대 수량은 Y재의 수량이 0일때 이기 때문에 Y재의 가격이 하락하고 상승하는 것과 관계 없지 않나요?X재의 최대 수량은 예산의 변동으로만 바뀌지 않나요?</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>5</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>33 페이지 15번 문제 선지 4번</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>선지 4번이 “Y재의 가격이 하락한다면 선택 가능한 X재의 최대 수량은 감소한다”입니다.강의에서 감소가 아니라 증가 하기 때문에 틀렸다고 설명하셨고 답지에도 그렇게 나와있습니다.그런데 X재의 최대 수량은 Y재의 수량이 0일때 이기 때문에 Y재의 가격이 하락하고 상승하는 것과 관계 없지 않나요?X재의 최대 수량은 예산의 변동으로만 바뀌지 않나요?답변입니다.우선 주어진 조건을 보면 갑은 항상 모든 예산을 투입하여 소비한다는 부분이 있습니다.선지 4번을 보면 Y재의 가격이 하락한다면 (이전보다 적은 금액으로 필요한 갯수만큼의 Y재를 구입할 수 있어서) X재 구입에 더 많은 돈을 사용할 수 있기에 선택 가능한 X재 최대 수량은 증가할 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>어려워요</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>78번의 3번 선지질문</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>78번의 3번 선지가 왜 틀렸는지 모르겠어요.</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>10</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>78번의 3번 선지질문</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>78번의 3번 선지가 왜 틀렸는지 모르겠어요.답변입니다.문제의 조건 중 갑국의 Y재 1개 소비의 기회비용이 증가했다고 되어 있으니비교우위 재화가 갑국은 Y, 을국은 X가 됨.을국의 X재 소비량이 30개이고갑국의 소비량이 X재 30, Y 30개이니갑국은 Y재 10개를 주고 X재 30개를 받은 상황이 됨. 이때 을국의 소비점은 (X 30, Y 10)따라서 교역조건이 X 3 = Y 1이 되고 을국의 X재 최대 생산량은 60개가 됨.선지 3번을 보면 을국의 Y재 최대 생산량이 20개보다 많다고 되어 있는데교역 후 교역 조건이 X 3 = Y 1이므로 Y재 최대 생산량이 20개를 초과하면예를 들어 30개라면 교역전 을국의 거래 조건은 X2 = Y1이 되는데 교역후 교역조건인 X3 = Y1로 적용하면이전보다 X재를 1개 더 줘야  하므로 손해가 발생하여 교역하지 않게 됨.따라서 20개를 초과하면 안됩니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>6</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P73 하단</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">박봄 선생님께서 수요의 가격 탄력성에 영향을 미치는 요인을 아예 빼먹고 수업하셔서 질문드립니다73쪽 하단이구요 가격변동에 대한 대응기간이 이해가 되지않아 다시 질문드립니다 기존 답변에서는 휘발유를 예시로 들어주셧는데 가격변동에 대한 대응기간이 길다고하셨고 그건 수요의 가격탄력성이 크다고 하셨습니다 근데 울며 겨자먹가로 휘발유 가격이 오르더라고 단시간 내에는 계속 사용한다면 가격탄력성이 작은 경우 아닌가요? </t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>15</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>P73 하단</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>네. 맞습니다.다시 휘발유를 예시로 활용하면,가격 변동에 대한 대응 기간이 짧은 경우휘발유 수요량을 하루아침에 줄이기 어렵기 때문에 탄력성이 낮은 사례이고가격 변동에 대한 대응 기간이 긴 경우휘발유를 대체할 수 있는 상품에 대한 수요량을 늘리고, 휘발유의 수요량을 줄일 수 있기 때문에 탄력성이 높아 질 수 있습니다.--------------------------------------------------------------------------다시 정리하면, 가격 변동에 맞춰 수요량을 조절할 수 있는 기간(대응 기간)이 짧을수록 수요의 가격 탄력성은 낮아지고, 대응 기간이 길어질수록 수요의 가격 탄력성은 높아집니다.</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>6</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>명목 GDP 실질GDP 관계</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>명목 지디피가 크면 물가상승, 작으면 물가하락이라고 배웠는데요. 가격이 그대로고 생산량만 바뀌면 그땐 최종값( 해당연도 가격 x 생산량) 으로 실질과,, 명목의 관계를 통한 가격변동을 알 수는 없지 않나요?</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>10</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>명목 GDP 실질GDP 관계</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>명목 지디피가 크면 물가상승, 작으면 물가하락이라고 배웠는데요. 가격이 그대로고 생산량만 바뀌면 그땐 최종값( 해당연도 가격 x 생산량) 으로 실질과,, 명목의 관계를 통한 가격변동을 알 수는 없지 않나요?답변입니다.명목 GDP(해당연도 가격)와 실질 GDP(기준연도 가격)는 생산량은 같이 적용하고 가격만 다르게 제시되곤 합니다.문의하신 것처럼 가격이 동일하다면 GDP 디플레이터는 항상 100이 되어 물가 변동이 없습니다.단, 전년도의 물가지수가 100보다 작다면 물가 상승으로, 100보다 크다면 물가하락으로 표현할 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>물가상승률</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">물가상승률은  GDP디플레이터를 구한다음 물가상승률을 구해야한다고 말씀하셨는데118쪽을 보면 물가상승률은  GDP디플레이터를 통해서가 아니라 물가지수를 구해서 물가상승률을 구했거든요어떤차이점이 있는건가요? 감사합니다 </t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>물가상승률</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>안녕하세요.질문에 답변 드리겠습니다.물가상승률은 물가 지수를 통해 구하는 것이 맞습니다.다만 GDP디플레이터가 물가 지수의 종류 중 하나이기 때문에GDP디플레이터를 이용해 물가상승률을 구할 수 있는 것입니다.문제를 푸는 경우에는 해당 문제에서 어떤 물가 지수를 이용해 물가 수준을 파악하는지 확인해야 합니다.답변에 학습에 도움이 되었기를 바랍니다.</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>7</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>수입할당제</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022년 출판된 수능특강 경제 내용입니다.해당 질문게시판이 닫혀 여기에 질문합니다.위 상황에서 정책 2, 즉 수입할당제를 실시하면수입업자들은 가격 P에서 물건을 사왔다가 P+T가격에 소비자들한테 파는 건가요?그러면 수입업자들은 B만큼의 이득(정책 1로 따지면 관세수입만큼)을 보게 되나요?만약 제 말이 맞다면 수입업자들은 가격 P에서 사올 때 애당초 Q1Q2만큼 사오는게 아니라 Q3Q4만큼 사오는 건가요?</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>6</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>수입할당제</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>안녕하세요.질문에 답변 드리겠습니다.정책2의 수입할당제를 시행하는 경우 수입량이정책2시행 전인 Q1Q2에서 Q3Q4로 감소하게 됩니다.수입업자들이 수입하는 수량 자체가 Q3Q4로 감소하는 것입니다.(수입할당제에 의해 더 수입할 수가 없습니다.)수입업자들은 국제가격 P 수준에서 Q3Q4만큼 수입을 해온 후 국내 시장 가격 수준인 P+T수준으로 국내에서 판매를 하게 되는 것입니다.결국 B만큼은 수입 업자가 얻는 이득을 뜻하게 됩니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P73 하단</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>수요의 가격탄력성에 영향 미치는 요인부분을 설명 안하고 넘어가셨는데 가격 변동에 대한 대응기간이 이해가 안되네요</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>13</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>P73 하단</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>질문이 명확하지 않아 제가 해석한 내용을 바탕으로 답변 드리겠습니다.탄력성이라는 개념은 가격 변동에 어느 정도 민감하게 대응하는가를 말합니다.예를 들어, 휘발유 값이 5배로 높아졌다면당장 내일은 울며 겨자먹기식으로 주유할 수 밖에 없습니다. 그러나 한 달, 1년, 10년이 지난다면 대중교통을 이용하다던가, 다른 교통 수단을 통해 휘발유 사용을 크게 줄이게 됩니다.즉, 가격 변동에 대한 대응 기간이 짧다면 수요의 가격탄력성이 낮고, 가격 변동에 대한 대응 기간이 길다면 수요의 가격탄력성이 높다고 말할 수 있습니다.올 한해도 행복한 일만 가득하시길 바랍니다. 힘내세요:)</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>13</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>어려워요</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>수요, 공급</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023학년도 수능 7번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.완전 정확하지 않더라도 그냥 대략 손으로라도 그려서 올려주시면 감사하겠습니다.</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>7</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>수요, 공급</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">네. 자료에 주어진 정보에 따르면 공급 곡선은 계단식의 그래프가 그려진다고 볼 수 있습니다. </t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>8</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023학년도 수능 14번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>6</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>주식</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>네. 맞습니다. 다만, 언제나 원화로 바꿔서 생각해야하는 것은 아닙니다.해당 선지에서 눈여겨 봐야할 문구는 '원화 표시 수익률'입니다.원화로 환전하였다는 말은 없었으나, 원화 표시 수익률 이라는 말 속에 비슷한 의미가 내포되어 있다고 볼 수 있습니다.풍성한 명절 보내시기 바랍니다 ㅎㅎ</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4</v>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001215/SmartSelect_20240210_182821_Samsung_Notes_1.jpg"]</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>관세</t>
+          <t>효율성과 형평성</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023학년도 수능 15번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
+          <t>7번문제에 관한 Q&amp;A를 찾아보니 경제문제에서 생산물, 생산방법의 결정은 효율성을분배방식의 결정은 효율성과 형평성을 기준으로 한다고 하셨는데 생산물과 생산 방식도 형평성을 고려할 수 았지 않나요?특정 기업에서 이익은 적지만 사회적약자를 위한 제품을 생산하는 경우는 형평성을 고려한 방향이라고 볼 수 있지 않나용?</t>
         </is>
       </c>
       <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>효율성과 형평성</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7번 문제에 관한 Q&amp;A를 찾아보니 경제문제에서 생산물, 생산방법의 결정은 효율성을분배방식의 결정은 효율성과 형평성을 기준으로 한다고 하셨는데 생산물과 생산 방식도 형평성을 고려할 수 았지 않나요?특정 기업에서 이익은 적지만 사회적약자를 위한 제품을 생산하는 경우는 형평성을 고려한 방향이라고 볼 수 있지 않나용?답변입니다.기본적 경제문제는 일반적인 이윤의 극대화를 추구하는 기업에 대한 내용을 다루고 있습니다. 이때 효율성만 주로 추구합니다.문의하신 것처럼 사회적 약자를 위한 제품을 생산하는 경우는 구체적으로 언급할 때만 고려하시는게 좋습니다.그래서 생산물, 생산방법의 결정은 효율성만 추구합니다.도움이 되셨으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>6</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>관세</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 수입쿼터제에서 국내 가격 및 국내 생산량은 시장의 원리에 따라 결정됩니다.예를 들어, - 가격이 10달러인 경우 -&gt; 국내 생산량: 10개, 수입량(국내 생산량의 50%): 5개 -&gt; 초과수요 75개 -&gt; 가격 상승 압력 발생- 가격이 20달러인 경우 -&gt; 국내 생산량: 20개, 수입량(국내 생산량의 50%): 10개 -&gt; 초과수요 40개 -&gt; 가격 상승 압력 발생- 가격이 30달러인 경우 -&gt; 국내 생산량: 30개, 수입량(국내 생산량의 50%): 15개 -&gt; 초과수요 5개 -&gt; 가격 상승 압력 발생- 가격이 40달러인 경우 -&gt; 국내 생산량: 40개, 수입량(국내 생산량의 50%): 20개 -&gt; 시장 균형2. (가) 정책이 관세 35달러 부과로 바뀐다면, (나) 정책과 관계없이 국제가격 10달러에서 35달러가 추가된 45달러 수준의 국제가격과 국내 수요 곡선이 만나는 점에서 국내 소비량이 결정됩니다.새해에도 행복한 일만 가득하시길 바랍니다 :) </t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>3</v>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>총수요</t>
+          <t>33 페이지 15번 문제 선지 4번</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023학년도 수능 18번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
+          <t>선지 4번이 “Y재의 가격이 하락한다면 선택 가능한 X재의 최대 수량은 감소한다”입니다.강의에서 감소가 아니라 증가 하기 때문에 틀렸다고 설명하셨고 답지에도 그렇게 나와있습니다.그런데 X재의 최대 수량은 Y재의 수량이 0일때 이기 때문에 Y재의 가격이 하락하고 상승하는 것과 관계 없지 않나요?X재의 최대 수량은 예산의 변동으로만 바뀌지 않나요?</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>총수요</t>
+          <t>33 페이지 15번 문제 선지 4번</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>(4번 선지 관련)그러면 동그라미 ㄴ, ㄷ, ㅁ은, 즉, 총공급 증가, 총수요 감소는 각각 디플레이션의 발생 요인이라고 말할 수 있나요?제가 알기로 디플레이션은 인플레이션처럼 물가가 오른다고 해서 바로 발생하는 건 아니라고 알고 있어서요.인플레이션에 비해 디플레이션은 '지속성'이 더 필요하다고 알고 있는데 총공급 증가나 총수요 감소는 디플레이션의 발생 요인이라고 말할 수 있나요?답변입니다.인플레이션도, 디플레이션도 지속성이 필요한 부분입니다.디플레이션은 장기적으로 물가가 하락하는 것을 말합니다.문의하신 것처럼 총공급 증가, 총수요 감소는 디플레이션의 원인이 될 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>선지 4번이 “Y재의 가격이 하락한다면 선택 가능한 X재의 최대 수량은 감소한다”입니다.강의에서 감소가 아니라 증가 하기 때문에 틀렸다고 설명하셨고 답지에도 그렇게 나와있습니다.그런데 X재의 최대 수량은 Y재의 수량이 0일때 이기 때문에 Y재의 가격이 하락하고 상승하는 것과 관계 없지 않나요?X재의 최대 수량은 예산의 변동으로만 바뀌지 않나요?답변입니다.우선 주어진 조건을 보면 갑은 항상 모든 예산을 투입하여 소비한다는 부분이 있습니다.선지 4번을 보면 Y재의 가격이 하락한다면 (이전보다 적은 금액으로 필요한 갯수만큼의 Y재를 구입할 수 있어서) X재 구입에 더 많은 돈을 사용할 수 있기에 선택 가능한 X재 최대 수량은 증가할 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2674,423 +3005,491 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>정보의 비대칭성</t>
+          <t>78번의 3번 선지질문</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>공급자가 수요자보다 제품에 대한 많은 정보를 가지고 있을때 사회적 최적 거래량보다 과소거래 되나요 과다 거래 되나요?(박봄 선생님 최종평가 4번 문제 참고)</t>
+          <t>78번의 3번 선지가 왜 틀렸는지 모르겠어요.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>정보의 비대칭성</t>
+          <t>78번의 3번 선지질문</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>공급자가 수요자보다 제품에 대한 많은 정보를 가지고 있을때 사회적 최적 거래량보다 과소거래 되나요 과다 거래 되나요?(박봄 선생님 최종평가 4번 문제 참고)답변입니다.소비자의 입장에서 불안하므로 사회적 최적거래량보다 적게 거래됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>78번의 3번 선지가 왜 틀렸는지 모르겠어요.답변입니다.문제의 조건 중 갑국의 Y재 1개 소비의 기회비용이 증가했다고 되어 있으니비교우위 재화가 갑국은 Y, 을국은 X가 됨.을국의 X재 소비량이 30개이고갑국의 소비량이 X재 30, Y 30개이니갑국은 Y재 10개를 주고 X재 30개를 받은 상황이 됨. 이때 을국의 소비점은 (X 30, Y 10)따라서 교역조건이 X 3 = Y 1이 되고 을국의 X재 최대 생산량은 60개가 됨.선지 3번을 보면 을국의 Y재 최대 생산량이 20개보다 많다고 되어 있는데교역 후 교역 조건이 X 3 = Y 1이므로 Y재 최대 생산량이 20개를 초과하면예를 들어 30개라면 교역전 을국의 거래 조건은 X2 = Y1이 되는데 교역후 교역조건인 X3 = Y1로 적용하면이전보다 X재를 1개 더 줘야  하므로 손해가 발생하여 교역하지 않게 됨.따라서 20개를 초과하면 안됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>요구불 예금</t>
+          <t>P73 하단</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>금융상품의 유형 문제에서 b를 그냥 예금이 아닌 요구불 예금이 답이라고 하셨는데 그냥 총체적인 예금은 수익성이 낮고 안정성이 높은 금융상품에 해당되지 않는 건가요? 요구불 예금에만 해당되나요?</t>
+          <t xml:space="preserve">박봄 선생님께서 수요의 가격 탄력성에 영향을 미치는 요인을 아예 빼먹고 수업하셔서 질문드립니다73쪽 하단이구요 가격변동에 대한 대응기간이 이해가 되지않아 다시 질문드립니다 기존 답변에서는 휘발유를 예시로 들어주셧는데 가격변동에 대한 대응기간이 길다고하셨고 그건 수요의 가격탄력성이 크다고 하셨습니다 근데 울며 겨자먹가로 휘발유 가격이 오르더라고 단시간 내에는 계속 사용한다면 가격탄력성이 작은 경우 아닌가요? </t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>요구불 예금</t>
+          <t>P73 하단</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>금융상품의 유형 문제에서 b를 그냥 예금이 아닌 요구불 예금이 답이라고 하셨는데 그냥 총체적인 예금은 수익성이 낮고 안정성이 높은 금융상품에 해당되지 않는 건가요? 요구불 예금에만 해당되나요?답변입니다.그런 경향을 갖고 있습니다.금융상품 중 예금을 요구불 예금과 저축성 예금을 구분하고 있습니다.수익성이 낮고 안전성이 높은 금융상품을 일반적으로 요구불 예금으로 제시하고 있습니다.이런 문제를 보시면 금융상품의 종류가 무엇인지 정확하게 제시하고 있으니 크게 고민하지 않으셔도 됩니다.해당 교재 179쪽 위에 있는 금융상품의 유형 그래프에도 단 A, B는 각가 요구불 예금(수익성이 낮고 안정성이 높은 금융상품)과 주식(수익성이 높고 안전성이 낮은 금융상품) 중 하나이다.라고 조건으로 제시되어 있으니 고민하지 않으셔도 됩니다.이런 부분은 외운다기 보다 상대적 개념이므로 어떤 금융상품과 비교하느냐에 따라 달라질 수도 있습니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>네. 맞습니다.다시 휘발유를 예시로 활용하면,가격 변동에 대한 대응 기간이 짧은 경우휘발유 수요량을 하루아침에 줄이기 어렵기 때문에 탄력성이 낮은 사례이고가격 변동에 대한 대응 기간이 긴 경우휘발유를 대체할 수 있는 상품에 대한 수요량을 늘리고, 휘발유의 수요량을 줄일 수 있기 때문에 탄력성이 높아 질 수 있습니다.--------------------------------------------------------------------------다시 정리하면, 가격 변동에 맞춰 수요량을 조절할 수 있는 기간(대응 기간)이 짧을수록 수요의 가격 탄력성은 낮아지고, 대응 기간이 길어질수록 수요의 가격 탄력성은 높아집니다.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>보조금 지급에 따른 수요 곡선 이동</t>
+          <t>명목 GDP 실질GDP 관계</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>선생님께서 66쪽 2번의 4번째 질문을 해결하실 때 보조금 지급 전의 금액에서 보조금의 금액만큼을 뺀 만큼에 해당하는 금액의 수요량을 적으셨습니다. 예를 들어 80만원의 수요량을 구하실 때 80에서 20을 빼 60만원의 수요량인 160을 쓰셨던 것처럼요.그런데 보조금 지급에 따른 수요나 공급 곡선의 이동은 수직 방향으로 알고 있습니다. 해당 문제는 수요와 공급선이 모두 직선이어서 상관이 없지만, 만약 직선이 아닌 곡선이라면 수직 이동을 한 것과는 다른 결과가 나옵니다. 만약 수요곡선이 가격 변동에 따른 수요량의 변화량이 일정하지 않은 곡선의 형태를 띤다면, 선생님께서 풀이해주신 대로 접근해도 되는 건가요?</t>
+          <t>명목 지디피가 크면 물가상승, 작으면 물가하락이라고 배웠는데요. 가격이 그대로고 생산량만 바뀌면 그땐 최종값( 해당연도 가격 x 생산량) 으로 실질과,, 명목의 관계를 통한 가격변동을 알 수는 없지 않나요?</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>보조금 지급에 따른 수요 곡선 이동</t>
+          <t>명목 GDP 실질GDP 관계</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>네. 답변 드리겠습니다.수요 곡선의 높이는 해당 상품에 대해 최대한으로 지불할 용의가 있는 금액을 나타냅니다.따라서 보조금이 지급되는 경우 보조금을 지급한 만큼 수요 곡선이 수직 이동하게 됩니다.이러한 원리는 수요 곡선이 직선이든, 곡선이든 동일하게 적용됩니다.다만, 직선인 경우와는 달리 곡선인 경우 기울기가 매우 작은 부분에선 이동하지 않거나, 미세하게 이동할 수 있습니다.그러나 기본 원리는 같으므로 '보조금 지급 전의 금액에서 보조금의 금액만큼을 뺀 만큼에 해당하는 금액의 수요량'으로 풀이하면 됩니다.풍성한 명절 보내세요~~</t>
+          <t>명목 지디피가 크면 물가상승, 작으면 물가하락이라고 배웠는데요. 가격이 그대로고 생산량만 바뀌면 그땐 최종값( 해당연도 가격 x 생산량) 으로 실질과,, 명목의 관계를 통한 가격변동을 알 수는 없지 않나요?답변입니다.명목 GDP(해당연도 가격)와 실질 GDP(기준연도 가격)는 생산량은 같이 적용하고 가격만 다르게 제시되곤 합니다.문의하신 것처럼 가격이 동일하다면 GDP 디플레이터는 항상 100이 되어 물가 변동이 없습니다.단, 전년도의 물가지수가 100보다 작다면 물가 상승으로, 100보다 크다면 물가하락으로 표현할 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>이자소득</t>
+          <t>물가상승률</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ㄴ을 200만원이라고 하셨는데 이자소득 구하는 방법을 모르겠어요</t>
+          <t xml:space="preserve">물가상승률은  GDP디플레이터를 구한다음 물가상승률을 구해야한다고 말씀하셨는데118쪽을 보면 물가상승률은  GDP디플레이터를 통해서가 아니라 물가지수를 구해서 물가상승률을 구했거든요어떤차이점이 있는건가요? 감사합니다 </t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>이자소득</t>
+          <t>물가상승률</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변 드리겠습니다.이자소득의 경우 '원금×이자율×만기 연수'로 계산됩니다.교재 해당 내용의 경우 원금 1억원, 이자률 2%, 1년 만기 정기 예금이라는 조건이 있습니다.원금(1억 원)×이자율(2%=0.02)×연수(1년)으로이자는 200만 원이 되는 것입니다.학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.물가상승률은 물가 지수를 통해 구하는 것이 맞습니다.다만 GDP디플레이터가 물가 지수의 종류 중 하나이기 때문에GDP디플레이터를 이용해 물가상승률을 구할 수 있는 것입니다.문제를 푸는 경우에는 해당 문제에서 어떤 물가 지수를 이용해 물가 수준을 파악하는지 확인해야 합니다.답변에 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>10</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>경기 과열 시 정책</t>
+          <t>수입할당제</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7분 15초에서 "과열기의 확대 통화 정책"이라고 언급하셨는데 경기 과열기 때는 긴축 통화 정책이 맞지 않나요..?!</t>
+          <t>2022년 출판된 수능특강 경제 내용입니다.해당 질문게시판이 닫혀 여기에 질문합니다.위 상황에서 정책 2, 즉 수입할당제를 실시하면수입업자들은 가격 P에서 물건을 사왔다가 P+T가격에 소비자들한테 파는 건가요?그러면 수입업자들은 B만큼의 이득(정책 1로 따지면 관세수입만큼)을 보게 되나요?만약 제 말이 맞다면 수입업자들은 가격 P에서 사올 때 애당초 Q1Q2만큼 사오는게 아니라 Q3Q4만큼 사오는 건가요?</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>강의수정예정입니다.</t>
+          <t>수입할당제</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>안녕하세요.해당 질문의 경우 담당부서에 문의 후 재안내 예정입니다. ===============================Q&amp;A운영자입니다.안녕하세요. 회원님. 질문하신 [2025 수능개념] 박봄의 경제 개념홀릭 - 강의내용 관련 6분 4초 24강 경기 과열 시 정책 내용은박봄 강사께서 강의를 수정할 예정이시라는 연락을 받았습니다.이후 수정된 강의를 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.정책2의 수입할당제를 시행하는 경우 수입량이정책2시행 전인 Q1Q2에서 Q3Q4로 감소하게 됩니다.수입업자들이 수입하는 수량 자체가 Q3Q4로 감소하는 것입니다.(수입할당제에 의해 더 수입할 수가 없습니다.)수입업자들은 국제가격 P 수준에서 Q3Q4만큼 수입을 해온 후 국내 시장 가격 수준인 P+T수준으로 국내에서 판매를 하게 되는 것입니다.결국 B만큼은 수입 업자가 얻는 이득을 뜻하게 됩니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19번 선지</t>
+          <t>P73 하단</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>19번 문제의 1번에 x재 생산량 증가하더라도 x재 가격은 변함이 없다. 라고 되어있는데 생산량이 증가함에 따라 생산 비용이 증가하므로 틀린 선지인 건가요? 여기서 가격이 생산 바용을 말하는 건가요?그리고 2번 선지 해설을 보면 x재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 변함이 없다고 되어있는데 왜 그런 건가요? 생산량이 증가함에 따라 생산 비용이 늘어나는 것 아닌가요?</t>
+          <t>수요의 가격탄력성에 영향 미치는 요인부분을 설명 안하고 넘어가셨는데 가격 변동에 대한 대응기간이 이해가 안되네요</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19번 선지</t>
+          <t>P73 하단</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>&lt;1번 질문&gt;19번 문제의 1번에 x재 생산량 증가하더라도 x재 가격은 변함이 없다. 라고 되어있는데 생산량이 증가함에 따라 생산 비용이 증가하므로 틀린 선지인 건가요? 여기서 가격이 생산 바용을 말하는 건가요?답변입니다.우선 X재의 가격과 총비용과 총수입의 표는 해답편을 참고하시고, 생략하겠습니다문제에 보시면 원료인 Y재와Z재의 가격은 각 각 1만 원으로 동일하며, 그 외의 다른 비용은 없다는 전제를 보시면  추가비용은 1개 당 4만 원이 증가하는 것으로 변함 없습니다. 가격만 11,10,9,8,7로 변하고 있습니다. 이 때문에 이윤은 늘어납니다. (질문자가 말씀하신 추가 비용의 증가는 한계비용체증에 따라 증가할 수 있으나, 이 문제에서는 전제를 보셔야합니다.)&lt;2번 질문&gt;그리고 2번 선지 해설을 보면 x재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 변함이 없다고 되어있는데 왜 그런 건가요? 생산량이 증가함에 따라 생산 비용이 늘어나는 것 아닌가요?답변입니다.이것도 1번 질문과 마찬가지로 문제의 전제에 의해 추가로 발생하는 비용이 증가하지 않고 4만 원으로 변함이 없습니다.경제 문제에서는 여러가지 변수가 존재하기 때문에 이 문제처럼 전제를 통해 다른 조건을 정해 주는 경우가 많습니다. 문제를 푸실 때에는 이 점을 꼭 주의해 주시면 좋을 듯 합니다. 화이팅하세요!!</t>
+          <t>질문이 명확하지 않아 제가 해석한 내용을 바탕으로 답변 드리겠습니다.탄력성이라는 개념은 가격 변동에 어느 정도 민감하게 대응하는가를 말합니다.예를 들어, 휘발유 값이 5배로 높아졌다면당장 내일은 울며 겨자먹기식으로 주유할 수 밖에 없습니다. 그러나 한 달, 1년, 10년이 지난다면 대중교통을 이용하다던가, 다른 교통 수단을 통해 휘발유 사용을 크게 줄이게 됩니다.즉, 가격 변동에 대한 대응 기간이 짧다면 수요의 가격탄력성이 낮고, 가격 변동에 대한 대응 기간이 길다면 수요의 가격탄력성이 높다고 말할 수 있습니다.올 한해도 행복한 일만 가득하시길 바랍니다. 힘내세요:)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>77번 문제 질문</t>
+          <t>수요, 공급</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>143페이지77번 5번선지에 선생님께서 500*750(곱하기)라고 하셨는데왜 곱하기를 해야하나요?더해야하는 것 아닌가요?</t>
+          <t>2023학년도 수능 7번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.완전 정확하지 않더라도 그냥 대략 손으로라도 그려서 올려주시면 감사하겠습니다.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>강의수정예정입니다.</t>
+          <t>수요, 공급</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.질문하신 [2025 수능개념] 박봄의 경제 개념홀릭 - 강의내용 관련 41분 55초 25강 77번 문제 내용은박봄 강사께서 강의를 수정할 예정이시라는 연락을 받았습니다.이후 수정된 강의를 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t xml:space="preserve">네. 자료에 주어진 정보에 따르면 공급 곡선은 계단식의 그래프가 그려진다고 볼 수 있습니다. </t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>["https://lwdw.ebsi.co.kr/UpDown/ebsi/crosseditor/images/001210/KakaoTalk_20240210_182854552.jpg"]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>24쪽 9번의 ㄷ보기</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24쪽 9번의 ㄷ보기에서 왜 A,B의 기회비용이 11만원인가요?ㅜㅜ 답지에 11만원이라고 나와있던데 왜 11만원이 나오는지 잘 모르겠어용ㅠ</t>
+          <t>2023학년도 수능 14번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>24쪽 9번의 ㄷ보기(기회비용)</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>24쪽 9번의 ㄷ보기에서 왜 A,B의 기회비용이 11만원인가요?ㅜㅜ 답지에 11만원이라고 나와있던데 왜 11만원이 나오는지 잘 모르겠어용ㅠ질문에 대한 답변입니다.재화가격(명시적비용)편익(편익-가격)암묵적 비용기회비용(명+암)순편익A재810(2)38+3=1110-11=-1B재912(3)29+2=1112-11=1C재1315(2)313+3=1615-16=-1암묵적 비용은 포기한 재화의 (편익-가격)의 값이 가장 큰 것을 의미합니다.이해에 도움이 되었기를 바랍니다.</t>
+          <t>네. 맞습니다. 다만, 언제나 원화로 바꿔서 생각해야하는 것은 아닙니다.해당 선지에서 눈여겨 봐야할 문구는 '원화 표시 수익률'입니다.원화로 환전하였다는 말은 없었으나, 원화 표시 수익률 이라는 말 속에 비슷한 의미가 내포되어 있다고 볼 수 있습니다.풍성한 명절 보내시기 바랍니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>공급곡선</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24번 문제에서 a재의 수요곡선과 공급곡선은 공급자가 원하는 최소한의 가격에 비해 수요자가 지불할 수 있는 최대한의 가격이 낮아서 가격 자체가 정해질 수 없기 때문에 모든 가격 수준에서 공급량과 수요량의 비교 자체가 불가한 건가요? a재에서의 공급량과 수요량의 관계를 알려주세요!</t>
+          <t>2023학년도 수능 15번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>공급곡선</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>24번 문제에서 a재의 수요곡선과 공급곡선은 공급자가 원하는 최소한의 가격에 비해 수요자가 지불할 수 있는 최대한의 가격이 낮아서 가격 자체가 정해질 수 없기 때문에 모든 가격 수준에서 공급량과 수요량의 비교 자체가 불가한 건가요? a재에서의 공급량과 수요량의 관계를 알려주세요!답변입니다.선지 1번을 보면 A재는 모든 가격 수준에서 공급량이 수요량보다 많다고 제시되어 있는데이것은 무상재에 해당됩니다. 무상재 그래프는 벌어진 V자 형태(수요곡선과 공급곡선이 만나지 않음)를 띄는데 이때는 모든 가격 수준에서 공급량이 수요량보다 많습니다.A재 그래프는 수요량과 공급량이 가격대별로 다르기에 선지 1번에 대한 내용이 적합하지 않습니다.A재는 우주여행(비싸서 일반인은 구입할 수 없음)에 해당되는데 가격 자체가 존재(공급곡선과 수요곡선이 세로축인 가격과 만나는 경우)하고 희소성 즉 사람들이 사고자 하는 욕구가 있는 경제 객체이므로 경제재에 해당됩니다.당장 이루어지지 않는다고 해서 자유재라고 얘기할 수 없는 이미 경제재입니다.즉 거래가 이뤄지는 경우 경제재, 거래가 이뤄지지 않지만 희소성이 있는 경우 경제재에 해당됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">1. 수입쿼터제에서 국내 가격 및 국내 생산량은 시장의 원리에 따라 결정됩니다.예를 들어, - 가격이 10달러인 경우 -&gt; 국내 생산량: 10개, 수입량(국내 생산량의 50%): 5개 -&gt; 초과수요 75개 -&gt; 가격 상승 압력 발생- 가격이 20달러인 경우 -&gt; 국내 생산량: 20개, 수입량(국내 생산량의 50%): 10개 -&gt; 초과수요 40개 -&gt; 가격 상승 압력 발생- 가격이 30달러인 경우 -&gt; 국내 생산량: 30개, 수입량(국내 생산량의 50%): 15개 -&gt; 초과수요 5개 -&gt; 가격 상승 압력 발생- 가격이 40달러인 경우 -&gt; 국내 생산량: 40개, 수입량(국내 생산량의 50%): 20개 -&gt; 시장 균형2. (가) 정책이 관세 35달러 부과로 바뀐다면, (나) 정책과 관계없이 국제가격 10달러에서 35달러가 추가된 45달러 수준의 국제가격과 국내 수요 곡선이 만나는 점에서 국내 소비량이 결정됩니다.새해에도 행복한 일만 가득하시길 바랍니다 :) </t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>국내총생산 계산</t>
+          <t>총수요</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>99페이지   56번문제'국내총생산을    &lt;총생산물의 시장가치의 합 - 중간 생산물의 시장가치의 합 &gt;    을 통해 계산하는 방법을 알려주세요어떻게  1420  달러가 나올수 있나요? 감사합니다</t>
+          <t>2023학년도 수능 18번 질문합니다. (2022년 11월 시행)해당 게시판이 닫혀서 여기에 질문올립니다.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>국내총생산 계산</t>
+          <t>총수요</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>국내총생산을    &lt;총생산물의 시장가치의 합 - 중간 생산물의 시장가치의 합 &gt;    을 통해 계산하는 방법을 알려주세요어떻게  1420  달러가 나올수 있나요? 답변입니다.국내총생산 GDP는 국내에서 라는 전제가 매우 중요합니다. 수입품은 해당 국가(수출한 국가)의 GDP에 해당하므로 빼줘야 한다는 것을 기억해주세요.최종생산물의 합으로 계산하면우선 최종 생산물은 종이회사가 소비자에게 판 100만달러와 공책 1,000만달러, 외국에 수출한 500만 달러로 총 1,600만 달러가 됩니다.그리고 외국에서 수입한 180만 달러를 여기에서 빼주니 1420만 달러가 됩니다.총생산물을 보면 목재, 종이, 공책으로 구성되어 있습니다.이때 목재가 200만(180만은 수입품), 종이가 600만(이 중 100만은 최종 생산물), 공책 1500만달러입니다.총생산물 시장 가치의 합 = 200만 + 600만 +1500만 달러 = 2,300만 달러이고이때 중간생산물 시장가치의 합은 700만 달러이고 이때 수입품은 국내에서 생산된 것이 아니니 빼줘야하니 2,300만 – 500만 – 200만 - 180(수입품) = 1,420만 달러가 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>(4번 선지 관련)그러면 동그라미 ㄴ, ㄷ, ㅁ은, 즉, 총공급 증가, 총수요 감소는 각각 디플레이션의 발생 요인이라고 말할 수 있나요?제가 알기로 디플레이션은 인플레이션처럼 물가가 오른다고 해서 바로 발생하는 건 아니라고 알고 있어서요.인플레이션에 비해 디플레이션은 '지속성'이 더 필요하다고 알고 있는데 총공급 증가나 총수요 감소는 디플레이션의 발생 요인이라고 말할 수 있나요?답변입니다.인플레이션도, 디플레이션도 지속성이 필요한 부분입니다.디플레이션은 장기적으로 물가가 하락하는 것을 말합니다.문의하신 것처럼 총공급 증가, 총수요 감소는 디플레이션의 원인이 될 수 있습니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>국공채 매각과 시중 자금의 흡수</t>
+          <t>정보의 비대칭성</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1. 우선 '국공채 매입-시중에 자금 방출'에 대하여 이렇게 이해하고 있는게 맞을까요? 국공채를 중앙은행이 매입(사 와서) 해서 돈이 공개 시장으로 나간 것이므로 '시중에 자금 방출'이 되어 그 돈이 공개 시장으로 들어와 통화량이 증가한 것이라고 이해하고 있습니다.2. 제목에 적은 '국공채 매각-시중 자금의 흡수'는 원리부터 이해가 잘 되지 않습니다.국공채를 중앙은행이 매각(팔아서) 하면 돈은 중앙 은행이 받게 되고 공개 시장의 돈은 나가게 되는 것처럼 보이는데, 어떻게 공개 시장에 돈이 들어오게 되고 '시중 자금의 흡수'라고 할 수 있는 것인가요?</t>
+          <t>공급자가 수요자보다 제품에 대한 많은 정보를 가지고 있을때 사회적 최적 거래량보다 과소거래 되나요 과다 거래 되나요?(박봄 선생님 최종평가 4번 문제 참고)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>국공채 매각과 시중 자금의 흡수</t>
+          <t>정보의 비대칭성</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1. 우선 '국공채 매입-시중에 자금 방출'에 대하여 이렇게 이해하고 있는게 맞을까요? 국공채를 중앙은행이 매입(사 와서) 해서 돈이 공개 시장으로 나간 것이므로 '시중에 자금 방출'이 되어 그 돈이 공개 시장으로 들어와 통화량이 증가한 것이라고 이해하고 있습니다.네 맞습니다.2. 제목에 적은 '국공채 매각-시중 자금의 흡수'는 원리부터 이해가 잘 되지 않습니다.국공채를 중앙은행이 매각(팔아서) 하면 돈은 중앙 은행이 받게 되고 공개 시장의 돈은 나가게 되는 것처럼 보이는데, 어떻게 공개 시장에 돈이 들어오게 되고 '시중 자금의 흡수'라고 할 수 있는 것인가요?답변입니다.시중에 있는 통화량 즉 자금을 증가시키기 위해 시중에 있는 국공채를 중앙은행이 매입(구입)하면 그 대가로 자금을 시중에 주게 됩니다.시중에 있는 통화량 즉 자금을 감소시키기 위해 시중에 국공채를 매각(판매)하면 시중에 있는 돈이 중앙은행으로 들어오게 됩니다.쉽게 말해서 어떤 걸 판매하면 돈을 받게 되는데 이 돈이 시중에 있던 돈이라서 시중 자금이 중앙은행으로 흡수된다라고 표현합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>공급자가 수요자보다 제품에 대한 많은 정보를 가지고 있을때 사회적 최적 거래량보다 과소거래 되나요 과다 거래 되나요?(박봄 선생님 최종평가 4번 문제 참고)답변입니다.소비자의 입장에서 불안하므로 사회적 최적거래량보다 적게 거래됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>가격 변동 대응기간 질문</t>
+          <t>요구불 예금</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>77쪽에 생산기간이 짧은, 즉 가격탄력성이 큰 공산품이 가격 변동에 대응하는 기간이 긴 이유가 탄력성이 크기에 장 시간동안 가격을 적응하면서  그에 맞는 공급량과 가격을 조절하기 위해 장기간에 대응하는건가요?</t>
+          <t>금융상품의 유형 문제에서 b를 그냥 예금이 아닌 요구불 예금이 답이라고 하셨는데 그냥 총체적인 예금은 수익성이 낮고 안정성이 높은 금융상품에 해당되지 않는 건가요? 요구불 예금에만 해당되나요?</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>가격 변동 대응기간 질문</t>
+          <t>요구불 예금</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>77쪽에 생산기간이 짧은, 즉 가격탄력성이 큰 공산품이 가격 변동에 대응하는 기간이 긴 이유가 탄력성이 크기에 장 시간동안 가격을 적응하면서  그에 맞는 공급량과 가격을 조절하기 위해 장기간에 대응하는건가요?답변입니다.이렇게 정리해보겠습니다.공급의 가격 탄력도가 탄력적이라는 것은 가격 변화에 민감하게 반응이 가능하다는 것을 말하는데 쉽게 말해서 가격을 올릴때 공급량을 시기에 맞춰서 공급할 수 있으면 탄력적이라는 의미입니다.공급의 가격 탄력성 결정 요인 중 가격 변동에 대한 대응 기간의 경우 장기간일수록 공급을 늘릴 수 있으므로 탄력적이 됩니다.공급의 가격 탄력성 결정 요인 중 생산기간의 경우 단기 즉 빠른 시간내에 공급할 수 있다면 탄력적이 됩니다.생산기간과 가격변동에 대응하는 기간은 다른 분류에 해당되니 이렇게 구분해주세요.도움이 되셨으면 좋겠습니다.</t>
+          <t>금융상품의 유형 문제에서 b를 그냥 예금이 아닌 요구불 예금이 답이라고 하셨는데 그냥 총체적인 예금은 수익성이 낮고 안정성이 높은 금융상품에 해당되지 않는 건가요? 요구불 예금에만 해당되나요?답변입니다.그런 경향을 갖고 있습니다.금융상품 중 예금을 요구불 예금과 저축성 예금을 구분하고 있습니다.수익성이 낮고 안전성이 높은 금융상품을 일반적으로 요구불 예금으로 제시하고 있습니다.이런 문제를 보시면 금융상품의 종류가 무엇인지 정확하게 제시하고 있으니 크게 고민하지 않으셔도 됩니다.해당 교재 179쪽 위에 있는 금융상품의 유형 그래프에도 단 A, B는 각가 요구불 예금(수익성이 낮고 안정성이 높은 금융상품)과 주식(수익성이 높고 안전성이 낮은 금융상품) 중 하나이다.라고 조건으로 제시되어 있으니 고민하지 않으셔도 됩니다.이런 부분은 외운다기 보다 상대적 개념이므로 어떤 금융상품과 비교하느냐에 따라 달라질 수도 있습니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3101,680 +3500,763 @@
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>중고품 재활용</t>
+          <t>보조금 지급에 따른 수요 곡선 이동</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>그렇다면 재고가 물가 상승 등을 통해 원가 보다 비싸게 팔렸을 경우, 그것도 부가 가치로 계산하게 될까요?</t>
+          <t>선생님께서 66쪽 2번의 4번째 질문을 해결하실 때 보조금 지급 전의 금액에서 보조금의 금액만큼을 뺀 만큼에 해당하는 금액의 수요량을 적으셨습니다. 예를 들어 80만원의 수요량을 구하실 때 80에서 20을 빼 60만원의 수요량인 160을 쓰셨던 것처럼요.그런데 보조금 지급에 따른 수요나 공급 곡선의 이동은 수직 방향으로 알고 있습니다. 해당 문제는 수요와 공급선이 모두 직선이어서 상관이 없지만, 만약 직선이 아닌 곡선이라면 수직 이동을 한 것과는 다른 결과가 나옵니다. 만약 수요곡선이 가격 변동에 따른 수요량의 변화량이 일정하지 않은 곡선의 형태를 띤다면, 선생님께서 풀이해주신 대로 접근해도 되는 건가요?</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>물가상승분까지 재고에?</t>
+          <t>보조금 지급에 따른 수요 곡선 이동</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>우선 다양한 자료를 찾아봤으나 명확하게 설명되어있는 부분을 찾지 못하였습니다. 결론은 물가상승분만큼을 정확하게 분리하여 GDP에 포함시키는 것은 현실적으로 불가능하다고 생각됩니다.---------------------------------------------------------------------------다만, GDP에 대한 통상적인 논리에 따른 개인적인 의견을 말씀드려보겠습니다.1. 전년도에 발생한 재고의 가치는 전년도 GDP에 포함됩니다.   ex. 재고: 휴대폰 1대 100만원 -&gt; 전년도 GDP 포함2. 올해 물가가 상승하여 휴대폰의 값이 120만원으로 올라서 판매되었다면?3. 이는 앞서 설명드렸던 A, B 사례와 유사하다고 볼 수 있습니다.  A(100만원, 휴대폰 값) + B(20만원, 휴대폰 판매 서비스 수수료) 따라서, 물가상승분은 곧바로 재고의 순가치를 올린다기보다 재고를 판매하는 서비스의 값을 상승시키며 전년도 GDP가 아닌 올해 GDP에 포함되는 것으로 판단됩니다. 위 내용은 저의 개인적인 의견으로 정확한 서술이 아닐 수 있습니다. 명쾌한 설명을 드리지 못해 미안하네요. 그동안 전혀 고민해보지 못한 참신한 접근이었습니다. 참 멋있네요 :)</t>
+          <t>네. 답변 드리겠습니다.수요 곡선의 높이는 해당 상품에 대해 최대한으로 지불할 용의가 있는 금액을 나타냅니다.따라서 보조금이 지급되는 경우 보조금을 지급한 만큼 수요 곡선이 수직 이동하게 됩니다.이러한 원리는 수요 곡선이 직선이든, 곡선이든 동일하게 적용됩니다.다만, 직선인 경우와는 달리 곡선인 경우 기울기가 매우 작은 부분에선 이동하지 않거나, 미세하게 이동할 수 있습니다.그러나 기본 원리는 같으므로 '보조금 지급 전의 금액에서 보조금의 금액만큼을 뺀 만큼에 해당하는 금액의 수요량'으로 풀이하면 됩니다.풍성한 명절 보내세요~~</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>생산물인 재화와 생산 요소인 자본</t>
+          <t>이자소득</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>정부가 컴퓨터를 구입하는 것에 대해서도 이것이 단순한 소비 활동인지, 해당 컴퓨터를 '생산을 위한 생산 요소'로서 구입하는 것인지에 따라 재화인지 자본인지 결정할 수 있는 것인가요?</t>
+          <t>ㄴ을 200만원이라고 하셨는데 이자소득 구하는 방법을 모르겠어요</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>정부의 컴퓨터 구입</t>
+          <t>이자소득</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">네. 답변 드리겠습니다.경제 주체가 '정부'일 경우에는 소비의 정의에 따라 답이 달라질 수 있습니다. 교육과정을 넘어서는 디테일한 내용이라고 할 수 있습니다. 1.통상 소비 활동은 가계의 경제 활동만으로 알고 있지만, 우리나라에서는 소비 활동을 추계할 때 가계 소비 외에 정부가 하는 소비도 포함됩니다. 따라서 소비의 주체에는 가계와 정부가 포함될 수 있습니다.2. 정부가 컴퓨터를 구입하는 사례는 소비 활동이 될 수도, 생산 활동이 될 수도 있습니다. 이는 소비 활동을 어떻게 해석하느냐에 달라질 수 있는 어려운 사례입니다. 매우 매우 단순화하여 이를 구분해본다면, 최종적으로 사용해 써버렸느냐 or 생산 활동에 반복하여 사용하였느냐에 따라 구분해 볼 수 있습니다.예를 들어, 정부가 취약 계층을 지원하기 위해 컴퓨터를 구입하고 취약 계층에 지급하였다면 소비 활동으로,정부가 교사의 업무를 지원하기 위해 컴퓨터를 구입하여 학교에 보급하였다면 생산 활동으로 볼 수 있습니다.전자의 사례는 재화로, 후자의 사례는 자본으로 볼 수 있습니다.다만,  해당 질문은 교육 과정을 벗어나는 내용으로 엄밀한 의미에서는 정확한 설명이나 예시가 아닐 수 있습니다. 대강 이 정도로 이해할 수 있다는 정도로 참고하셨으면 좋겠습니다. 완벽한 답변이 되지 못해 미안합니다ㅠ 혹시 여전히 이해가 안된다면 새롭게 질문을 올려주세요. 다른 선생님들께서 도와주실거에요. </t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.이자소득의 경우 '원금×이자율×만기 연수'로 계산됩니다.교재 해당 내용의 경우 원금 1억원, 이자률 2%, 1년 만기 정기 예금이라는 조건이 있습니다.원금(1억 원)×이자율(2%=0.02)×연수(1년)으로이자는 200만 원이 되는 것입니다.학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>생산물인 재화와 생산 요소인 자본</t>
+          <t>경기 과열 시 정책</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>강의 영상 해당 부분에서 선생님께서 정부가 업무에 필요한 컴퓨터를 구입하는 것을 재화를 구입하는 것으로 설명하셨는데 이 컴퓨터를 재화가 아닌 생산 요소 중 자본으로 볼 수는 없나요? 재화와 자본을 어떤 기준으로 구별해야 하나요?</t>
+          <t>7분 15초에서 "과열기의 확대 통화 정책"이라고 언급하셨는데 경기 과열기 때는 긴축 통화 정책이 맞지 않나요..?!</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>재화 or 자본?</t>
+          <t>강의수정예정입니다.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>맞습니다. 자본으로도 볼 수 있습니다.'컴퓨터를 구입하는 행위' 자체만으로는 소비 활동인지, 생산 활동인지 알 수 없습니다.이를 구분하는 기준은 1. 경제 주체가 가계이며 소비 활동을 위해 구입하였는지2. 경제 주체가 기업이며 생산 활동을 위해 구입하였는지에 따라 '컴퓨터'를1 -&gt; 소비 활동의 객체인 재화로2 -&gt; 생산 활동에 필요한 요소인 자본으로 나눠볼 수 있습니다.매우 좋은 질문입니다:)</t>
+          <t>안녕하세요.해당 질문의 경우 담당부서에 문의 후 재안내 예정입니다. ===============================Q&amp;A운영자입니다.안녕하세요. 회원님. 질문하신 [2025 수능개념] 박봄의 경제 개념홀릭 - 강의내용 관련 6분 4초 24강 경기 과열 시 정책 내용은박봄 강사께서 강의를 수정할 예정이시라는 연락을 받았습니다.이후 수정된 강의를 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>중고품 재활용</t>
+          <t>19번 선지</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GDP 계산에 중고품, 재고의 경우 작년에 이미 계산된 것이기 때문에 포함되지 않는다고 한 것은 이해했습니다이곳에서 궁금한 것이 만약 중고품을 재활용 하여 어떤 새로운 물건을 만들어 팔았다고 했을 때 이것은 GDP로 계산 해야 하는 걸까요?</t>
+          <t>19번 문제의 1번에 x재 생산량 증가하더라도 x재 가격은 변함이 없다. 라고 되어있는데 생산량이 증가함에 따라 생산 비용이 증가하므로 틀린 선지인 건가요? 여기서 가격이 생산 바용을 말하는 건가요?그리고 2번 선지 해설을 보면 x재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 변함이 없다고 되어있는데 왜 그런 건가요? 생산량이 증가함에 따라 생산 비용이 늘어나는 것 아닌가요?</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>GDP 중고품</t>
+          <t>19번 선지</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>네. 기준만 명확히 세운다면 GDP에 포함할 수 있습니다.예를 들어, A라는 상품이 이월 상품(전년도에 생산된 상품)으로 A라는 상품에 B라는 올해 생산한 상품 혹은 서비스를 결합하여 A+B의 상품을 생산한다면, A는 제외하고 B만큼의 부가가치는 올해 GDP에 포함될 수 있습니다.구체적인 사례를 보면, 중고차 시장에서 10년 된 자동차를 딜러에게 구입하며 자동차 값(A)과 중계 서비스 수수료(B)를 지불하였다고 가정하였을 때A와 달리 B는 올해 GDP에 포함됩니다.좋은 질문입니다! 화이팅하세요 :)</t>
+          <t>&lt;1번 질문&gt;19번 문제의 1번에 x재 생산량 증가하더라도 x재 가격은 변함이 없다. 라고 되어있는데 생산량이 증가함에 따라 생산 비용이 증가하므로 틀린 선지인 건가요? 여기서 가격이 생산 바용을 말하는 건가요?답변입니다.우선 X재의 가격과 총비용과 총수입의 표는 해답편을 참고하시고, 생략하겠습니다문제에 보시면 원료인 Y재와Z재의 가격은 각 각 1만 원으로 동일하며, 그 외의 다른 비용은 없다는 전제를 보시면  추가비용은 1개 당 4만 원이 증가하는 것으로 변함 없습니다. 가격만 11,10,9,8,7로 변하고 있습니다. 이 때문에 이윤은 늘어납니다. (질문자가 말씀하신 추가 비용의 증가는 한계비용체증에 따라 증가할 수 있으나, 이 문제에서는 전제를 보셔야합니다.)&lt;2번 질문&gt;그리고 2번 선지 해설을 보면 x재 생산량이 1개씩 증가할 때마다 추가로 발생하는 비용은 변함이 없다고 되어있는데 왜 그런 건가요? 생산량이 증가함에 따라 생산 비용이 늘어나는 것 아닌가요?답변입니다.이것도 1번 질문과 마찬가지로 문제의 전제에 의해 추가로 발생하는 비용이 증가하지 않고 4만 원으로 변함이 없습니다.경제 문제에서는 여러가지 변수가 존재하기 때문에 이 문제처럼 전제를 통해 다른 조건을 정해 주는 경우가 많습니다. 문제를 푸실 때에는 이 점을 꼭 주의해 주시면 좋을 듯 합니다. 화이팅하세요!!</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>희소성</t>
+          <t>77번 문제 질문</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>해설을 보면 보기 ㄱ,ㄴ은 경제재이고 보기 ㄱ,ㄷ은 희소성이 있다고 나와있어요그런데 보기 ㄱ은 사람들의 수요에 대한 내용이 없는데 희귀성이 있다고 볼 수 있는건가요?희귀하다고 해서 희소성이 있는건 아니니깐요...!!그라고 문자 ㄹ에서 보기 ㄱ~ㄷ 모두 희소성으로 인한 문제가 발생한다했는데 보기ㄴ은 희소성이 없는데 왜 답이 4번으오 ㄴ,ㄹ인건가요?</t>
+          <t>143페이지77번 5번선지에 선생님께서 500*750(곱하기)라고 하셨는데왜 곱하기를 해야하나요?더해야하는 것 아닌가요?</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>희소성</t>
+          <t>강의수정예정입니다.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>해설을 보면 보기 ㄱ,ㄴ은 경제재이고 보기 ㄱ,ㄷ은 희소성이 있다고 나와있어요그런데 보기 ㄱ은 사람들의 수요에 대한 내용이 없는데 희귀성이 있다고 볼 수 있는건가요?희귀하다고 해서 희소성이 있는건 아니니깐요...!!그라고 문자 ㄹ에서 보기 ㄱ~ㄷ 모두 희소성으로 인한 문제가 발생한다했는데 보기ㄴ은 희소성이 없는데 왜 답이 4번으오 ㄴ,ㄹ인건가요?답변입니다.보기 ㄱ에는 소금이 희귀하여라고 제시되어 있어서 희귀성이 있습니다.그리고 국가가 전매(국가가 독점적을 판매)했다는 부분에서 희소성도 함께 있음을 알게 됩니다.보기 ㄴ의 내용을 보면 소금이 과거보다 저렴해졌다라고 제시되어 있는데 이 부분에서 희소성이 있음을 파악할 수 있습니다.희소성이 없으면 가격이 존재하지 않는 무상재에 해당되기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.질문하신 [2025 수능개념] 박봄의 경제 개념홀릭 - 강의내용 관련 41분 55초 25강 77번 문제 내용은박봄 강사께서 강의를 수정할 예정이시라는 연락을 받았습니다.이후 수정된 강의를 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>총수요와 순수출</t>
+          <t>24쪽 9번의 ㄷ보기</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>총수요는 지출국민소득과 계산 방법이 이론상 동일하여 (소비지출+투자지출+정부지출+순수출 = 총수요) 라고 이해했습니다. 그런데 교재 110쪽 61번-1번선지(수입 원자재 가격상승은 'ㄱ'(총공급감소)의 원인이다. ) 가 정답으로 제시된 것이 이해가 잘 되지 않습니다. 수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요? 그렇다면 순수출을 계산할 때 수출에서 삭감하는 수입 비용은 정확히 무엇을 가리키는 것이고 수입 원자재 가격 상승과는 왜 관련이 없는건가요?</t>
+          <t>24쪽 9번의 ㄷ보기에서 왜 A,B의 기회비용이 11만원인가요?ㅜㅜ 답지에 11만원이라고 나와있던데 왜 11만원이 나오는지 잘 모르겠어용ㅠ</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>총수요와 순수출</t>
+          <t>24쪽 9번의 ㄷ보기(기회비용)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>총수요는 지출국민소득과 계산 방법이 이론상 동일하여 (소비지출+투자지출+정부지출+순수출 = 총수요) 라고 이해했습니다. 그런데 교재 110쪽 61번-1번선지(수입 원자재 가격상승은 'ㄱ'(총공급감소)의 원인이다. ) 가 정답으로 제시된 것이 이해가 잘 되지 않습니다. 수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요? 그렇다면 순수출을 계산할 때 수출에서 삭감하는 수입 비용은 정확히 무엇을 가리키는 것이고 수입 원자재 가격 상승과는 왜 관련이 없는건가요?질문에 관한 답변입니다.일단 질문에서 말씀하신 '수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요?' 라고 질문하신 부분에 대해 답변드리자면, 수요, 공급에서 학습하셨던 것을 기억해 보시면 비슷하다고 할 수 있습니다. 원인이냐 결과냐의 문제로 보시면 됩니다. 1번 선지의 내용을 보시면 수입원자재의 가격 상승이 직접적으로 미치는 부분은 총공급입니다. 물론 결과적으로 수출 금액이 일정한 상태에서 수입액만 늘어나면 총수요가 늘어날 수 있습니다. 하지만 직접적으로 수입 원자재의 가격이 오르면 공급에 영향을 미쳐서 수입이 감소할 수 있고 선지에서는 직접적인 원인을 묻는 부분이기 때문에 맞다고 볼 수 있습니다.질문하신 부분은 충분히  수요와 공급에서 늘 고민하는 부분입니다. 아시다시피 수요와 공급 법칙은 다른 모든 것이 일정할 때 직접적인 영향을 미치는 부분만을 변동의 원인으로 보기 때문에 인강에서 설명하신 총수요와 총공급의 변동 원인을 적용시키셔서 문제를 푸시면 됩니다.아주 예리하고 늘 고민스러운 문제를 물어봐 주셨는데, 이해에 도움이 되셨으면 좋겠습니다.^^</t>
+          <t>24쪽 9번의 ㄷ보기에서 왜 A,B의 기회비용이 11만원인가요?ㅜㅜ 답지에 11만원이라고 나와있던데 왜 11만원이 나오는지 잘 모르겠어용ㅠ질문에 대한 답변입니다.재화가격(명시적비용)편익(편익-가격)암묵적 비용기회비용(명+암)순편익A재810(2)38+3=1110-11=-1B재912(3)29+2=1112-11=1C재1315(2)313+3=1615-16=-1암묵적 비용은 포기한 재화의 (편익-가격)의 값이 가장 큰 것을 의미합니다.이해에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>비례세</t>
+          <t>공급곡선</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>22번 문제에서 1번 보기가 왜 맞는지 이해가 잘 안돼요ㅠㅠ 쉽게 설명해주세요</t>
+          <t>24번 문제에서 a재의 수요곡선과 공급곡선은 공급자가 원하는 최소한의 가격에 비해 수요자가 지불할 수 있는 최대한의 가격이 낮아서 가격 자체가 정해질 수 없기 때문에 모든 가격 수준에서 공급량과 수요량의 비교 자체가 불가한 건가요? a재에서의 공급량과 수요량의 관계를 알려주세요!</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>비례세</t>
+          <t>공급곡선</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>22번 문제에서 1번 보기가 왜 맞는지 이해가 잘 안돼요ㅠㅠ 쉽게 설명해주세요질문하신 내용의 답변입니다.22번의 그래프에서 갑국은 비례세, 을국은 누진세를 나타내는 그래프 입니다.갑국의 비례세는 과세 대상 금액과 상관없이 동일한 세율을 적용하는 세금 부과의 방식입니다.여기에서 중요한 것은 세율과 세액의 차이를 이해하시는 것입니다.세율은 과세대상 금액에서 부과하는 세금의 비율이고, 세액은 과세대상 금액에서 부과하는 금액인 것입니다.그러므로 세율이 같으면 세액은 비례이고 증가율이 같을 수 밖에 없습니다.예를 들어보면 100만원의 10% 세율이면 세액은 10만원이고, 200만원의 10% 세율이면 20만원이기 때문에 세액의 증가율이 같게 됩니다.  조세의 분류에 대해서 공부하실때에는 그래프의 세로측이 세율인지, 세액인지 확인을 하셔야 합니다. 그에 따라 그래프는 달라지기 때문입니다.이해에 도움이 되시길 바랍니다..화이팅하세요^^</t>
+          <t>24번 문제에서 a재의 수요곡선과 공급곡선은 공급자가 원하는 최소한의 가격에 비해 수요자가 지불할 수 있는 최대한의 가격이 낮아서 가격 자체가 정해질 수 없기 때문에 모든 가격 수준에서 공급량과 수요량의 비교 자체가 불가한 건가요? a재에서의 공급량과 수요량의 관계를 알려주세요!답변입니다.선지 1번을 보면 A재는 모든 가격 수준에서 공급량이 수요량보다 많다고 제시되어 있는데이것은 무상재에 해당됩니다. 무상재 그래프는 벌어진 V자 형태(수요곡선과 공급곡선이 만나지 않음)를 띄는데 이때는 모든 가격 수준에서 공급량이 수요량보다 많습니다.A재 그래프는 수요량과 공급량이 가격대별로 다르기에 선지 1번에 대한 내용이 적합하지 않습니다.A재는 우주여행(비싸서 일반인은 구입할 수 없음)에 해당되는데 가격 자체가 존재(공급곡선과 수요곡선이 세로축인 가격과 만나는 경우)하고 희소성 즉 사람들이 사고자 하는 욕구가 있는 경제 객체이므로 경제재에 해당됩니다.당장 이루어지지 않는다고 해서 자유재라고 얘기할 수 없는 이미 경제재입니다.즉 거래가 이뤄지는 경우 경제재, 거래가 이뤄지지 않지만 희소성이 있는 경우 경제재에 해당됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>12</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>총수요 총공급</t>
+          <t>국내총생산 계산</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>61번 문제의 3번 선지에서 중앙은행 지급준비율 인상이 왜 총공급 증가 요인인가요?</t>
+          <t>99페이지   56번문제'국내총생산을    &lt;총생산물의 시장가치의 합 - 중간 생산물의 시장가치의 합 &gt;    을 통해 계산하는 방법을 알려주세요어떻게  1420  달러가 나올수 있나요? 감사합니다</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>총수요와 총공급</t>
+          <t>국내총생산 계산</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.교재에서 해당 문제를 확인해보니 110쪽 61번 문제를 질문하신 것으로 생각되어 해당 문제에 대하여 답변드리겠습니다.3번 선지의 '중앙은행의 지급 준비율 인상은 ㉢의 요인이다.'는 옳지 않은 선지입니다.중앙은행의 지급 준비율 인상은'은행의 대출 자금 감소→통화량 감소, 이자율 상승→소비와 투자감소→총수요 감소→경기 진정'의 영향을 미치게 됩니다.문제에 적용하게되면 ㉣로 이동하는 요인에 해당합니다.답변이 학습에 도움이 되었길 바랍니다.감사합니다.</t>
+          <t>국내총생산을    &lt;총생산물의 시장가치의 합 - 중간 생산물의 시장가치의 합 &gt;    을 통해 계산하는 방법을 알려주세요어떻게  1420  달러가 나올수 있나요? 답변입니다.국내총생산 GDP는 국내에서 라는 전제가 매우 중요합니다. 수입품은 해당 국가(수출한 국가)의 GDP에 해당하므로 빼줘야 한다는 것을 기억해주세요.최종생산물의 합으로 계산하면우선 최종 생산물은 종이회사가 소비자에게 판 100만달러와 공책 1,000만달러, 외국에 수출한 500만 달러로 총 1,600만 달러가 됩니다.그리고 외국에서 수입한 180만 달러를 여기에서 빼주니 1420만 달러가 됩니다.총생산물을 보면 목재, 종이, 공책으로 구성되어 있습니다.이때 목재가 200만(180만은 수입품), 종이가 600만(이 중 100만은 최종 생산물), 공책 1500만달러입니다.총생산물 시장 가치의 합 = 200만 + 600만 +1500만 달러 = 2,300만 달러이고이때 중간생산물 시장가치의 합은 700만 달러이고 이때 수입품은 국내에서 생산된 것이 아니니 빼줘야하니 2,300만 – 500만 – 200만 - 180(수입품) = 1,420만 달러가 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>99쪽 55번 5번선지</t>
+          <t>국공채 매각과 시중 자금의 흡수</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>국민이 자가 소비를 위해 텃밭에서 재배한 농산물의 가치는 국내총생산에 포함되지 않나요?</t>
+          <t>1. 우선 '국공채 매입-시중에 자금 방출'에 대하여 이렇게 이해하고 있는게 맞을까요? 국공채를 중앙은행이 매입(사 와서) 해서 돈이 공개 시장으로 나간 것이므로 '시중에 자금 방출'이 되어 그 돈이 공개 시장으로 들어와 통화량이 증가한 것이라고 이해하고 있습니다.2. 제목에 적은 '국공채 매각-시중 자금의 흡수'는 원리부터 이해가 잘 되지 않습니다.국공채를 중앙은행이 매각(팔아서) 하면 돈은 중앙 은행이 받게 되고 공개 시장의 돈은 나가게 되는 것처럼 보이는데, 어떻게 공개 시장에 돈이 들어오게 되고 '시중 자금의 흡수'라고 할 수 있는 것인가요?</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>국공채 매각과 시중 자금의 흡수</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>안녕하세요. 질문에 답변드리겠습니다.자가소비의 경우도 2가지로 나눌 수 있습니다. 생산을 위해 농산물을 생산하여 자가소비한 경우에는 GDP로 산정되나, 단순히 자신의 소비를 위해 농산물을 생산할 경우는GDP에 잡히지 않습니다. 조건에 지문에 따라서 그 해석이 달라질 수 있습니다.감사합니다.</t>
+          <t>1. 우선 '국공채 매입-시중에 자금 방출'에 대하여 이렇게 이해하고 있는게 맞을까요? 국공채를 중앙은행이 매입(사 와서) 해서 돈이 공개 시장으로 나간 것이므로 '시중에 자금 방출'이 되어 그 돈이 공개 시장으로 들어와 통화량이 증가한 것이라고 이해하고 있습니다.네 맞습니다.2. 제목에 적은 '국공채 매각-시중 자금의 흡수'는 원리부터 이해가 잘 되지 않습니다.국공채를 중앙은행이 매각(팔아서) 하면 돈은 중앙 은행이 받게 되고 공개 시장의 돈은 나가게 되는 것처럼 보이는데, 어떻게 공개 시장에 돈이 들어오게 되고 '시중 자금의 흡수'라고 할 수 있는 것인가요?답변입니다.시중에 있는 통화량 즉 자금을 증가시키기 위해 시중에 있는 국공채를 중앙은행이 매입(구입)하면 그 대가로 자금을 시중에 주게 됩니다.시중에 있는 통화량 즉 자금을 감소시키기 위해 시중에 국공채를 매각(판매)하면 시중에 있는 돈이 중앙은행으로 들어오게 됩니다.쉽게 말해서 어떤 걸 판매하면 돈을 받게 되는데 이 돈이 시중에 있던 돈이라서 시중 자금이 중앙은행으로 흡수된다라고 표현합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gdp 계산문제</t>
+          <t>가격 변동 대응기간 질문</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>그 전 질문에서 한 선생님께서 전년 대비 gdp를 구하는 방법은 경제성장률을 구하는 법과 동일하다고 답변주셨습니다.그런데 경제성장률은 모두 실질 gdp로 구하는데 어떻게 명목gdp로 계산하나요…?그리고 문제에 “t+1년의 명목 gdp는 전년대비 10% 증가한 220달러이다”라고명시되어 있는데 왜 단순히 10% 값만큼 감소한 198달러가 정답이 아닌지 그 이유도 궁금합니다.(교재 p.103 마지막 문제 질문입니다.)</t>
+          <t>77쪽에 생산기간이 짧은, 즉 가격탄력성이 큰 공산품이 가격 변동에 대응하는 기간이 긴 이유가 탄력성이 크기에 장 시간동안 가격을 적응하면서  그에 맞는 공급량과 가격을 조절하기 위해 장기간에 대응하는건가요?</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>가격 변동 대응기간 질문</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변 드리겠습니다.Q1)먼저 경제 성장률을 구하는 공식은경제 성장률(%)={(금년도의 실질 GDP-전년도의 실질 GDP)/전년도의 실질 GDP}*100 으로이는 전년 대비 실질 GDP의 증가율이라고 할 수 있습니다.Q2)103쪽 마지막 문제의 경우 특정 값에서 10% 증가한 후 동일한 비율(10%)로 감소시키는 경우그 값은 원래의 값보다 작아지게 됩니다.예) 't년의 명목 GDP 200달러 -&gt; t+1년은 전년 대비 10% 증가하여 220달러' 만약 여기서 10%를 감소시킨다면 원래의 값인200달러가 나오는 것이 아니라 22달러가 감소하여 198달러가 나오게됩니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>77쪽에 생산기간이 짧은, 즉 가격탄력성이 큰 공산품이 가격 변동에 대응하는 기간이 긴 이유가 탄력성이 크기에 장 시간동안 가격을 적응하면서  그에 맞는 공급량과 가격을 조절하기 위해 장기간에 대응하는건가요?답변입니다.이렇게 정리해보겠습니다.공급의 가격 탄력도가 탄력적이라는 것은 가격 변화에 민감하게 반응이 가능하다는 것을 말하는데 쉽게 말해서 가격을 올릴때 공급량을 시기에 맞춰서 공급할 수 있으면 탄력적이라는 의미입니다.공급의 가격 탄력성 결정 요인 중 가격 변동에 대한 대응 기간의 경우 장기간일수록 공급을 늘릴 수 있으므로 탄력적이 됩니다.공급의 가격 탄력성 결정 요인 중 생산기간의 경우 단기 즉 빠른 시간내에 공급할 수 있다면 탄력적이 됩니다.생산기간과 가격변동에 대응하는 기간은 다른 분류에 해당되니 이렇게 구분해주세요.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H86" t="n">
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>자원의 희소성</t>
+          <t>경기 과열 시 정책</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>환경 오염으로 인해 특정 상품의 선호도가 높아지는 것이 자원의 희소성 때문에 일어난다고 봐도 되는걸까요?</t>
+          <t>7분 15초에서 "과열기의 확대 통화 정책"이라고 언급하셨는데 경기 과열기 때는 긴축 통화 정책이 맞지 않나요..?!</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>희소성</t>
+          <t>강의수정예정입니다.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>안녕하세요. 질문에 답변드리겠습니다.희소성이란 개념은 존재하는 재화의 양에 비해 수요가 높을수록 희소성이 높아진다고 볼수가 있습니다.만약 환경오염으로 인해서 깨끗한 물, 공기 등의 대한 수요가 높아진다면 존재하는 양은 그대로지만 더 많은 양을 요구하기 때문에 희소성이 높아진다고 볼 수 있습니다.감사합니다.</t>
+          <t>안녕하세요.해당 질문의 경우 담당부서에 문의 후 재안내 예정입니다. ===============================Q&amp;A운영자입니다.안녕하세요. 회원님. 질문하신 [2025 수능개념] 박봄의 경제 개념홀릭 - 강의내용 관련 6분 4초 24강 경기 과열 시 정책 내용은박봄 강사께서 강의를 수정할 예정이시라는 연락을 받았습니다.이후 수정된 강의를 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>명목 gdp 질문이요</t>
+          <t>생산물인 재화와 생산 요소인 자본</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>(교재 p.103 맨 마지막 문제)T+1년 의 명목 gdp는 전년대비 10퍼센트 증가한 220억 달러이니전년도인 T년의 명목gdp는 220-22=198달러 아닌가요?답이 왜 200달러인지 궁금합니다ㅠㅠ</t>
+          <t>정부가 컴퓨터를 구입하는 것에 대해서도 이것이 단순한 소비 활동인지, 해당 컴퓨터를 '생산을 위한 생산 요소'로서 구입하는 것인지에 따라 재화인지 자본인지 결정할 수 있는 것인가요?</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>명목gdp</t>
+          <t>정부의 컴퓨터 구입</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>전년 대비 gdp를 구하는 방법은 다음과 같습니다. (경제성장률을 구하는 방법과 동일함)(금년도 명목 gdp-전년도 명목 gdp)/전년도 명목 gdp*100 = 전년대비 gdp 증가율이를 문제에 적용하면, (220-x)/x*100 = 10X = 200이됩니다. 화이팅입니다 :)</t>
+          <t xml:space="preserve">네. 답변 드리겠습니다.경제 주체가 '정부'일 경우에는 소비의 정의에 따라 답이 달라질 수 있습니다. 교육과정을 넘어서는 디테일한 내용이라고 할 수 있습니다. 1.통상 소비 활동은 가계의 경제 활동만으로 알고 있지만, 우리나라에서는 소비 활동을 추계할 때 가계 소비 외에 정부가 하는 소비도 포함됩니다. 따라서 소비의 주체에는 가계와 정부가 포함될 수 있습니다.2. 정부가 컴퓨터를 구입하는 사례는 소비 활동이 될 수도, 생산 활동이 될 수도 있습니다. 이는 소비 활동을 어떻게 해석하느냐에 달라질 수 있는 어려운 사례입니다. 매우 매우 단순화하여 이를 구분해본다면, 최종적으로 사용해 써버렸느냐 or 생산 활동에 반복하여 사용하였느냐에 따라 구분해 볼 수 있습니다.예를 들어, 정부가 취약 계층을 지원하기 위해 컴퓨터를 구입하고 취약 계층에 지급하였다면 소비 활동으로,정부가 교사의 업무를 지원하기 위해 컴퓨터를 구입하여 학교에 보급하였다면 생산 활동으로 볼 수 있습니다.전자의 사례는 재화로, 후자의 사례는 자본으로 볼 수 있습니다.다만,  해당 질문은 교육 과정을 벗어나는 내용으로 엄밀한 의미에서는 정확한 설명이나 예시가 아닐 수 있습니다. 대강 이 정도로 이해할 수 있다는 정도로 참고하셨으면 좋겠습니다. 완벽한 답변이 되지 못해 미안합니다ㅠ 혹시 여전히 이해가 안된다면 새롭게 질문을 올려주세요. 다른 선생님들께서 도와주실거에요. </t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>어려워요</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>기업의 이윤 추구</t>
+          <t>생산물인 재화와 생산 요소인 자본</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>교재 36쪽에 기업의 이윤 추구하고 나와있는 표에서 생산량이 2개,3개일때 총 비용의 차가 1000원 이므로 가격도 1000원 차이가 나야한다는 건 이해했는데, 가격이 왜 1000원이 되는건가요? 이 문제에서는 1000원 차이가 난다는 것만 알 수 있는거 아닌가요?</t>
+          <t>강의 영상 해당 부분에서 선생님께서 정부가 업무에 필요한 컴퓨터를 구입하는 것을 재화를 구입하는 것으로 설명하셨는데 이 컴퓨터를 재화가 아닌 생산 요소 중 자본으로 볼 수는 없나요? 재화와 자본을 어떤 기준으로 구별해야 하나요?</t>
         </is>
       </c>
       <c r="C89" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>재화 or 자본?</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>맞습니다. 자본으로도 볼 수 있습니다.'컴퓨터를 구입하는 행위' 자체만으로는 소비 활동인지, 생산 활동인지 알 수 없습니다.이를 구분하는 기준은 1. 경제 주체가 가계이며 소비 활동을 위해 구입하였는지2. 경제 주체가 기업이며 생산 활동을 위해 구입하였는지에 따라 '컴퓨터'를1 -&gt; 소비 활동의 객체인 재화로2 -&gt; 생산 활동에 필요한 요소인 자본으로 나눠볼 수 있습니다.매우 좋은 질문입니다:)</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>6</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>기업의 이윤 추구</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>교재 36쪽에 기업의 이윤 추구하고 나와있는 표에서 생산량이 2개,3개일때 총 비용의 차가 1000원 이므로 가격도 1000원 차이가 나야한다는 건 이해했는데, 가격이 왜 1000원이 되는건가요? 이 문제에서는 1000원 차이가 난다는 것만 알 수 있는거 아닌가요?질문에 대한 답변 드리겠습니다.표에 제시되어 있는 내용은 생산량과 총비용입니다만, 표 위의 설명에 키워드가 나와 있습니다 '시장 가격은 생산량과 관계없이 일정하고, 생산량이 2개일 때와 3개일 때의 이윤은 동일하다'  입니다.이윤=총수입-총비용  이므로  가격을 A로 놓았을 때 2A-1,000=3A-2,000 로  X재 1개의 가격은 1,000원입니다.덧붙여, 질문하신 내용 중 비용의 차이가 반드시 가격의 차이라고 말할 수는 없습니다. 왜냐하면 기업은 비용을 줄일 수 있는 방법(원자재의 가격의 변화, 기술 개발 등)을 동원하여 최대한 이윤을 극대화하려고 하기때문에 이윤이 극대화되는 생산량을 찾으려하고(총수입&gt;총비용), 총비용은 줄기도하지만 생산량이 증가할수록 공장설비의 증축이나 노동자의 추가 투입 등으로 인해 증가하기도 하기 때문입니다.(한계비용 체증의 법칙)질문에 충분한 답변이 되었길 바랍니다..화이팅하세요^^</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>7</v>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>경제재가 무상재가 되는 경우</t>
+          <t>중고품 재활용</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>무상재가 수요가 증가하거나 공급이 줄어들면 경제재가 된다 하셨는데 그 역의 상황이 일어나면 경제재가 무상재가 될 수 있나요?</t>
+          <t>GDP 계산에 중고품, 재고의 경우 작년에 이미 계산된 것이기 때문에 포함되지 않는다고 한 것은 이해했습니다이곳에서 궁금한 것이 만약 중고품을 재활용 하여 어떤 새로운 물건을 만들어 팔았다고 했을 때 이것은 GDP로 계산 해야 하는 걸까요?</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>경제재에서 무상재</t>
+          <t>GDP 중고품</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>네. 개념적으로는 가능합니다.특정 재화의 수요가 매우 감소하고, 공급이 매우 증가한다면 희소성이 없는 무상재가 될 수 있습니다.다만, 현실의 사례로 찾아보긴 어렵습니다. 개념적으로 존재할 수 있구나! 정도로 이해하시는게 좋을 것 같습니다:)</t>
+          <t>네. 기준만 명확히 세운다면 GDP에 포함할 수 있습니다.예를 들어, A라는 상품이 이월 상품(전년도에 생산된 상품)으로 A라는 상품에 B라는 올해 생산한 상품 혹은 서비스를 결합하여 A+B의 상품을 생산한다면, A는 제외하고 B만큼의 부가가치는 올해 GDP에 포함될 수 있습니다.구체적인 사례를 보면, 중고차 시장에서 10년 된 자동차를 딜러에게 구입하며 자동차 값(A)과 중계 서비스 수수료(B)를 지불하였다고 가정하였을 때A와 달리 B는 올해 GDP에 포함됩니다.좋은 질문입니다! 화이팅하세요 :)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>완전 탄력성 그래프에 대한 질문</t>
+          <t>희소성</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>완전 탄력성의 기울기는 완전 수평처럼 그려지진 않죠? 그리고 ed라는 의미는 알겠는데 그래프에선 그 값이 무슨 역할을 하는지 자세히 모르겠네요</t>
+          <t>해설을 보면 보기 ㄱ,ㄴ은 경제재이고 보기 ㄱ,ㄷ은 희소성이 있다고 나와있어요그런데 보기 ㄱ은 사람들의 수요에 대한 내용이 없는데 희귀성이 있다고 볼 수 있는건가요?희귀하다고 해서 희소성이 있는건 아니니깐요...!!그라고 문자 ㄹ에서 보기 ㄱ~ㄷ 모두 희소성으로 인한 문제가 발생한다했는데 보기ㄴ은 희소성이 없는데 왜 답이 4번으오 ㄴ,ㄹ인건가요?</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>가격 탄력성</t>
+          <t>희소성</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.먼저 가격 탄력성은 수요의 가격 탄력성과 공급의 가격 탄력성으로 나누어서 설명할 수 있습니다.Ed의 경우 수요의 가격 탄력성을 표기하는 방식, Es는 공급의 가격 탄력성을 표기하는 방식으로각 값은 수요곡선과 공급곡선에서 수요량과 공급량이 가격 변동에 얼마나 민감하게 반응하는지를 보여 주는 것입니다.즉, 가격 탄력성에 따라 수요곡선과 공급곡선의 형태(수평, 수직, 수평에 가까운 형태, 수직에 가까운 형태 등)가달라지게 되는 것입니다.가격 탄력성에 따라 그래프의 형태가 달라지게 되고, 그래프에서의 가격변동률과 수요량(또는 공급량)의 변동률을 통해가격 탄력성을 구할 수 있습니다.완전 탄력적인 경우는 수요와 공급 모두에서 존재하며, 두 곡선 모두 완전한 수평의 형태를 가지고 있습니다.아주 작은 가격 변화가 엄청나게 큰 수요량 또는 공급량의 변화를 가져와, 어느 지점에서든 가격 탄력성이무한대(∞)의 값을 가지는 경우를 완전 탄력적이라고 부르게됩니다.('가격이 미세하게 변동해도 수요량 또는 공급량이 무한히 변동함.'으로 설명하기도 합니다.)답변이 학습에 도움이 되었기를 바랍니다.감사합니다. </t>
+          <t>해설을 보면 보기 ㄱ,ㄴ은 경제재이고 보기 ㄱ,ㄷ은 희소성이 있다고 나와있어요그런데 보기 ㄱ은 사람들의 수요에 대한 내용이 없는데 희귀성이 있다고 볼 수 있는건가요?희귀하다고 해서 희소성이 있는건 아니니깐요...!!그라고 문자 ㄹ에서 보기 ㄱ~ㄷ 모두 희소성으로 인한 문제가 발생한다했는데 보기ㄴ은 희소성이 없는데 왜 답이 4번으오 ㄴ,ㄹ인건가요?답변입니다.보기 ㄱ에는 소금이 희귀하여라고 제시되어 있어서 희귀성이 있습니다.그리고 국가가 전매(국가가 독점적을 판매)했다는 부분에서 희소성도 함께 있음을 알게 됩니다.보기 ㄴ의 내용을 보면 소금이 과거보다 저렴해졌다라고 제시되어 있는데 이 부분에서 희소성이 있음을 파악할 수 있습니다.희소성이 없으면 가격이 존재하지 않는 무상재에 해당되기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>수요 불변 공급 증가 그래프</t>
+          <t>총수요와 순수출</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>수요 불변, 공급 증가 그래프에서 공급 증가-균형가격 하락-수요 증가-균형거래량 증가 순으로 인과가 일어나는 게 맞는지 궁금합니다! 수요 불변이라는 전제는 공급이 증가할 때만 적용되는 거라고 이해하면 될까요?</t>
+          <t>총수요는 지출국민소득과 계산 방법이 이론상 동일하여 (소비지출+투자지출+정부지출+순수출 = 총수요) 라고 이해했습니다. 그런데 교재 110쪽 61번-1번선지(수입 원자재 가격상승은 'ㄱ'(총공급감소)의 원인이다. ) 가 정답으로 제시된 것이 이해가 잘 되지 않습니다. 수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요? 그렇다면 순수출을 계산할 때 수출에서 삭감하는 수입 비용은 정확히 무엇을 가리키는 것이고 수입 원자재 가격 상승과는 왜 관련이 없는건가요?</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>시장 균형의 변동</t>
+          <t>총수요와 순수출</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.Q1)수요 불변, 공급 증가 그래프에서 공급 증가-균형가격 하락-수요 증가-균형거래량 증가 순으로 인과가 일어나는 게 맞는지 궁금합니다!A1)수요는 변화하지 않고 공급만 증가하는 경우 공급 증가의 영향만으로 균형점이 변화하게 되고그 새로운 균형점에서 균형 가격과 균형 거래량이 결정되는 것입니다.질문에서 주어진 상황을 보자면 수요는 불변이므로 수요 곡선은 주어진 형태 그대로 존재하고,공급 증가로 공급 곡선 자체가 오른쪽으로 이동하게 되면서 기존의 수요 곡선과 오른쪽으로 이동한 새로운 공급 곡선의교차점에서 새로운 균형점이 형성되어 균형 가격 하락과 균형 거래량 증가가 나타나게 되는 것입니다.Q2)수요 불변이라는 전제는 공급이 증가할 때만 적용되는 거라고 이해하면 될까요?A2)수요 불변은 문제에서 주어진 상황입니다. 문제에서 '수요는 변화하지 않고 공급만 증가하는 경우'를제시한 것이기 때문에 해당 문제에서는 수요는 불변인 상황을 가정하고 공급 곡선의 이동만을 생각하여상황을 분석해야 합니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>총수요는 지출국민소득과 계산 방법이 이론상 동일하여 (소비지출+투자지출+정부지출+순수출 = 총수요) 라고 이해했습니다. 그런데 교재 110쪽 61번-1번선지(수입 원자재 가격상승은 'ㄱ'(총공급감소)의 원인이다. ) 가 정답으로 제시된 것이 이해가 잘 되지 않습니다. 수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요? 그렇다면 순수출을 계산할 때 수출에서 삭감하는 수입 비용은 정확히 무엇을 가리키는 것이고 수입 원자재 가격 상승과는 왜 관련이 없는건가요?질문에 관한 답변입니다.일단 질문에서 말씀하신 '수입 원자재의 가격 상승은 우리나라에서 해외로부터 수입한 금액이 늘어나는 것이기 때문에, 순수출(수출 - 수입)을 계산할 때 수입 금액이 늘어나게 되어서 총수요가 감소하는 상황이라고 해석할 수는 없나요?' 라고 질문하신 부분에 대해 답변드리자면, 수요, 공급에서 학습하셨던 것을 기억해 보시면 비슷하다고 할 수 있습니다. 원인이냐 결과냐의 문제로 보시면 됩니다. 1번 선지의 내용을 보시면 수입원자재의 가격 상승이 직접적으로 미치는 부분은 총공급입니다. 물론 결과적으로 수출 금액이 일정한 상태에서 수입액만 늘어나면 총수요가 늘어날 수 있습니다. 하지만 직접적으로 수입 원자재의 가격이 오르면 공급에 영향을 미쳐서 수입이 감소할 수 있고 선지에서는 직접적인 원인을 묻는 부분이기 때문에 맞다고 볼 수 있습니다.질문하신 부분은 충분히  수요와 공급에서 늘 고민하는 부분입니다. 아시다시피 수요와 공급 법칙은 다른 모든 것이 일정할 때 직접적인 영향을 미치는 부분만을 변동의 원인으로 보기 때문에 인강에서 설명하신 총수요와 총공급의 변동 원인을 적용시키셔서 문제를 푸시면 됩니다.아주 예리하고 늘 고민스러운 문제를 물어봐 주셨는데, 이해에 도움이 되셨으면 좋겠습니다.^^</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>공급의 가격탄력성</t>
+          <t>비례세</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>77페이지공급의 가격탄력성이 작은경우가격변동에 대응하는 기간이 ---&gt;  단기간에 걸친 대응이라고 하셨는데그 이유를 예를들어 설명 부탁드립니다  (박봄 선생님은 딸기를 예를 들으셔서  딸기로 예를 들어주시면 더 감사하겠습니다)감사합니다</t>
+          <t>22번 문제에서 1번 보기가 왜 맞는지 이해가 잘 안돼요ㅠㅠ 쉽게 설명해주세요</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>공급의 가격 탄력성</t>
+          <t>비례세</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.상품의 가격 변동에 대한 생산자의 대응 기간이 짧으면 생산 설비 규모 변경 등을 통한 대응이 어려우므로상대적으로 공급의 가격 탄력성이 작게 나타납니다.반대로 생산자의 대응 기간이 길면 생산 설비 규모 변경 등을 통한 대응이 용이하므로상대적으로 공급의 가격 탄력성이 크게 나타납니다.딸기를 예로 들어서 설명하자면 시장에서 딸기 가격이 상승했을 때 딸기를 추가로 생산하고자 한다면사업 계획을 세우고 농사를 지을 토지와 인력, 종자(씨앗) 확보 등의 시간이 필요합니다. 하지만 대응하는 기간이 짧다면그러한 과정을 거치기가 쉽지 않기 때문에 짧은 시간에 공급량을 늘릴 수 없게 됩니다.하지만 대응하는 기간이 길면 위에서 설명한 과정을 충분히 거치고 생산량을 늘릴 수 있게 되는 것입니다.이 경우는 다른 농산물을 재배하던 농가에서 딸기를 생산하는 것으로 변경할 때도 동일하게 작용하게 됩니다.즉 장기로 갈수록(대응 기간이 길다면) 생산과정에서 가격의 변화에 적응할 기회가 커져공급량을 쉽게 조절할 수 있게 되는 것입니다.답변이 학습이 도움이 되었길 바랍니다.감사합니다.</t>
+          <t>22번 문제에서 1번 보기가 왜 맞는지 이해가 잘 안돼요ㅠㅠ 쉽게 설명해주세요질문하신 내용의 답변입니다.22번의 그래프에서 갑국은 비례세, 을국은 누진세를 나타내는 그래프 입니다.갑국의 비례세는 과세 대상 금액과 상관없이 동일한 세율을 적용하는 세금 부과의 방식입니다.여기에서 중요한 것은 세율과 세액의 차이를 이해하시는 것입니다.세율은 과세대상 금액에서 부과하는 세금의 비율이고, 세액은 과세대상 금액에서 부과하는 금액인 것입니다.그러므로 세율이 같으면 세액은 비례이고 증가율이 같을 수 밖에 없습니다.예를 들어보면 100만원의 10% 세율이면 세액은 10만원이고, 200만원의 10% 세율이면 20만원이기 때문에 세액의 증가율이 같게 됩니다.  조세의 분류에 대해서 공부하실때에는 그래프의 세로측이 세율인지, 세액인지 확인을 하셔야 합니다. 그에 따라 그래프는 달라지기 때문입니다.이해에 도움이 되시길 바랍니다..화이팅하세요^^</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>수요랑 수요량의 차이 추가 질문</t>
+          <t>총수요 총공급</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>스마트 답변을 봤는데도 이해가 안돼서요예를 들어서 맥주가 한캔에 5000원이었는데 2500원이 되면 그 사실을 안 소비자는 맥주를 사고 싶은 욕구가 증가하기때문에 수요량이 증가하는 거 아닌가요? 수요랑 수요량을 따로 설명하시는데 잘 이해가 안되네요ㅠㅠ 수요가 증가해서 수요량이 증가한다는 말이 틀린건가요?</t>
+          <t>61번 문제의 3번 선지에서 중앙은행 지급준비율 인상이 왜 총공급 증가 요인인가요?</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>수요와 수요량</t>
+          <t>총수요와 총공급</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.먼저 개념을 설명하자면(상품의 측면에서)1. 수요량: 구매력을 가진 소비자가 특정 가격 수준에서 구입하고자 하는 상품의 최대수량2. 수요: 소비자가 일정 기간 동안에 상품을 구입하고자 하는 욕구(일정기간에 가격과 수요량 사이에 존재하는 일련의 대응관계)3. 수요 법칙: 다른 조건이 일정할 때 한 상품의 가격이 상승하면 수요량은 감소하고 가격이 하락하면 수요량은 증가결국 한 가격수준에 대응하여 사고자 하는 상품의 수량이 수요량이고,있을 수 있는 모든 가격과 수요량의 대응 관계를 표시하는 것이 수요인 것입니다.그렇기에 질문에 나왔듯이 가격이 5,000원에서 2,500원으로 하락한다면 사고자 하는 상품의 수량(수요량)이 증가하는 것입니다.가격이 5,000원일 때의 수요량과 가격이 2,500원일 때의 수요량이 모두 표시된 수요곡선에서 표시되는 지점이 변화하는 것입니다. 결국 이 상황에서 주어진 수요곡선은 변화하지 않는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.교재에서 해당 문제를 확인해보니 110쪽 61번 문제를 질문하신 것으로 생각되어 해당 문제에 대하여 답변드리겠습니다.3번 선지의 '중앙은행의 지급 준비율 인상은 ㉢의 요인이다.'는 옳지 않은 선지입니다.중앙은행의 지급 준비율 인상은'은행의 대출 자금 감소→통화량 감소, 이자율 상승→소비와 투자감소→총수요 감소→경기 진정'의 영향을 미치게 됩니다.문제에 적용하게되면 ㉣로 이동하는 요인에 해당합니다.답변이 학습에 도움이 되었길 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>최고의 답변</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>과점시장의 기업 간 담합</t>
+          <t>99쪽 55번 5번선지</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>과점시장의 기업과 담합으로 자유로은 경쟁이 제한되는 이유가 뭔가요?</t>
+          <t>국민이 자가 소비를 위해 텃밭에서 재배한 농산물의 가치는 국내총생산에 포함되지 않나요?</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>과점시장의 기업 간 담합</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>과점시장의 기업과 담합으로 자유로운 경쟁이 제한되는 이유가 뭔가요?질문에 대한 답변입니다.과점 시장은 소수의 기업이 시장 내에 존재하여 다른 기업의 시장 진입이 쉽지 않을 뿐만 아니라 시장 내에서 가격의 결정력도 큰 편입니다. 물론 독점 시장만큼은 아니지만 과점 시장이 담합을 하여 다른 기업의 시장 진입을 막고, 함께 가격을 올리며, 수량을 제안하여 독점과 같은 시장 지배력을 가지게 됩니다.(사례로 교복 업체의 담합과, 이동 통신사의 요금제 담합, 라면 시장의 가격담합 등의 적발 사례를 들 수 있습니다.)이럴 때 담합을 하고 있는 기업들은 자신에게 가장 많은 이윤이 발생하는 공급량과 가격을 결정하게 되는데, 그 과정에서 경쟁시장에서 나타나는 거래량보다 공급량을 적게 유지하여 가격을 올림으로써 이윤을 늘리기 위해 과소 생산이 발생하고 소비자가 피해를 입게 되어 소비자 잉여가 감소하는 시장실패 현상이 발생하게 되는 것입니다. 이해에 도움이 되셨길 바랍니다^^</t>
+          <t>안녕하세요. 질문에 답변드리겠습니다.자가소비의 경우도 2가지로 나눌 수 있습니다. 생산을 위해 농산물을 생산하여 자가소비한 경우에는 GDP로 산정되나, 단순히 자신의 소비를 위해 농산물을 생산할 경우는GDP에 잡히지 않습니다. 조건에 지문에 따라서 그 해석이 달라질 수 있습니다.감사합니다.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3782,58 +4264,68 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>균형 가격</t>
+          <t>Gdp 계산문제</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>35번 문제에서 균형가격을 구하는 방법이 이해가 안돼요.수요와 공급이 일치하는 곳이 없어서요..</t>
+          <t>그 전 질문에서 한 선생님께서 전년 대비 gdp를 구하는 방법은 경제성장률을 구하는 법과 동일하다고 답변주셨습니다.그런데 경제성장률은 모두 실질 gdp로 구하는데 어떻게 명목gdp로 계산하나요…?그리고 문제에 “t+1년의 명목 gdp는 전년대비 10% 증가한 220달러이다”라고명시되어 있는데 왜 단순히 10% 값만큼 감소한 198달러가 정답이 아닌지 그 이유도 궁금합니다.(교재 p.103 마지막 문제 질문입니다.)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>균형가격</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>35번 문제에서 균형가격을 구하는 방법이 이해가 안돼요.수요와 공급이 일치하는 곳이 없어서요..질문에 관한 답변입니다. 우선 수요와 공급 단원에서 배우신 것처럼 수요곡선은 수요자가 지불하고자 하는 최대 금액이고,공급 곡선은 공급자가 받고자하는 최소 금액입니다. 이것이 일치하는 점에서 시장 거래량이 형성됩니다.문제에서의 &lt;자료1&gt;은 수요자의 최대지불용의를 나타내는 수요곡선입니다. &lt;자료2&gt;에서 30원 미만으로는 공급량이 없고 30원이상~50원미만 -20명 50원이상~70원미만 -20명인것은 30원 이상의 공급자도 포함되기 때문에 누적으로 한다면 40명이 되는 것입니다. 이를 그래프에 점으로 표시해본다면 수요곡선과 만날 수 있는 점은 균형가격 60원에 40개의 거래량에서 만나게 되는 것입니다.가격(원)30507090수요량70503010공급량20405070이해에 도움이 되셨으면 좋겠습니다^^</t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.Q1)먼저 경제 성장률을 구하는 공식은경제 성장률(%)={(금년도의 실질 GDP-전년도의 실질 GDP)/전년도의 실질 GDP}*100 으로이는 전년 대비 실질 GDP의 증가율이라고 할 수 있습니다.Q2)103쪽 마지막 문제의 경우 특정 값에서 10% 증가한 후 동일한 비율(10%)로 감소시키는 경우그 값은 원래의 값보다 작아지게 됩니다.예) 't년의 명목 GDP 200달러 -&gt; t+1년은 전년 대비 10% 증가하여 220달러' 만약 여기서 10%를 감소시킨다면 원래의 값인200달러가 나오는 것이 아니라 22달러가 감소하여 198달러가 나오게됩니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>외부경제 질문</t>
+          <t>자원의 희소성</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>교재 83p 맨 마지막 문제 답이 Q1Q2인데 이건 Q1 (곱하기)Q2의 의미인가요?만약 그렇다면 사회적 최적수량이 Q2이므로 Q2-Q1만큼 과소소비되는 것 아닌가요?ㅠㅠ</t>
+          <t>환경 오염으로 인해 특정 상품의 선호도가 높아지는 것이 자원의 희소성 때문에 일어난다고 봐도 되는걸까요?</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3841,107 +4333,122 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Q1Q2</t>
+          <t>희소성</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.Q1Q2는 곱하기의 의미가 아닌 Q1부터 Q2사이의 길이를 나타냅니다2. Q1Q2는 길이를 나타내기 때문에 Q2 - Q1과도 같습니다.ex. Q1: 5개, Q2 : 10개 Q1Q2 -&gt; 50개X / 5개Q2-Q1 -&gt; 10-5 / 5개일반적으로 수학에서 사용하는 표기와 조금 다른 점이 있습니다 ㅎㅎ</t>
+          <t>안녕하세요. 질문에 답변드리겠습니다.희소성이란 개념은 존재하는 재화의 양에 비해 수요가 높을수록 희소성이 높아진다고 볼수가 있습니다.만약 환경오염으로 인해서 깨끗한 물, 공기 등의 대한 수요가 높아진다면 존재하는 양은 그대로지만 더 많은 양을 요구하기 때문에 희소성이 높아진다고 볼 수 있습니다.감사합니다.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>물가상승 유형</t>
+          <t>명목 gdp 질문이요</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>13:38초에서 화폐가치가 하락하는 유형이 수요견인과 비용인상 2가지가 있다고 하셨는데 11:00분에 화폐를 많이 찍어내서 물가가 상승하는 경우는 어떤 유형에 속하는건가요?</t>
+          <t>(교재 p.103 맨 마지막 문제)T+1년 의 명목 gdp는 전년대비 10퍼센트 증가한 220억 달러이니전년도인 T년의 명목gdp는 220-22=198달러 아닌가요?답이 왜 200달러인지 궁금합니다ㅠㅠ</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>인플레이션</t>
+          <t>명목gdp</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1. 단순히 '화폐를 많이 찍어낸다.'라는 표현만으로는 수요 견인, 비용 인상 인플레이션 중 어떤 유형에 해당하는지 구분하기 어렵습니다.2. 다만, '화폐를 많이 찍어낸다.'라는 넓은 표현을 '정부의 통화 정책'으로 단순화 한다면, 수요 견인 인플레이션의 요인이 될 수 있습니다.3. 정부가 경기 침체 상황에서 경제 안정화를 위한 정책으로 확대 통화 정책을 시행하였을때,통화량 증가 -&gt; 이자율 감소 -&gt; 소비 지출, 투자 지출 증가 -&gt; 총수요 증가 -&gt; 국민소득 증가, 물가 상승 위와 같은 원리에 따라 물가가 상승하게 됩니다. 이때 인플레이션은 수요 견인 인플레이션 유형으로 구분할 수 있습니다.작은 설명 하나도 놓치지 않는 집중력!! 대단합니다:</t>
+          <t>전년 대비 gdp를 구하는 방법은 다음과 같습니다. (경제성장률을 구하는 방법과 동일함)(금년도 명목 gdp-전년도 명목 gdp)/전년도 명목 gdp*100 = 전년대비 gdp 증가율이를 문제에 적용하면, (220-x)/x*100 = 10X = 200이됩니다. 화이팅입니다 :)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>14</v>
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>탄력성</t>
+          <t>기업의 이윤 추구</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 가격 변동이 수요량 변동에 영향을 미치는 탄력성의 개념을 공부하다가 가격이 탄력성의 변동에 영향을 미치는 문제를 보니 상황이 이해가 잘 되지 않습니다. 그럼 우하향하는 수요곡선(완전탄력, 완전비탄력을 제외한 수요곡선)은 가격탄력성이 1이 되는 구간에서 항상 판매수입이 극대화되는 건가요?</t>
+          <t>교재 36쪽에 기업의 이윤 추구하고 나와있는 표에서 생산량이 2개,3개일때 총 비용의 차가 1000원 이므로 가격도 1000원 차이가 나야한다는 건 이해했는데, 가격이 왜 1000원이 되는건가요? 이 문제에서는 1000원 차이가 난다는 것만 알 수 있는거 아닌가요?</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>탄력성</t>
+          <t>기업의 이윤 추구</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.우선 수요의 가격 탄력성이 탄력적이라면 가격 상승률보다 수요량 감소율이 크고(이 경우 가격이 상승한다면 판매 수입 감소),비탄력적이라면 가격 상승률보다 수요량 감소율이 작게 나타납니다(이 경우 가격이 상승한다면 판매 수입 증가).결국 강의의 설명처럼 수요의 가격 탄력성이 비탄력적인 구간에서는 가격이 상승할때 판매 수입이 증가하게 되고,단위 탄력적인 구간에서 판매 수입이 최대가 되었다가 탄력적인 구간에서는 가격이 상승할 때 판매 수입이 감소하게 되는 것입니다. 즉 단위 탄력적인 구간에서 최대가 되었던 판매 수입이 탄력적인 구간으로 전환이 되면서 판매 수입이 감소하는 것입니다.강의의 해당 문제의 경우 단위 탄력적인 구간에서 판매 수입이 최대가 되는 것이 맞고 일반적으로도 그렇습니다.다만 시장 상황을 분석하는 경우 다른 조건이 어떻게 주어지는지에 따라 분석 및 추론을 달리해야하기에문제에서 주어진 조건을 고려하여 문제를 풀이할 수 있도록 학습이 이루어져야 합니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
+          <t>교재 36쪽에 기업의 이윤 추구하고 나와있는 표에서 생산량이 2개,3개일때 총 비용의 차가 1000원 이므로 가격도 1000원 차이가 나야한다는 건 이해했는데, 가격이 왜 1000원이 되는건가요? 이 문제에서는 1000원 차이가 난다는 것만 알 수 있는거 아닌가요?질문에 대한 답변 드리겠습니다.표에 제시되어 있는 내용은 생산량과 총비용입니다만, 표 위의 설명에 키워드가 나와 있습니다 '시장 가격은 생산량과 관계없이 일정하고, 생산량이 2개일 때와 3개일 때의 이윤은 동일하다'  입니다.이윤=총수입-총비용  이므로  가격을 A로 놓았을 때 2A-1,000=3A-2,000 로  X재 1개의 가격은 1,000원입니다.덧붙여, 질문하신 내용 중 비용의 차이가 반드시 가격의 차이라고 말할 수는 없습니다. 왜냐하면 기업은 비용을 줄일 수 있는 방법(원자재의 가격의 변화, 기술 개발 등)을 동원하여 최대한 이윤을 극대화하려고 하기때문에 이윤이 극대화되는 생산량을 찾으려하고(총수입&gt;총비용), 총비용은 줄기도하지만 생산량이 증가할수록 공장설비의 증축이나 노동자의 추가 투입 등으로 인해 증가하기도 하기 때문입니다.(한계비용 체증의 법칙)질문에 충분한 답변이 되었길 바랍니다..화이팅하세요^^</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>분배는 대가를 주고받는 활동</t>
+          <t>경제재가 무상재가 되는 경우</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>분배는 생산 과정에 참여한 대가를 주고받는 활동이다.라는 선지에서 왜 ‘대가’를 ‘주고’받는 건가요?대가라 함은 생산 요소를 제공했을 때 생기는 소득 아닌가요?운송의 대가로 임금을 주고받는다는 게 무슨 의미인지 모르겠습니다.</t>
+          <t>무상재가 수요가 증가하거나 공급이 줄어들면 경제재가 된다 하셨는데 그 역의 상황이 일어나면 경제재가 무상재가 될 수 있나요?</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3949,283 +4456,327 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>분배는 대가를 주고받는 활동</t>
+          <t>경제재에서 무상재</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">분배는 생산 과정에 참여한 대가를 주고받는 활동이다.라는 선지에서 왜 ‘대가’를 ‘주고’받는 건가요?대가라 함은 생산 요소를 제공했을 때 생기는 소득 아닌가요?운송의 대가로 임금을 주고받는다는 게 무슨 의미인지 모르겠습니다.답변입니다.같은 의미입니다.생산과정에 참여한다는 것은 가계가 기업에게 노동, 자본, 토지 등을 제공함을 의미합니다.이에 대한 대가로 임금(노동), 이자(자본), 지대(토지)를 받게 되는데 이게 바로 대가에 해당됩니다.기업에 입장에서는 주는 것이고 가계에 입장에서는 받는 것을 말합니다.예를 들어 제가 피자가게를 운영하는 사장님이고 아르바이트생이 피자 배달을 한다고 가정하겠습니다.이때 아르바이트생은 운송(배달)을 하고 그 대가로 임금을 받습니다.도움이 되셨으면 좋겠습니다. </t>
+          <t>네. 개념적으로는 가능합니다.특정 재화의 수요가 매우 감소하고, 공급이 매우 증가한다면 희소성이 없는 무상재가 될 수 있습니다.다만, 현실의 사례로 찾아보긴 어렵습니다. 개념적으로 존재할 수 있구나! 정도로 이해하시는게 좋을 것 같습니다:)</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20만원이 어떤 비용인지 궁금합니다</t>
+          <t>완전 탄력성 그래프에 대한 질문</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>상황은 회사원으로 남을지 유튜버로 남을지 고민하는 시점이미 인터넷 개인방송에 관심이 생겨 수강료로 20만원을 지불한 상황그렇다면 이때 유튜버가 아닌 회사원을 선택할 경우수강료로 사용한 20만원은 아무것ㄷ 아닌것이 아니라 유튜버를 포기했을때 안고 갈 리스크라 생각된다.그렇다면 회사원을 선택했을때에는 인터넷 개인방송 강의 수강료가 명시적 비용에 포함 되어야 하지 않을까?=====================생각해 보니까 수입이 1회분을 말하고 있지만단편적인 수입을 의미하는 것이 아니라 장기적으로의 수입을 의미하기 때문에고정 지출이 아닌 20만원을 명시적 비용에 포함 시킬 수는 없을것 같다.</t>
+          <t>완전 탄력성의 기울기는 완전 수평처럼 그려지진 않죠? 그리고 ed라는 의미는 알겠는데 그래프에선 그 값이 무슨 역할을 하는지 자세히 모르겠네요</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20만원이 어떤 비용인지 궁금합니다</t>
+          <t>가격 탄력성</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>상황은 회사원으로 남을지 유튜버로 남을지 고민하는 시점이미 인터넷 개인방송에 관심이 생겨 수강료로 20만원을 지불한 상황그렇다면 이때 유튜버가 아닌 회사원을 선택할 경우수강료로 사용한 20만원은 아무것ㄷ 아닌것이 아니라 유튜버를 포기했을때 안고 갈 리스크라 생각된다.그렇다면 회사원을 선택했을때에는 인터넷 개인방송 강의 수강료가 명시적 비용에 포함 되어야 하지 않을까?=====================생각해 보니까 수입이 1회분을 말하고 있지만단편적인 수입을 의미하는 것이 아니라 장기적으로의 수입을 의미하기 때문에고정 지출이 아닌 20만원을 명시적 비용에 포함 시킬 수는 없을것 같다.답변입니다.우선 조건이 충분히 제시되지 않았습니다.수강료가 환불이 안된다고 명시되어 있다면 매몰비용으로 처리되어 고려하지 않습니다.해당 게시판은 EBS 교재나 기출 문제를 질문하는 게시판입니다.참고하셔서 질문해주세요.</t>
+          <t xml:space="preserve">안녕하세요.질문에 답변드리겠습니다.먼저 가격 탄력성은 수요의 가격 탄력성과 공급의 가격 탄력성으로 나누어서 설명할 수 있습니다.Ed의 경우 수요의 가격 탄력성을 표기하는 방식, Es는 공급의 가격 탄력성을 표기하는 방식으로각 값은 수요곡선과 공급곡선에서 수요량과 공급량이 가격 변동에 얼마나 민감하게 반응하는지를 보여 주는 것입니다.즉, 가격 탄력성에 따라 수요곡선과 공급곡선의 형태(수평, 수직, 수평에 가까운 형태, 수직에 가까운 형태 등)가달라지게 되는 것입니다.가격 탄력성에 따라 그래프의 형태가 달라지게 되고, 그래프에서의 가격변동률과 수요량(또는 공급량)의 변동률을 통해가격 탄력성을 구할 수 있습니다.완전 탄력적인 경우는 수요와 공급 모두에서 존재하며, 두 곡선 모두 완전한 수평의 형태를 가지고 있습니다.아주 작은 가격 변화가 엄청나게 큰 수요량 또는 공급량의 변화를 가져와, 어느 지점에서든 가격 탄력성이무한대(∞)의 값을 가지는 경우를 완전 탄력적이라고 부르게됩니다.('가격이 미세하게 변동해도 수요량 또는 공급량이 무한히 변동함.'으로 설명하기도 합니다.)답변이 학습에 도움이 되었기를 바랍니다.감사합니다. </t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>문제 24번 1번 선지 질문</t>
+          <t>수요 불변 공급 증가 그래프</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>선지 1번에서 모든 가격 수준에서 공급량이 수요량보다 많다고 적혀있는데 A도 공급 그래프기 수요 그래프보다 위에 있으므로 맞는 설명아닌가요? A그래프는 어떻게 해석해야 하는 지 모르겠습니다.</t>
+          <t>수요 불변, 공급 증가 그래프에서 공급 증가-균형가격 하락-수요 증가-균형거래량 증가 순으로 인과가 일어나는 게 맞는지 궁금합니다! 수요 불변이라는 전제는 공급이 증가할 때만 적용되는 거라고 이해하면 될까요?</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>문제 24번 1번 선지 질문</t>
+          <t>시장 균형의 변동</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>선지 1번에서 모든 가격 수준에서 공급량이 수요량보다 많다고 적혀있는데 A도 공급 그래프기 수요 그래프보다 위에 있으므로 맞는 설명아닌가요? A그래프는 어떻게 해석해야 하는 지 모르겠습니다.질문에 답변하겠습니다.문제의 1번에서 설명하고 있는 A재 그래프는 수요곡선과 공급곡선이 다른 가격(세로축 가격)에 있습니다. 공급곡선은 공급자가 생산비용을 고려해서 받고자하는 최소가격을 나타내고, 수요곡선은 효용에 따라 지불하고자 하는 최대 가격(지불용의)인데, 1번의 그래프는 같은 수량에(가로축 수량) 다른 가격을 나타내고 있고 받고자 하는 최소 금액이 지불하고자 하는 최대 금액보다 높기 때문에 거래되지 못하는 경제재에 해당하는 곡선이라고 볼 수 있습니다.시간 내셔서 64번의 질문의 답변을 읽어주시면  A재 그래프와 C재의 그래프를 비교해서 설명한 내용을 보실 수 있습니다.  이해하시는데 도움이 되었으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.Q1)수요 불변, 공급 증가 그래프에서 공급 증가-균형가격 하락-수요 증가-균형거래량 증가 순으로 인과가 일어나는 게 맞는지 궁금합니다!A1)수요는 변화하지 않고 공급만 증가하는 경우 공급 증가의 영향만으로 균형점이 변화하게 되고그 새로운 균형점에서 균형 가격과 균형 거래량이 결정되는 것입니다.질문에서 주어진 상황을 보자면 수요는 불변이므로 수요 곡선은 주어진 형태 그대로 존재하고,공급 증가로 공급 곡선 자체가 오른쪽으로 이동하게 되면서 기존의 수요 곡선과 오른쪽으로 이동한 새로운 공급 곡선의교차점에서 새로운 균형점이 형성되어 균형 가격 하락과 균형 거래량 증가가 나타나게 되는 것입니다.Q2)수요 불변이라는 전제는 공급이 증가할 때만 적용되는 거라고 이해하면 될까요?A2)수요 불변은 문제에서 주어진 상황입니다. 문제에서 '수요는 변화하지 않고 공급만 증가하는 경우'를제시한 것이기 때문에 해당 문제에서는 수요는 불변인 상황을 가정하고 공급 곡선의 이동만을 생각하여상황을 분석해야 합니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>64쪽 35번 선지 ㄷ</t>
+          <t>공급의 가격탄력성</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">해설지에서 선지 ㄷ에 대한 설명이 생산자에게 X재 1개당 10원의 세금을 부과하면 '공급 곡선이 10원만큼 위로 이동한다.' 고 되어 있는데, 왜 강의 내용과 다르게 공급 곡선이 왼쪽으로 이동하지 않고 위쪽으로 이동하나요? 그리고 이 문제와 같이 공급량이 연속적이지 않은 경우에서는 그래프상에 어떻게 나타내어 문제를 풀어야 하나요? </t>
+          <t>77페이지공급의 가격탄력성이 작은경우가격변동에 대응하는 기간이 ---&gt;  단기간에 걸친 대응이라고 하셨는데그 이유를 예를들어 설명 부탁드립니다  (박봄 선생님은 딸기를 예를 들으셔서  딸기로 예를 들어주시면 더 감사하겠습니다)감사합니다</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>64쪽 35번 선지 ㄷ</t>
+          <t>공급의 가격 탄력성</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>해설지에서 선지 ㄷ에 대한 설명이 생산자에게 X재 1개당 10원의 세금을 부과하면 '공급 곡선이 10원만큼 위로 이동한다.' 고 되어 있는데, 왜 강의 내용과 다르게 공급 곡선이 왼쪽으로 이동하지 않고 위쪽으로 이동하나요? 그리고 이 문제와 같이 공급량이 연속적이지 않은 경우에서는 그래프상에 어떻게 나타내어 문제를 풀어야 하나요? 답변입니다.공급자에게 세금을 부과하면 공급곡선이 좌측으로 이동합니다.이때 기존의 공급곡선의 모든 점에서 위쪽(수직)으로 해당 금액만큼 이동하면 공급곡선이 위로 이동한거 같지만 실제는 좌측으로 이동한 경우에 해당됩니다.공급량이 연속적이지 않더라도 해당 점에서 이동시켜서 새로운 점을 만들고 그런 점들을 연결하면 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.상품의 가격 변동에 대한 생산자의 대응 기간이 짧으면 생산 설비 규모 변경 등을 통한 대응이 어려우므로상대적으로 공급의 가격 탄력성이 작게 나타납니다.반대로 생산자의 대응 기간이 길면 생산 설비 규모 변경 등을 통한 대응이 용이하므로상대적으로 공급의 가격 탄력성이 크게 나타납니다.딸기를 예로 들어서 설명하자면 시장에서 딸기 가격이 상승했을 때 딸기를 추가로 생산하고자 한다면사업 계획을 세우고 농사를 지을 토지와 인력, 종자(씨앗) 확보 등의 시간이 필요합니다. 하지만 대응하는 기간이 짧다면그러한 과정을 거치기가 쉽지 않기 때문에 짧은 시간에 공급량을 늘릴 수 없게 됩니다.하지만 대응하는 기간이 길면 위에서 설명한 과정을 충분히 거치고 생산량을 늘릴 수 있게 되는 것입니다.이 경우는 다른 농산물을 재배하던 농가에서 딸기를 생산하는 것으로 변경할 때도 동일하게 작용하게 됩니다.즉 장기로 갈수록(대응 기간이 길다면) 생산과정에서 가격의 변화에 적응할 기회가 커져공급량을 쉽게 조절할 수 있게 되는 것입니다.답변이 학습이 도움이 되었길 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>그래프</t>
+          <t>수요랑 수요량의 차이 추가 질문</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A재는 공급곡선 가격이 수요곡선 가격보다 위에 있는데 모든 가격 수준에서 공급량이 수요량보다 많지 않나요? </t>
+          <t>스마트 답변을 봤는데도 이해가 안돼서요예를 들어서 맥주가 한캔에 5000원이었는데 2500원이 되면 그 사실을 안 소비자는 맥주를 사고 싶은 욕구가 증가하기때문에 수요량이 증가하는 거 아닌가요? 수요랑 수요량을 따로 설명하시는데 잘 이해가 안되네요ㅠㅠ 수요가 증가해서 수요량이 증가한다는 말이 틀린건가요?</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>그래프</t>
+          <t>수요와 수요량</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A재는 공급곡선 가격이 수요곡선 가격보다 위에 있는데 모든 가격 수준에서 공급량이 수요량보다 많지 않나요? 질문에 대한 답변입니다.문제에서 A재와 C재의 그래프를 비교해 보겠습니다.A재의 그래프는 두 곡선이 가격에 걸쳐져 있습니다.  이는 가로축(수량)의 같은 수량일때 공급자의 최소가격이 수요자의 최대 가격보다 높기때문에 거래가 이루어지지 못하는 경우입니다.(예) 우주여행, 아직 상용화되지 못하는 신약 ...C재의 그래프는 두 곡선이 수량에 걸쳐져 있기 때문에 같은 가격에 공급량이 수요량보다 많아서 굳이 거래하지 않아도 얻을 수 있는 자유재 입니다.두 그래프의 차이는 가격에 걸쳐져 있는지, 수량에 걸쳐져 있는지에 따라 다르게 해석되는 것입니다.좀 더 부연 설명을 하자면 A재가 우주여행이라고 할 때 우주여행의 생산 비용이 기술 개발로 싸진다면 공급곡선이 밑으로 내려오겠고, 수요자들도 더 많은 가격을 지불해서 우주여행을 하고자 한다면 수요 곡선이 올라가다 보면 우리도 시장의 거래를 통해 우주여행을 갈 수 있게 되겠죠 ...이해에 도움이 되셨길 바랍니다. </t>
+          <t>안녕하세요.질문에 답변드리겠습니다.먼저 개념을 설명하자면(상품의 측면에서)1. 수요량: 구매력을 가진 소비자가 특정 가격 수준에서 구입하고자 하는 상품의 최대수량2. 수요: 소비자가 일정 기간 동안에 상품을 구입하고자 하는 욕구(일정기간에 가격과 수요량 사이에 존재하는 일련의 대응관계)3. 수요 법칙: 다른 조건이 일정할 때 한 상품의 가격이 상승하면 수요량은 감소하고 가격이 하락하면 수요량은 증가결국 한 가격수준에 대응하여 사고자 하는 상품의 수량이 수요량이고,있을 수 있는 모든 가격과 수요량의 대응 관계를 표시하는 것이 수요인 것입니다.그렇기에 질문에 나왔듯이 가격이 5,000원에서 2,500원으로 하락한다면 사고자 하는 상품의 수량(수요량)이 증가하는 것입니다.가격이 5,000원일 때의 수요량과 가격이 2,500원일 때의 수요량이 모두 표시된 수요곡선에서 표시되는 지점이 변화하는 것입니다. 결국 이 상황에서 주어진 수요곡선은 변화하지 않는 것입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>노동과 서바스의 차이</t>
+          <t>과점시장의 기업 간 담합</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>노동과 서비스의 확연한 차이, 구분 방법이 궁금합니다</t>
+          <t>과점시장의 기업과 담합으로 자유로은 경쟁이 제한되는 이유가 뭔가요?</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>노동과 서비스</t>
+          <t>과점시장의 기업 간 담합</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1. 경제 활동의 대상에는 크게 재화와 서비스가 있습니다.'재화는 형태를 갖는 물건'을 말하고,'서비스는 구체적인 형태 없이 사람의 노동력이 형태로 제공되는 것'을 말합니다.따라서, 서비스라는 개념 안에는 사람의 노동을 전제하고 있다고 볼 수 있습니다.2.경제 활동의 유형에는 소비, 생산, 분배가 있습니다.재화와 서비스를 만드는 것을 생산이라고 합니다.생산 활동을 위해선 생산을 위한 재료를 필요로 합니다.이를 생산 요소라고 하며, 노동, 자본, 토지로 나눠볼 수 있습니다.3.예를 들어, 학원 강사의 수업이라는 경제 활동을 경제 활동의 대상이 무엇인지 묻는다면 '서비스이다.'라고 답할 수 있으며, 경제 활동의 유형이 무엇인지 묻는다면 '노동을 활용한 생산 활동이다.'라고 답할 수 있습니다. 간단하면서도 예리한 질문입니다. 도움이 되었으면 좋겠네요:)</t>
+          <t>과점시장의 기업과 담합으로 자유로운 경쟁이 제한되는 이유가 뭔가요?질문에 대한 답변입니다.과점 시장은 소수의 기업이 시장 내에 존재하여 다른 기업의 시장 진입이 쉽지 않을 뿐만 아니라 시장 내에서 가격의 결정력도 큰 편입니다. 물론 독점 시장만큼은 아니지만 과점 시장이 담합을 하여 다른 기업의 시장 진입을 막고, 함께 가격을 올리며, 수량을 제안하여 독점과 같은 시장 지배력을 가지게 됩니다.(사례로 교복 업체의 담합과, 이동 통신사의 요금제 담합, 라면 시장의 가격담합 등의 적발 사례를 들 수 있습니다.)이럴 때 담합을 하고 있는 기업들은 자신에게 가장 많은 이윤이 발생하는 공급량과 가격을 결정하게 되는데, 그 과정에서 경쟁시장에서 나타나는 거래량보다 공급량을 적게 유지하여 가격을 올림으로써 이윤을 늘리기 위해 과소 생산이 발생하고 소비자가 피해를 입게 되어 소비자 잉여가 감소하는 시장실패 현상이 발생하게 되는 것입니다. 이해에 도움이 되셨길 바랍니다^^</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>매몰비용</t>
+          <t>균형 가격</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>매몰비용을생각하여선택하면 새로운선택을할기회를놓칠수있다는게무슨말인지설명해주세요</t>
+          <t>35번 문제에서 균형가격을 구하는 방법이 이해가 안돼요.수요와 공급이 일치하는 곳이 없어서요..</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>매몰비용</t>
+          <t>균형가격</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>매몰비용을생각하여선택하면 새로운선택을할기회를놓칠수있다는게무슨말인지설명해주세요답변입니다.예를 들어 노화 방지 화장품을 개발하기 위해 지금까지 10억을 쏟아부은 회사가 있다고 가정합시다.뚜렷하게 성과가 나타나지 않음에도 불구하고 지금까지 투자한 돈(매몰비용)이 아까워서 계속 투자한다면 다른 선택을 할 수 있는 기회를 날릴 수 있음을 말합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>35번 문제에서 균형가격을 구하는 방법이 이해가 안돼요.수요와 공급이 일치하는 곳이 없어서요..질문에 관한 답변입니다. 우선 수요와 공급 단원에서 배우신 것처럼 수요곡선은 수요자가 지불하고자 하는 최대 금액이고,공급 곡선은 공급자가 받고자하는 최소 금액입니다. 이것이 일치하는 점에서 시장 거래량이 형성됩니다.문제에서의 &lt;자료1&gt;은 수요자의 최대지불용의를 나타내는 수요곡선입니다. &lt;자료2&gt;에서 30원 미만으로는 공급량이 없고 30원이상~50원미만 -20명 50원이상~70원미만 -20명인것은 30원 이상의 공급자도 포함되기 때문에 누적으로 한다면 40명이 되는 것입니다. 이를 그래프에 점으로 표시해본다면 수요곡선과 만날 수 있는 점은 균형가격 60원에 40개의 거래량에서 만나게 되는 것입니다.가격(원)30507090수요량70503010공급량20405070이해에 도움이 되셨으면 좋겠습니다^^</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H106" t="n">
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>무상재</t>
+          <t>외부경제 질문</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>보기 ㄹ이 틀린 이유가 무상재는 거래라는 말이 성립이 안 되어서 인가요?</t>
+          <t>교재 83p 맨 마지막 문제 답이 Q1Q2인데 이건 Q1 (곱하기)Q2의 의미인가요?만약 그렇다면 사회적 최적수량이 Q2이므로 Q2-Q1만큼 과소소비되는 것 아닌가요?ㅠㅠ</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>무상재</t>
+          <t>Q1Q2</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.교재 17쪽 5번 문제의 경우 희소성의 유무, 희귀성의 유무에 따라 재화를 구분하는 문제입니다.'인간의 욕구보다 많이 존재하여 무상으로 소비할 수 있는가?'의 질문에 따라 A는 무상재(자유재), B는 경제재로 구분됩니다.무상재(A)의 경우 무상으로(대가 지불 없이) 소비할 수 있으므로 시장에서 거래되지 않고,경제재(B)의 경우 인간의 욕구보다 상대적으로 적게 존재하여 대가를 지불해야 소비할 수 있는 재화이므로 시장에서거래가 이루어집니다.질문에서 설명했듯이 무상재는 대가를 지불하여 소비하는 재화가 아니기때문에 시장에서 거래가 이루어지지 않습니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t>1.Q1Q2는 곱하기의 의미가 아닌 Q1부터 Q2사이의 길이를 나타냅니다2. Q1Q2는 길이를 나타내기 때문에 Q2 - Q1과도 같습니다.ex. Q1: 5개, Q2 : 10개 Q1Q2 -&gt; 50개X / 5개Q2-Q1 -&gt; 10-5 / 5개일반적으로 수학에서 사용하는 표기와 조금 다른 점이 있습니다 ㅎㅎ</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>정부</t>
+          <t>물가상승 유형</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>정부 정책을 위해 소비한다고 해서 생산물 시장의 수요자라고 하셨는데 정책을 통한 생산활동을 위해 소비하는 거라고 본다면 공급자아닌가요?정부가 생산요소 시장의 공급자도 될 수 있나요?</t>
+          <t>13:38초에서 화폐가치가 하락하는 유형이 수요견인과 비용인상 2가지가 있다고 하셨는데 11:00분에 화폐를 많이 찍어내서 물가가 상승하는 경우는 어떤 유형에 속하는건가요?</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4233,48 +4784,53 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>정부</t>
+          <t>인플레이션</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">정부 정책을 위해 소비한다고 해서 생산물 시장의 수요자라고 하셨는데 정책을 통한 생산활동을 위해 소비하는 거라고 본다면 공급자아닌가요?정부가 생산요소 시장의 공급자도 될 수 있나요?답변입니다.생산물 시장에서 정부는 수요자이자 공급자의 역할을 합니다.생산요소시장에서 정부는 수요자의 역할만 합니다.생산물 시장에서 가계는 수요자 역할을 하고생산요소시장에서 가계는 공급자 역할을 합니다생산물 시장에서 기업은 공급자 역할을 하고생산요소시장에서 기업은 수요자 역할을 합니다.해당 내용은 기출문제가 많으니 꼭 기억해야 하는 부분입니다.생산물시장에서 전기나 수도의 경우 정부가 공급하는데 이런 경우 공급자로 봐야하고단순하게 기업이 생산한 물건을 소비하는 측면이라면 수요자에 해당됩니다.도움이 되셨으면 좋겠습니다. </t>
+          <t>1. 단순히 '화폐를 많이 찍어낸다.'라는 표현만으로는 수요 견인, 비용 인상 인플레이션 중 어떤 유형에 해당하는지 구분하기 어렵습니다.2. 다만, '화폐를 많이 찍어낸다.'라는 넓은 표현을 '정부의 통화 정책'으로 단순화 한다면, 수요 견인 인플레이션의 요인이 될 수 있습니다.3. 정부가 경기 침체 상황에서 경제 안정화를 위한 정책으로 확대 통화 정책을 시행하였을때,통화량 증가 -&gt; 이자율 감소 -&gt; 소비 지출, 투자 지출 증가 -&gt; 총수요 증가 -&gt; 국민소득 증가, 물가 상승 위와 같은 원리에 따라 물가가 상승하게 됩니다. 이때 인플레이션은 수요 견인 인플레이션 유형으로 구분할 수 있습니다.작은 설명 하나도 놓치지 않는 집중력!! 대단합니다:</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>매몰비용</t>
+          <t>탄력성</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>매몰비용이 이미지출해서회수불가능한돈이라는데 이게왜 합리적선택에는아무런영향을끼쳐서는안된다고하고 고려해선안된다고하는지가르쳐주세요</t>
+          <t xml:space="preserve"> 가격 변동이 수요량 변동에 영향을 미치는 탄력성의 개념을 공부하다가 가격이 탄력성의 변동에 영향을 미치는 문제를 보니 상황이 이해가 잘 되지 않습니다. 그럼 우하향하는 수요곡선(완전탄력, 완전비탄력을 제외한 수요곡선)은 가격탄력성이 1이 되는 구간에서 항상 판매수입이 극대화되는 건가요?</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>매몰비용</t>
+          <t>탄력성</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">매몰비용이 이미지출해서회수불가능한돈이라는데 이게왜 합리적선택에는아무런영향을끼쳐서는안된다고하고 고려해선안된다고하는지가르쳐주세요답변입니다.매몰 비용이란 일단 지출이 되어 돌려받을 수 없는 비용입니다. 이런 매몰 비용을 생각하여 새로운 선택을 하지 못할 경우 이익을 얻을 다른 기회를 놓칠 수 있으므로 새로운 이익 창출을 위해 매몰비용은 고려하지 않는게 합리적 선택이 됩니다.도움이 되셨으면 좋겠습니다. </t>
+          <t>안녕하세요.질문에 답변드리겠습니다.우선 수요의 가격 탄력성이 탄력적이라면 가격 상승률보다 수요량 감소율이 크고(이 경우 가격이 상승한다면 판매 수입 감소),비탄력적이라면 가격 상승률보다 수요량 감소율이 작게 나타납니다(이 경우 가격이 상승한다면 판매 수입 증가).결국 강의의 설명처럼 수요의 가격 탄력성이 비탄력적인 구간에서는 가격이 상승할때 판매 수입이 증가하게 되고,단위 탄력적인 구간에서 판매 수입이 최대가 되었다가 탄력적인 구간에서는 가격이 상승할 때 판매 수입이 감소하게 되는 것입니다. 즉 단위 탄력적인 구간에서 최대가 되었던 판매 수입이 탄력적인 구간으로 전환이 되면서 판매 수입이 감소하는 것입니다.강의의 해당 문제의 경우 단위 탄력적인 구간에서 판매 수입이 최대가 되는 것이 맞고 일반적으로도 그렇습니다.다만 시장 상황을 분석하는 경우 다른 조건이 어떻게 주어지는지에 따라 분석 및 추론을 달리해야하기에문제에서 주어진 조건을 고려하여 문제를 풀이할 수 있도록 학습이 이루어져야 합니다.답변이 학습에 도움이 되었기를 바랍니다.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -4282,490 +4838,556 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>분배는 대가를 주고받는 활동</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>기회비용이포기한중에가장가치가큰것이라는데이게먼지 설명해주세요그리고기회비용하고매몰비용의차이가있나요</t>
+          <t>분배는 생산 과정에 참여한 대가를 주고받는 활동이다.라는 선지에서 왜 ‘대가’를 ‘주고’받는 건가요?대가라 함은 생산 요소를 제공했을 때 생기는 소득 아닌가요?운송의 대가로 임금을 주고받는다는 게 무슨 의미인지 모르겠습니다.</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>분배는 대가를 주고받는 활동</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>기회비용이포기한중에가장가치가큰것이라는데이게먼지 설명해주세요사실 기회비용은 2가지 의미가 있습니다.1. 기회비용 = 포기한 것 중 가장 가치가 큰 것첫번째, 생산가능곡선 문제예시를 든다면 X재 하나 더 생산하기 위해 Y재 몇 개를 포기했느냐를 말합니다.생산가능곡선이 직선인 경우 이렇게 표현합니다.기울기가 직선이 경우 모든 점은 기회비용이 같습니다.기회비용은 어느 한 재화를 더 생산하기 위해 다른 재화를 얼만큼 포기하느냐를 말합니다.기회비용이 일정한 경우에는 생산가능곡선의 기울기가 일정한 직선 형태가 됩니다. 기울기는 곧 기회비용을 의미합니다.예를 들어 최대생산량이 X재 10개, Y재 10개인 생산가능곡선이 직선인 경우 점이 (X재 5개, Y재 5개)에서 우측으로 이동하여 (X재 6개, Y재 4개)가 되었을 때X재가 5개에서 6개로 즉 1개 더 생산하기 위해Y재를 5개에서 4개로 생산을 1개 줄였습니다.이때 X재 1개 더 생산하기 위해 Y재 1개를 포기한 것을 기회비용이라고 표현할 수 있습니다.소비자의 입장에서는 이렇게 표현할 수 있습니다.두번째, 동일한 비용으로 여러 재화를 소비했을 때 얻게 되는 만족의 차이가 있는 경우(5천원짜리 자장면, 짬뽕, 우동을 소비했을 때 각각의 편익이 다른 경우)가 여기에 해당됩니다.2. 기회비용 = 명시적 비용+암묵적 비용입니다.대부분의 기회비용 문제가 여기에 해당됩니다.그리고기회비용하고매몰비용의차이가있나요네 있습니다.매몰비용과 기회비용의 개념은 다릅니다.명시적 비용은 어떤 선택을 하고 나서 들어가는 비용,매몰비용은 과거에 지출해서 회수가 불가능한 돈으로 현시점에서 어떤 선택을 하든 회수가 불가능한 돈을 말합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">분배는 생산 과정에 참여한 대가를 주고받는 활동이다.라는 선지에서 왜 ‘대가’를 ‘주고’받는 건가요?대가라 함은 생산 요소를 제공했을 때 생기는 소득 아닌가요?운송의 대가로 임금을 주고받는다는 게 무슨 의미인지 모르겠습니다.답변입니다.같은 의미입니다.생산과정에 참여한다는 것은 가계가 기업에게 노동, 자본, 토지 등을 제공함을 의미합니다.이에 대한 대가로 임금(노동), 이자(자본), 지대(토지)를 받게 되는데 이게 바로 대가에 해당됩니다.기업에 입장에서는 주는 것이고 가계에 입장에서는 받는 것을 말합니다.예를 들어 제가 피자가게를 운영하는 사장님이고 아르바이트생이 피자 배달을 한다고 가정하겠습니다.이때 아르바이트생은 운송(배달)을 하고 그 대가로 임금을 받습니다.도움이 되셨으면 좋겠습니다. </t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H110" t="n">
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>시장경제체제</t>
+          <t>20만원이 어떤 비용인지 궁금합니다</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>시장 경제 체제의 제도에서 공정한 거래 조장은 계획경제체제가 더해진 것으로 혼합경제체제 아닌가요?.?</t>
+          <t>상황은 회사원으로 남을지 유튜버로 남을지 고민하는 시점이미 인터넷 개인방송에 관심이 생겨 수강료로 20만원을 지불한 상황그렇다면 이때 유튜버가 아닌 회사원을 선택할 경우수강료로 사용한 20만원은 아무것ㄷ 아닌것이 아니라 유튜버를 포기했을때 안고 갈 리스크라 생각된다.그렇다면 회사원을 선택했을때에는 인터넷 개인방송 강의 수강료가 명시적 비용에 포함 되어야 하지 않을까?=====================생각해 보니까 수입이 1회분을 말하고 있지만단편적인 수입을 의미하는 것이 아니라 장기적으로의 수입을 의미하기 때문에고정 지출이 아닌 20만원을 명시적 비용에 포함 시킬 수는 없을것 같다.</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>시장경제체제</t>
+          <t>20만원이 어떤 비용인지 궁금합니다</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>안녕하세요. 질문에 답변드리겠습니다.시장경제체는 시장체제에 의해 경제가 움직일 수 있도록 하는 외적인 것들을 전제로 하고 있습니다. 그래서 정부의 역할도 시장경제체제에서는 최소한의 공정거래가 이루어질 수 있도록 하는 정도는 정부의 역할을 수행하는 것으로 보아야 합니다.시장경제체제가 이루어지기 위한 정부의 역할이 최소화 되었다고 받아들이시면 이해가 쉬울듯 합니다.감사합니다.</t>
+          <t>상황은 회사원으로 남을지 유튜버로 남을지 고민하는 시점이미 인터넷 개인방송에 관심이 생겨 수강료로 20만원을 지불한 상황그렇다면 이때 유튜버가 아닌 회사원을 선택할 경우수강료로 사용한 20만원은 아무것ㄷ 아닌것이 아니라 유튜버를 포기했을때 안고 갈 리스크라 생각된다.그렇다면 회사원을 선택했을때에는 인터넷 개인방송 강의 수강료가 명시적 비용에 포함 되어야 하지 않을까?=====================생각해 보니까 수입이 1회분을 말하고 있지만단편적인 수입을 의미하는 것이 아니라 장기적으로의 수입을 의미하기 때문에고정 지출이 아닌 20만원을 명시적 비용에 포함 시킬 수는 없을것 같다.답변입니다.우선 조건이 충분히 제시되지 않았습니다.수강료가 환불이 안된다고 명시되어 있다면 매몰비용으로 처리되어 고려하지 않습니다.해당 게시판은 EBS 교재나 기출 문제를 질문하는 게시판입니다.참고하셔서 질문해주세요.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>13</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>어려워요</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>수요곡선과 공급곡선</t>
+          <t>문제 24번 1번 선지 질문</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>중학교땐가 고1때 사회시간에 수요곡선 공급곡선을 배웠는데 그때는 정말 곡선형태의 수요,공급곡선을 배웠었습니다.그런데 경제과목에서는 왜 직선형의 수요곡선과 공급곡선을 다루는 건가요? 그리고 직선형인데도 곡선이라고 칭하는 이유가 궁금합니다!</t>
+          <t>선지 1번에서 모든 가격 수준에서 공급량이 수요량보다 많다고 적혀있는데 A도 공급 그래프기 수요 그래프보다 위에 있으므로 맞는 설명아닌가요? A그래프는 어떻게 해석해야 하는 지 모르겠습니다.</t>
         </is>
       </c>
       <c r="C112" t="n">
+        <v>11</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>문제 24번 1번 선지 질문</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>선지 1번에서 모든 가격 수준에서 공급량이 수요량보다 많다고 적혀있는데 A도 공급 그래프기 수요 그래프보다 위에 있으므로 맞는 설명아닌가요? A그래프는 어떻게 해석해야 하는 지 모르겠습니다.질문에 답변하겠습니다.문제의 1번에서 설명하고 있는 A재 그래프는 수요곡선과 공급곡선이 다른 가격(세로축 가격)에 있습니다. 공급곡선은 공급자가 생산비용을 고려해서 받고자하는 최소가격을 나타내고, 수요곡선은 효용에 따라 지불하고자 하는 최대 가격(지불용의)인데, 1번의 그래프는 같은 수량에(가로축 수량) 다른 가격을 나타내고 있고 받고자 하는 최소 금액이 지불하고자 하는 최대 금액보다 높기 때문에 거래되지 못하는 경제재에 해당하는 곡선이라고 볼 수 있습니다.시간 내셔서 64번의 질문의 답변을 읽어주시면  A재 그래프와 C재의 그래프를 비교해서 설명한 내용을 보실 수 있습니다.  이해하시는데 도움이 되었으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
         <v>13</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>수요곡선과 공급곡선</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>안녕하세요 질문하신 내용에 관한 답변입니다. 앞에서 배우셨던 바와 같이 수요 곡선과 공급 곡선은 이름 그대로 'curve'라는 용어를 씁니다. 그리고 수요곡선과 공급 곡선은 수요법칙(가격과 수요량과의 반비례 관계)과 공급법칙(가격과 공급량의 비례관계)에서 도출된 곡선입니다. 예를 들어보겠습니다. 시장에서 가격이 오르면 수요량은 줄어들게 됩니다. 만약에 직선일 경우 기울기가 일정하다는것은 시장에서 가격대 별로 가격이 오르는 변동율에 따라 매 번 똑같은 비율로 수요량이 줄어드는 것이라고 볼 수 있는데, 현실적으로 봤을 때 불가능할 것입니다. 100원에서 10%가 오른 110원이 된것과 10만원에서 10%가 오른 11만원이 된것은 소비자가 느끼는 체감도 다르기 때문에 수요량의 반응도 다를것입니다. 그러므로 현실적으로는 곡선이 맞습니다. 우리들이 배우는 교재나 교과서에서의 직선은 편의상 수요법칙과 공급법칙을 설명하기 위해 사용하는 그림이라고 보시면 될것 같습니다. 조금 더 진도를 나가 학습하신다면 한계효용이나 탄력성을 학습하시게 될 것입니다. 아마도 그때에는 이 원리를 더 잘 이해하실수 있게 되실 것입니다. 그때까지 화이팅 하시고 이해가 안가시는 부분은 댓글 부탁드립니다.</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>14</v>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3면등가의 법칙</t>
+          <t>64쪽 35번 선지 ㄷ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>(생산국민소득=분배국민소득=지출국민소득)기업이 생산한 생산물을 팔아서 얻은 소득으로 가계에게 생산요소를 제공한 대가로 분배하기때문에 생산국민소득=분배국민소득은 알겠는데또한 생산된 생산물을 가계, 기업, 정부, 해외가 지출하므로 생산국민소득=지출국민소득인것도 이해가 갔습니다.그런데 분배국민소득=지출국민소득이 이해가 안갑니다.이해가 안가는 이유가 가계는 분배소득으로 지출하는데(*가계를 국민으로 보고 이렇게 해석했습니다. 혹시 제가 잘못 해석한거라면 바로 잡아주세요.)해외지출은 분배소득에 해당이 안되는데 지출의 합에 들어가는게 이해가 안갑니다ㅠ</t>
+          <t xml:space="preserve">해설지에서 선지 ㄷ에 대한 설명이 생산자에게 X재 1개당 10원의 세금을 부과하면 '공급 곡선이 10원만큼 위로 이동한다.' 고 되어 있는데, 왜 강의 내용과 다르게 공급 곡선이 왼쪽으로 이동하지 않고 위쪽으로 이동하나요? 그리고 이 문제와 같이 공급량이 연속적이지 않은 경우에서는 그래프상에 어떻게 나타내어 문제를 풀어야 하나요? </t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3면등가의 법칙</t>
+          <t>64쪽 35번 선지 ㄷ</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>(생산국민소득=분배국민소득=지출국민소득)기업이 생산한 생산물을 팔아서 얻은 소득으로 가계에게 생산요소를 제공한 대가로 분배하기때문에 생산국민소득=분배국민소득은 알겠는데또한 생산된 생산물을 가계, 기업, 정부, 해외가 지출하므로 생산국민소득=지출국민소득인것도 이해가 갔습니다.그런데 분배국민소득=지출국민소득이 이해가 안갑니다.이해가 안가는 이유가 가계는 분배소득으로 지출하는데(*가계를 국민으로 보고 이렇게 해석했습니다. 혹시 제가 잘못 해석한거라면 바로 잡아주세요.)해외지출은 분배소득에 해당이 안되는데 지출의 합에 들어가는게 이해가 안갑니다ㅠ답변입니다.삼면등가의 법칙에 따라 생산 = 분배 = 지출이 같습니다.그래서 생산국민소득(GDP) = 분배국민소득(GNI) = 지출국민소득(총수요)이라고 표현합니다.같은 게 아니라 계산하는 방식에 따라 다른 거지 실제 수치는 같다고 접근하셔야 합니다.GDP는 국내총생산입니다. GNP는 국민총생산입니다.GDP = 내국인의 국내소득 + 외국인의 국내소득GNP=GDP+NFINFI는 국외순수취요소소득(net factor income from the rest of the world)인데 해외수취요소소득에서 해외지급요소소득을 뺀 것입니다. 해외수취요소소득은 우리나라 국민이 해외에서 벌어들인 것이고, 해외지급요소소득은 외국인이 우리나라에서 벌어들인 것입니다.원론적인 3면등가의 원칙에 따라 폐쇄경제를 가정했을 시에 GDP=GNP 라고 볼 수 있습니다.세 개 다 외국인의 국내소득을 포함하지는 않습니다.도움이 되셨으며 좋겠습니다.</t>
+          <t>해설지에서 선지 ㄷ에 대한 설명이 생산자에게 X재 1개당 10원의 세금을 부과하면 '공급 곡선이 10원만큼 위로 이동한다.' 고 되어 있는데, 왜 강의 내용과 다르게 공급 곡선이 왼쪽으로 이동하지 않고 위쪽으로 이동하나요? 그리고 이 문제와 같이 공급량이 연속적이지 않은 경우에서는 그래프상에 어떻게 나타내어 문제를 풀어야 하나요? 답변입니다.공급자에게 세금을 부과하면 공급곡선이 좌측으로 이동합니다.이때 기존의 공급곡선의 모든 점에서 위쪽(수직)으로 해당 금액만큼 이동하면 공급곡선이 위로 이동한거 같지만 실제는 좌측으로 이동한 경우에 해당됩니다.공급량이 연속적이지 않더라도 해당 점에서 이동시켜서 새로운 점을 만들고 그런 점들을 연결하면 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>16</v>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>암묵적비용</t>
+          <t>그래프</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>봄봄 경제특강을 수강할 때편익은 60만원수강료는 20만원편익-수강료는 40만원이 40만원이 왜 봄봄 특강 수강할 때 기쁨 혹은 만족이 되는죠???이 40만원은 암묵적 비용 즉 봄봄 강의 듣지 않고 다른 강의 수강할 떄 만족이잖아요...</t>
+          <t xml:space="preserve">A재는 공급곡선 가격이 수요곡선 가격보다 위에 있는데 모든 가격 수준에서 공급량이 수요량보다 많지 않나요? </t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>암묵적비용</t>
+          <t>그래프</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.질문 1)편익-수강료는 40만원이 40만원이 왜 봄봄 특강 수강할 때 기쁨 혹은 만족이 되는죠???답변 1)봄봄경제특강을 선택하는 경우의 편익은 60만 원, 수강료(명시적 비용에 해당)는 20만 원입니다.즉, 20만 원을 지불하고 60만 원의 편익을 얻었으므로 그 차이인 40만 원이 봄봄경제특강의 만족이 되는 것입니다.질문 2)이 40만원은 암묵적 비용 즉 봄봄 강의 듣지 않고 다른 강의 수강할 떄 만족이잖아요...답변 2)암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'입니다.위(답변 1)에서 구했던 40만 원은 다른 선택지 (A강사 또는 B강사)를 선택했을 때의 암묵적 비용이 되는 것입니다.다르게 설명하자면 40만 원은 다른 강의(A강사 또는 B강사)를 수강할 때의 만족인 것이 아니라다른 강의(A강사 또는 B강사)를 들음으로 인해서 선택하지 않게된 대안(봄봄경제특강)의 만족인 것입니다.다른 강의를 들음으로 인해 포기하게 된 선택지의 만족인 것이죠.답변이 학습에 도움이 되었길 바라며, 추가로 설명이 필요한 부분이 있다면 질문하여 주시기 바랍니다.감사합니다.</t>
+          <t xml:space="preserve">A재는 공급곡선 가격이 수요곡선 가격보다 위에 있는데 모든 가격 수준에서 공급량이 수요량보다 많지 않나요? 질문에 대한 답변입니다.문제에서 A재와 C재의 그래프를 비교해 보겠습니다.A재의 그래프는 두 곡선이 가격에 걸쳐져 있습니다.  이는 가로축(수량)의 같은 수량일때 공급자의 최소가격이 수요자의 최대 가격보다 높기때문에 거래가 이루어지지 못하는 경우입니다.(예) 우주여행, 아직 상용화되지 못하는 신약 ...C재의 그래프는 두 곡선이 수량에 걸쳐져 있기 때문에 같은 가격에 공급량이 수요량보다 많아서 굳이 거래하지 않아도 얻을 수 있는 자유재 입니다.두 그래프의 차이는 가격에 걸쳐져 있는지, 수량에 걸쳐져 있는지에 따라 다르게 해석되는 것입니다.좀 더 부연 설명을 하자면 A재가 우주여행이라고 할 때 우주여행의 생산 비용이 기술 개발로 싸진다면 공급곡선이 밑으로 내려오겠고, 수요자들도 더 많은 가격을 지불해서 우주여행을 하고자 한다면 수요 곡선이 올라가다 보면 우리도 시장의 거래를 통해 우주여행을 갈 수 있게 되겠죠 ...이해에 도움이 되셨길 바랍니다. </t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>경제 문제</t>
+          <t>노동과 서바스의 차이</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>경제 문제의 유형을 보면 생산물, 생산요소, 분배방식이 있는데요.소비와 관련된 문제?들은 경제 문제라고 할 수 없나요?</t>
+          <t>노동과 서비스의 확연한 차이, 구분 방법이 궁금합니다</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>경제 문제</t>
+          <t>노동과 서비스</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>경제 문제의 유형을 보면 생산물, 생산요소, 분배방식이 있는데요.소비와 관련된 문제?들은 경제 문제라고 할 수 없나요?답변입니다.네 그렇습니다.자원의 희소성으로 인해 기본적인 경제문제가 발생하고 있는데문의하신 것처럼 생산과 분배는 경제문제의 3가지 유형에 포함되지만 소비의 영역은 합리적 소비라는 파트로 구분되고 있습니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>1. 경제 활동의 대상에는 크게 재화와 서비스가 있습니다.'재화는 형태를 갖는 물건'을 말하고,'서비스는 구체적인 형태 없이 사람의 노동력이 형태로 제공되는 것'을 말합니다.따라서, 서비스라는 개념 안에는 사람의 노동을 전제하고 있다고 볼 수 있습니다.2.경제 활동의 유형에는 소비, 생산, 분배가 있습니다.재화와 서비스를 만드는 것을 생산이라고 합니다.생산 활동을 위해선 생산을 위한 재료를 필요로 합니다.이를 생산 요소라고 하며, 노동, 자본, 토지로 나눠볼 수 있습니다.3.예를 들어, 학원 강사의 수업이라는 경제 활동을 경제 활동의 대상이 무엇인지 묻는다면 '서비스이다.'라고 답할 수 있으며, 경제 활동의 유형이 무엇인지 묻는다면 '노동을 활용한 생산 활동이다.'라고 답할 수 있습니다. 간단하면서도 예리한 질문입니다. 도움이 되었으면 좋겠네요:)</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>재화의 가격이 하락</t>
+          <t>매몰비용</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>선생님 강의 수강하고 추가로 기출문제 풀다가 질문이 있어서요!선지 ㄹ 을 잘 모르겠는데요, C재의 가격이 11만원일때를 다시 계산해야하는건가요?</t>
+          <t>매몰비용을생각하여선택하면 새로운선택을할기회를놓칠수있다는게무슨말인지설명해주세요</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>기회비용 합리적 선택</t>
+          <t>매몰비용</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>맞습니다.C재의 가격이 11만원이라고 가정한 후 비용-편익 분석을 실시해야 합니다.이에 따르면 A, B재의 암묵적 비용이 증가하고, C재의 명시적 비용이 감소하게 됨으로써 합리적 선택은 A재에서 C재로 바뀌게 됩니다.선생님의 첫 번째 답변의 주인공이 되신 것을 축하합니다!!!언제든 질문해주세요:)</t>
+          <t>매몰비용을생각하여선택하면 새로운선택을할기회를놓칠수있다는게무슨말인지설명해주세요답변입니다.예를 들어 노화 방지 화장품을 개발하기 위해 지금까지 10억을 쏟아부은 회사가 있다고 가정합시다.뚜렷하게 성과가 나타나지 않음에도 불구하고 지금까지 투자한 돈(매몰비용)이 아까워서 계속 투자한다면 다른 선택을 할 수 있는 기회를 날릴 수 있음을 말합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H116" t="n">
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A안의 명시적 비용</t>
+          <t>무상재</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>처음에 풀었을 때 '여유자금 1억 원을 연이율 2%의 1년 만기 정기 예금에 예치하여 (ㄴ)이자소득을 얻음.'이렇게 쓰여있어서 이 부분이 A안의 명시적 비용이라고 생각해서 풀었습니다. 왜 ㄴ이 편익으로 들어가고 A안의 명시적 비용은 없는 것이 되어버리는 건지 이해가 되지 않아요ㅠㅠ</t>
+          <t>보기 ㄹ이 틀린 이유가 무상재는 거래라는 말이 성립이 안 되어서 인가요?</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A안의 명시적 비용</t>
+          <t>무상재</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>처음에 풀었을 때 '여유자금 1억 원을 연이율 2%의 1년 만기 정기 예금에 예치하여 (ㄴ)이자소득을 얻음.'이렇게 쓰여있어서 이 부분이 A안의 명시적 비용이라고 생각해서 풀었습니다. 왜 ㄴ이 편익으로 들어가고 A안의 명시적 비용은 없는 것이 되어버리는 건지 이해가 되지 않아요ㅠㅠ답변입니다.A안의 명시적 비용은 쉽게 말해서 A를 선택할 때 내 지갑에서 나간 돈을 말합니다.이자소득은 들어온 돈이기에 편익에 포함됩니다.회사 다니면서 지불하는 돈이 없고 예금하기 위해 지불하는 비용이 없으므로 명시적 비용은 0원이 됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.교재 17쪽 5번 문제의 경우 희소성의 유무, 희귀성의 유무에 따라 재화를 구분하는 문제입니다.'인간의 욕구보다 많이 존재하여 무상으로 소비할 수 있는가?'의 질문에 따라 A는 무상재(자유재), B는 경제재로 구분됩니다.무상재(A)의 경우 무상으로(대가 지불 없이) 소비할 수 있으므로 시장에서 거래되지 않고,경제재(B)의 경우 인간의 욕구보다 상대적으로 적게 존재하여 대가를 지불해야 소비할 수 있는 재화이므로 시장에서거래가 이루어집니다.질문에서 설명했듯이 무상재는 대가를 지불하여 소비하는 재화가 아니기때문에 시장에서 거래가 이루어지지 않습니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H117" t="n">
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>개념홀릭 18페이지 7번문제 3번문항</t>
+          <t>정부</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>개념홀릭 18페이지 7번문제 3번문항에 답지에 ㄱ만 효율성 기준으로 생각된다고 나와있는데ㄴ도 ”일의 효율성“ 측면에서 효율성을 기준으로 해결한다고 볼 수 있지 않나요?</t>
+          <t>정부 정책을 위해 소비한다고 해서 생산물 시장의 수요자라고 하셨는데 정책을 통한 생산활동을 위해 소비하는 거라고 본다면 공급자아닌가요?정부가 생산요소 시장의 공급자도 될 수 있나요?</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>경제 문제</t>
+          <t>정부</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 ㉠은 생산물을 결정하는 문제, ㉡은 분배 방식을 결정하는 경제 문제입니다.생산물의 결정과 분배 방식의 결정 모두 효율성을 고려하는 경제 문제가 맞습니다.다만, 분배 방식의 결정의 경우 효율성과 형평성을 동시에 고려해야 하는 경제 문제입니다.해당 문제 3번 선지의 경우 '㉠과 달리 ㉡에 나타난 경제 문제는 효율성을 기준으로 해결한다.'이고㉠과 ㉡ 모두 효율성을 고려하므로 옳지 않은 선지입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
+          <t xml:space="preserve">정부 정책을 위해 소비한다고 해서 생산물 시장의 수요자라고 하셨는데 정책을 통한 생산활동을 위해 소비하는 거라고 본다면 공급자아닌가요?정부가 생산요소 시장의 공급자도 될 수 있나요?답변입니다.생산물 시장에서 정부는 수요자이자 공급자의 역할을 합니다.생산요소시장에서 정부는 수요자의 역할만 합니다.생산물 시장에서 가계는 수요자 역할을 하고생산요소시장에서 가계는 공급자 역할을 합니다생산물 시장에서 기업은 공급자 역할을 하고생산요소시장에서 기업은 수요자 역할을 합니다.해당 내용은 기출문제가 많으니 꼭 기억해야 하는 부분입니다.생산물시장에서 전기나 수도의 경우 정부가 공급하는데 이런 경우 공급자로 봐야하고단순하게 기업이 생산한 물건을 소비하는 측면이라면 수요자에 해당됩니다.도움이 되셨으면 좋겠습니다. </t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>수요변동의 요인</t>
+          <t>매몰비용</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>인과관계에 대해서 질문합니다 수요증가가 원인이 되서 소득이 증가하는건가요 아니면 소득이 증가하니까 수요가 증가하는건지 궁금합니다</t>
+          <t>매몰비용이 이미지출해서회수불가능한돈이라는데 이게왜 합리적선택에는아무런영향을끼쳐서는안된다고하고 고려해선안된다고하는지가르쳐주세요</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>수요변동의 요인</t>
+          <t>매몰비용</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>인과관계에 대해서 질문합니다 수요증가가 원인이 되서 소득이 증가하는건가요 아니면 소득이 증가하니까 수요가 증가하는건지 궁금합니다답변입니다.수요는 사고자하는 욕구인데 사고 싶은 욕구가 증가한다고 소득이 증가하기는 어렵습니다.일반적으로 소득이 증가하니까 수요가 증가합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">매몰비용이 이미지출해서회수불가능한돈이라는데 이게왜 합리적선택에는아무런영향을끼쳐서는안된다고하고 고려해선안된다고하는지가르쳐주세요답변입니다.매몰 비용이란 일단 지출이 되어 돌려받을 수 없는 비용입니다. 이런 매몰 비용을 생각하여 새로운 선택을 하지 못할 경우 이익을 얻을 다른 기회를 놓칠 수 있으므로 새로운 이익 창출을 위해 매몰비용은 고려하지 않는게 합리적 선택이 됩니다.도움이 되셨으면 좋겠습니다. </t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H119" t="n">
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>경제활동 질문</t>
+          <t>기회비용</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>중간재에 해당하는 서비스의 종류는 무엇이 있나요?임대료를 가계에서 받는 것은 어떤 경제활동으로 보나요?돈을 내지 않고 재화나 서비스를 이용하는 것도 소비인가요?</t>
+          <t>기회비용이포기한중에가장가치가큰것이라는데이게먼지 설명해주세요그리고기회비용하고매몰비용의차이가있나요</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>경제활동 질문</t>
+          <t>기회비용</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>중간재에 해당하는 서비스의 종류는 무엇이 있나요?중간재에서 재는 재화를 말합니다.그래서 서비스는 해당되지 않습니다.임대료를 가계에서 받는 것은 어떤 경제활동으로 보나요?경제활동에 포함시키지 않습니다.우리가 알고 있는 모든 상황을 경제 개념에 집어넣기 어려운 부분이 있습니다.분배는 생산에 기여한 대가를 기업이 가계에게 지불하는 것을 말하는데 가계로부터 빌린 건물에서 생산을 하는 경우 가계에게 임대료를 지불하는 경우라고 생각해주세요.돈을 내지 않고 재화나 서비스를 이용하는 것도 소비인가요?그렇지 않습니다.소비는 일반적으로 가계가 대가 즉 비용을 지불하고 기업이 제공하는 재화나 서비스를 이용하는 것을 말합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>기회비용이포기한중에가장가치가큰것이라는데이게먼지 설명해주세요사실 기회비용은 2가지 의미가 있습니다.1. 기회비용 = 포기한 것 중 가장 가치가 큰 것첫번째, 생산가능곡선 문제예시를 든다면 X재 하나 더 생산하기 위해 Y재 몇 개를 포기했느냐를 말합니다.생산가능곡선이 직선인 경우 이렇게 표현합니다.기울기가 직선이 경우 모든 점은 기회비용이 같습니다.기회비용은 어느 한 재화를 더 생산하기 위해 다른 재화를 얼만큼 포기하느냐를 말합니다.기회비용이 일정한 경우에는 생산가능곡선의 기울기가 일정한 직선 형태가 됩니다. 기울기는 곧 기회비용을 의미합니다.예를 들어 최대생산량이 X재 10개, Y재 10개인 생산가능곡선이 직선인 경우 점이 (X재 5개, Y재 5개)에서 우측으로 이동하여 (X재 6개, Y재 4개)가 되었을 때X재가 5개에서 6개로 즉 1개 더 생산하기 위해Y재를 5개에서 4개로 생산을 1개 줄였습니다.이때 X재 1개 더 생산하기 위해 Y재 1개를 포기한 것을 기회비용이라고 표현할 수 있습니다.소비자의 입장에서는 이렇게 표현할 수 있습니다.두번째, 동일한 비용으로 여러 재화를 소비했을 때 얻게 되는 만족의 차이가 있는 경우(5천원짜리 자장면, 짬뽕, 우동을 소비했을 때 각각의 편익이 다른 경우)가 여기에 해당됩니다.2. 기회비용 = 명시적 비용+암묵적 비용입니다.대부분의 기회비용 문제가 여기에 해당됩니다.그리고기회비용하고매몰비용의차이가있나요네 있습니다.매몰비용과 기회비용의 개념은 다릅니다.명시적 비용은 어떤 선택을 하고 나서 들어가는 비용,매몰비용은 과거에 지출해서 회수가 불가능한 돈으로 현시점에서 어떤 선택을 하든 회수가 불가능한 돈을 말합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H120" t="n">
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>가계와 생산</t>
+          <t>시장경제체제</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">'가계'는 '소비'의 주체인데, 생산 요소 시장에서 노동을 제공하는 활동은 '생산'으로 보는게 맞나요? (예: 개인 = 가계, 개인이 회사에서 일을 하는 것 = 생산.)그렇다면 가계는 소비의 주체이지만 생산도 할 수 있다고 봐야 하나요? 가계는 생산을 할 수 없는 개념이라면, 개인이 생산 요소 시장에서 '생산'을 하는 건 어떻게 해석해야 하나요? </t>
+          <t>시장 경제 체제의 제도에서 공정한 거래 조장은 계획경제체제가 더해진 것으로 혼합경제체제 아닌가요?.?</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>가계와 생산</t>
+          <t>시장경제체제</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 대하여 답변드리겠습니다.질문에서 말씀하셨듯이 가계는 소비의 주체입니다.다만, 가계가 생산 요소 시장에 생산 요소를 공급하는 것은 '생산' 자체로 보는 것이 아니라 '가계의 역할'로 봐야 할 것입니다.정리하자면 가계가 생산을 하는 것이 아니라 가계는 생산 요소를 공급하는 역할을 통해 '기업의 생산에 기여'하는 것입니다.마찬가지로 '개인이 생산 요소 시장에서 생산을 하는 건 어떻게 해석해야 하나요?'에 대한 답변을 드리자면생산은 가계가 공급한 생산 요소를 공급 받은 '기업에 의해서 이루어지는 것'이라고 정리할 수 있습니다.만약 노동이 생산 요소 시장을 통해 기업에 공급되었다면 그 노동의 활동은 가계에서 이루어지는 것이 아니라기업 활동이 되는 것입니다.답변이 학습에 도움이 되었길 바랍니다.감사합니다.</t>
+          <t>안녕하세요. 질문에 답변드리겠습니다.시장경제체는 시장체제에 의해 경제가 움직일 수 있도록 하는 외적인 것들을 전제로 하고 있습니다. 그래서 정부의 역할도 시장경제체제에서는 최소한의 공정거래가 이루어질 수 있도록 하는 정도는 정부의 역할을 수행하는 것으로 보아야 합니다.시장경제체제가 이루어지기 위한 정부의 역할이 최소화 되었다고 받아들이시면 이해가 쉬울듯 합니다.감사합니다.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
+          <t>어려워요</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>편익-명시적비용</t>
+          <t>수요곡선과 공급곡선</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>여기서 회사원할땐 300만큼 기쁘고 유튜버할땐 330만큼 기뻐. 라고 하셨는데이따 말씀하신 기쁘다는게 경제 용어로 어떤 것에 해당하는 건가요?편익-명시적비용은 암묵적 비용을 말하는건거요?그러면 암묵적 비용은... 각 선택지마다 두개가 있는건데 이 부분이 헷갈려요ㅜ아니ㅕㄴ 그냥 순편익을 구하기 위한 수단?자체로 보는건가요..?</t>
+          <t>중학교땐가 고1때 사회시간에 수요곡선 공급곡선을 배웠는데 그때는 정말 곡선형태의 수요,공급곡선을 배웠었습니다.그런데 경제과목에서는 왜 직선형의 수요곡선과 공급곡선을 다루는 건가요? 그리고 직선형인데도 곡선이라고 칭하는 이유가 궁금합니다!</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>암묵적비용</t>
+          <t>수요곡선과 공급곡선</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>안녕하세요.질문에 답변 드리겠습니다.기회비용을 구성하는 암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'로 정의됩니다.강의의 사례에서 만약 '회사원'을 선택했다면 '다른 대안(유튜버)을 선택했다면 얻을 수 있었던 가치'가'회사원' 선택에 따른 암묵적 비용이 되는 것입니다.여기서 첫번째 주의점은 '다른 대안인 유튜버'의 편익(400만 원)을 얻기 위해서는 명시적비용(70만 원)을들여야 하기 때문에 '400만 원(편익)-70만 원(명시적 비용)=330만 원'이 '회사원' 선택에 따른 암묵적 비용이 되는 것입니다.두번째 주의점은 질문자님의 '암묵적 비용은...각 선택지마다 두개가 있는건데'에 관한 부분입니다.하나의 선택에 따른 암묵적 비용은 '선택하지 않은 다른 대안을 선택했다면 얻을 수 있는 가치'이므로선택한 대안의 (편익-명시적 비용)은 암묵적 비용이 되지 않습니다. 다만 해당 사례에서 유튜버를 선택했다면선택하지 않은 다른 대안인 회사원의 (편익-명시적 비용)은 '유튜버 선택에 따른 암묵적 비용'이 되는 것입니다.만약 선택지가 3개 이상으로 늘어난다고 해도 a, b, c의 선택지 중 a를 선택했을 때 포기한 선택지는 b또는 c가 되므로하나의 선택에 따른 암묵적 비용은 하나만 존재하게 됩니다.마지막으로 위에서 설명했듯이 '편익-명시적비용' 자체는 다른 용어를 통해 정의하는 것이 아니라 다른 선택의 암묵적 비용을 구하기 위한 한 축으로 생각하시는 것이 비용-편익 분석에 도움이 될 것이라 생각합니다.질문자님의 궁금증이 해결되었길 바랍니다. 감사합니다.</t>
+          <t>안녕하세요 질문하신 내용에 관한 답변입니다. 앞에서 배우셨던 바와 같이 수요 곡선과 공급 곡선은 이름 그대로 'curve'라는 용어를 씁니다. 그리고 수요곡선과 공급 곡선은 수요법칙(가격과 수요량과의 반비례 관계)과 공급법칙(가격과 공급량의 비례관계)에서 도출된 곡선입니다. 예를 들어보겠습니다. 시장에서 가격이 오르면 수요량은 줄어들게 됩니다. 만약에 직선일 경우 기울기가 일정하다는것은 시장에서 가격대 별로 가격이 오르는 변동율에 따라 매 번 똑같은 비율로 수요량이 줄어드는 것이라고 볼 수 있는데, 현실적으로 봤을 때 불가능할 것입니다. 100원에서 10%가 오른 110원이 된것과 10만원에서 10%가 오른 11만원이 된것은 소비자가 느끼는 체감도 다르기 때문에 수요량의 반응도 다를것입니다. 그러므로 현실적으로는 곡선이 맞습니다. 우리들이 배우는 교재나 교과서에서의 직선은 편의상 수요법칙과 공급법칙을 설명하기 위해 사용하는 그림이라고 보시면 될것 같습니다. 조금 더 진도를 나가 학습하신다면 한계효용이나 탄력성을 학습하시게 될 것입니다. 아마도 그때에는 이 원리를 더 잘 이해하실수 있게 되실 것입니다. 그때까지 화이팅 하시고 이해가 안가시는 부분은 댓글 부탁드립니다.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>생산요소</t>
+          <t>3면등가의 법칙</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>생산요소는 생산활동을 하기 위해 필요한 요소들을 말하는게 맞나요?</t>
+          <t>(생산국민소득=분배국민소득=지출국민소득)기업이 생산한 생산물을 팔아서 얻은 소득으로 가계에게 생산요소를 제공한 대가로 분배하기때문에 생산국민소득=분배국민소득은 알겠는데또한 생산된 생산물을 가계, 기업, 정부, 해외가 지출하므로 생산국민소득=지출국민소득인것도 이해가 갔습니다.그런데 분배국민소득=지출국민소득이 이해가 안갑니다.이해가 안가는 이유가 가계는 분배소득으로 지출하는데(*가계를 국민으로 보고 이렇게 해석했습니다. 혹시 제가 잘못 해석한거라면 바로 잡아주세요.)해외지출은 분배소득에 해당이 안되는데 지출의 합에 들어가는게 이해가 안갑니다ㅠ</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4773,712 +5395,989 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>생산요소</t>
+          <t>3면등가의 법칙</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">생산요소는 생산활동을 하기 위해 필요한 요소들을 말하는게 맞나요?답변입니다.네 그렇습니다.생산요소는 노동, 토지, 자본 등이 대표적인 사례들입니다.도움이 되셨으면 좋겠습니다. </t>
+          <t>(생산국민소득=분배국민소득=지출국민소득)기업이 생산한 생산물을 팔아서 얻은 소득으로 가계에게 생산요소를 제공한 대가로 분배하기때문에 생산국민소득=분배국민소득은 알겠는데또한 생산된 생산물을 가계, 기업, 정부, 해외가 지출하므로 생산국민소득=지출국민소득인것도 이해가 갔습니다.그런데 분배국민소득=지출국민소득이 이해가 안갑니다.이해가 안가는 이유가 가계는 분배소득으로 지출하는데(*가계를 국민으로 보고 이렇게 해석했습니다. 혹시 제가 잘못 해석한거라면 바로 잡아주세요.)해외지출은 분배소득에 해당이 안되는데 지출의 합에 들어가는게 이해가 안갑니다ㅠ답변입니다.삼면등가의 법칙에 따라 생산 = 분배 = 지출이 같습니다.그래서 생산국민소득(GDP) = 분배국민소득(GNI) = 지출국민소득(총수요)이라고 표현합니다.같은 게 아니라 계산하는 방식에 따라 다른 거지 실제 수치는 같다고 접근하셔야 합니다.GDP는 국내총생산입니다. GNP는 국민총생산입니다.GDP = 내국인의 국내소득 + 외국인의 국내소득GNP=GDP+NFINFI는 국외순수취요소소득(net factor income from the rest of the world)인데 해외수취요소소득에서 해외지급요소소득을 뺀 것입니다. 해외수취요소소득은 우리나라 국민이 해외에서 벌어들인 것이고, 해외지급요소소득은 외국인이 우리나라에서 벌어들인 것입니다.원론적인 3면등가의 원칙에 따라 폐쇄경제를 가정했을 시에 GDP=GNP 라고 볼 수 있습니다.세 개 다 외국인의 국내소득을 포함하지는 않습니다.도움이 되셨으며 좋겠습니다.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>정답 및 해설 pdf 따로 올려주세요</t>
+          <t>암묵적비용</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>정답 및 해설 pdf 따로 올려주세요교재 페이지 184-199입니다.따로 프린트 해서 보려고 합니다.~~수로하세요.</t>
+          <t>봄봄 경제특강을 수강할 때편익은 60만원수강료는 20만원편익-수강료는 40만원이 40만원이 왜 봄봄 특강 수강할 때 기쁨 혹은 만족이 되는죠???이 40만원은 암묵적 비용 즉 봄봄 강의 듣지 않고 다른 강의 수강할 떄 만족이잖아요...</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>정답 및 해설 pdf 따로 올려주세요</t>
+          <t>암묵적비용</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>정답 및 해설 pdf 따로 올려주세요교재 페이지 184-199입니다.따로 프린트 해서 보려고 합니다.~~수로하세요.답변입니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.해당 게시판은 EBS 교재나 기출문제의 풀이에 대한 질문을 하는 용도로만 사용하는 게시판입니다.도움이 못되어드려 죄송합니다.참고해주세요.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.질문 1)편익-수강료는 40만원이 40만원이 왜 봄봄 특강 수강할 때 기쁨 혹은 만족이 되는죠???답변 1)봄봄경제특강을 선택하는 경우의 편익은 60만 원, 수강료(명시적 비용에 해당)는 20만 원입니다.즉, 20만 원을 지불하고 60만 원의 편익을 얻었으므로 그 차이인 40만 원이 봄봄경제특강의 만족이 되는 것입니다.질문 2)이 40만원은 암묵적 비용 즉 봄봄 강의 듣지 않고 다른 강의 수강할 떄 만족이잖아요...답변 2)암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'입니다.위(답변 1)에서 구했던 40만 원은 다른 선택지 (A강사 또는 B강사)를 선택했을 때의 암묵적 비용이 되는 것입니다.다르게 설명하자면 40만 원은 다른 강의(A강사 또는 B강사)를 수강할 때의 만족인 것이 아니라다른 강의(A강사 또는 B강사)를 들음으로 인해서 선택하지 않게된 대안(봄봄경제특강)의 만족인 것입니다.다른 강의를 들음으로 인해 포기하게 된 선택지의 만족인 것이죠.답변이 학습에 도움이 되었길 바라며, 추가로 설명이 필요한 부분이 있다면 질문하여 주시기 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F124" t="n">
         <v>10</v>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="n">
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>경제 선택 고민</t>
+          <t>경제 문제</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>안녕하세요. 경제로 사탐 런을 할지 고민중인 재수생입니다.2024 현역에서는 생명1, 지구1 을 선택했는데 둘 중 하나를 버리고 경제를 선택할지.. 고민이 돼요우선 성적은 생명1 2등급, 지구1 4등급입니다. 지구과학이 실수가 많았는지 낮은 점수를 맞아버렸어요. 공부를 안 하진 않았지만 1등급 맞을 만큼 많이 하진 않았다고 생각합니다..경제를 고민하는 이유는 저희 학교(전국 단위 자사고)가 1학년 때 경제가 필수과목이라 내신을 했었는데 유일하게 2등급이 나와 저를 구원해주던 과목이었고, 처음 배울 때 부터 재미를 느끼던 과목이었습니다.1학년 때 학교 선생님께서 수능특강과 마더텅으로 문제를 내셔서, 처음 배우는 과목이기에 박봄 선생님 강의를 수강하고 마더텅은 혼자 풀었습니다.1학년이 끝나고 경제를 손에서 놓고 있다가 2학년 때 모의고사 치룰 시기가 오자, 선택과목 고민을 하다가 아직 지구과학 개념학습이 안되어있고 지구과학과 경제 중에 무엇을 선택할지 고민중이었기에 우선 경제를 선택하여 6월, 9월 모의고사를 응시했습니다. 둘 다 1등급 (47점, 44점)을 맞게되었습니다. 모의고사 공부를 따로 하진 않았고 전 날에 기억 되살릴 수 있도록 작년 기출 1회 풀었던 것 같습니다. 하지만 고2 모의고사는 수능에비해 훨씬 쉽고 9월 모의고사 이후 수능에서는 몇 등급이 나올지 궁금해서 풀어봤는데 3-4문제를 틀렸고 3등급이 나오는 것을 보고 그대로 경제를 포기하고 지구과학을 선택하게 되었습니다..제가 과탐을 선택한 이유는 사탐보다 표점이 높고 등급 컷이 낮기 때문인데, 현, 그리고 앞으로의 기조에서는 과탐이 예전만큼 표점 높고 등급 컷이 낮을 것 같지 않기에 과탐의 메리트가 사라졌다고 생각합니다.. 공부해야하는 양은 사탐의 몇 배이고 메디컬 쏠림 현상이 발생하는 상황에서, 소위 말해, 고인물들이 두텁게 과탐 1등급을 차지하고 있는데 현실적으로 1년 안에 내가 그들 만큼, 혹은 그들 보다 높은 성적을 받을 수 있는지, 경제가 과탐보다 표점이 높은 상황에서 내가 과탐을 선택할 이유가 있는지 의문이 듭니다..심지어 2025 대입부터는 많은 학교에서 선택과목 제한을 폐지하는데 물론 이과 지원시 과탐에 가산점이 있지만 과탐을 응시하여 가산점을 받는 것보단 그냥 표점 높은 경제를 선택하는 것이 낫지 않을까.. 생각이 듭니다.경제도 쉽지 않은 과목이란 걸 알고 있지만 아예 안 해본 과목이 아니기 때문에 더욱 고민됩니다.. 근데 이건 제가 2024 수능에 응시한 과탐 과목들에도 해당하는 사항이기 때문에 고민이 더더욱 깊어집니다..저는 이과로도 지원할 생각이 있고 문과로도 지원할 생각이 있습니다. 하지만 우선순위는 이과입니다.여러 상황들 때문에 고민이 더 깊어지는데.. 선생님께서는 어떻게 생각하시는지ㅜㅜ도움이 절실합니다.ㅜㅜ</t>
+          <t>경제 문제의 유형을 보면 생산물, 생산요소, 분배방식이 있는데요.소비와 관련된 문제?들은 경제 문제라고 할 수 없나요?</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>경제 선택 고민</t>
+          <t>경제 문제</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">우선순위는 이과입니다.여러 상황들 때문에 고민이 더 깊어지는데.. 선생님께서는 어떻게 생각하시는지ㅜㅜ도움이 절실합니다.ㅜ답변입니다.이건 누구의 조언으로 해결할 수 있는 문제는 아닌 것 같습니다.어떤 선택을 하던지 해당 과목을 열심히 공부하는 거 밖에 없는 부분입니다.본인이 그나마 끌리는 것을 선택해주세요. </t>
+          <t>경제 문제의 유형을 보면 생산물, 생산요소, 분배방식이 있는데요.소비와 관련된 문제?들은 경제 문제라고 할 수 없나요?답변입니다.네 그렇습니다.자원의 희소성으로 인해 기본적인 경제문제가 발생하고 있는데문의하신 것처럼 생산과 분배는 경제문제의 3가지 유형에 포함되지만 소비의 영역은 합리적 소비라는 파트로 구분되고 있습니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>7</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>생산요소 자본</t>
+          <t>재화의 가격이 하락</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>쨈 가게 주인이 사과를 사면 생산이라고 했는데 그렇다면 여기서 사과가 생산요소 중 자본에 해당한다고 이해해도 될까요?</t>
+          <t>선생님 강의 수강하고 추가로 기출문제 풀다가 질문이 있어서요!선지 ㄹ 을 잘 모르겠는데요, C재의 가격이 11만원일때를 다시 계산해야하는건가요?</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>생산요소 자본</t>
+          <t>기회비용 합리적 선택</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>쨈 가게 주인이 사과를 사면 생산이라고 했는데 그렇다면 여기서 사과가 생산요소 중 자본에 해당한다고 이해해도 될까요?답변입니다.네 그렇습니다.생산요소에는 크게 인적자원과 비인적 자원으로 구분되며인적자원은 노동이나 기업경영능력을 말하고비인적 자원은 토지, 광물, 석유, 나무 같은 자연자원과 생산재로 구분됩니다.여기서 생산재란 자연자원과 다르게 자연적으로 주어져 있는 것이 아니고 사람이 만든 생산수단이라는 점입니다.생산재에는 원재료, 반제품, 공구, 기계, 공장 등이 포함되며 흔히 자본 또는 자본재라고 부릅니다.자본재 중 원재료나 반제품 등은 최종재를 생산하기 위한 중간재 성격을 지닙니다.참고로 기업이 생산을 위해 중간재를 구입하는 것은 '생산적 소비'라고 하여소비가 아닌 생산으로 봅니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>맞습니다.C재의 가격이 11만원이라고 가정한 후 비용-편익 분석을 실시해야 합니다.이에 따르면 A, B재의 암묵적 비용이 증가하고, C재의 명시적 비용이 감소하게 됨으로써 합리적 선택은 A재에서 C재로 바뀌게 됩니다.선생님의 첫 번째 답변의 주인공이 되신 것을 축하합니다!!!언제든 질문해주세요:)</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H126" t="n">
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>수요량에 대해서</t>
+          <t>A안의 명시적 비용</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>수요량은 특정 가격 수준에서 소비자가 구입하고자 하는 상품의 양이니 구매할 것으로 예측되는 값 즉, 예측값 개념으로 이해하는 것이 맞나요? (맞다면 공급량도 갖은 맥락으로 이해하면 되나요?)</t>
+          <t>처음에 풀었을 때 '여유자금 1억 원을 연이율 2%의 1년 만기 정기 예금에 예치하여 (ㄴ)이자소득을 얻음.'이렇게 쓰여있어서 이 부분이 A안의 명시적 비용이라고 생각해서 풀었습니다. 왜 ㄴ이 편익으로 들어가고 A안의 명시적 비용은 없는 것이 되어버리는 건지 이해가 되지 않아요ㅠㅠ</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>수요량</t>
+          <t>A안의 명시적 비용</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>안녕하세요. 질문에 답변드리겠습니다.수요량이란 주어진 가격수준에서 소비자가 일정기간에 구입할 의사와 능력이 있는 최대수량을 이야기합니다.질문자님께서 예측값이라고 써준 부분이 정확한 뜻을 이해하기 힘든부분이 있으나 위에서 정의한 의사와 능력이 있는 사람들이 구매할 최대수량을 예측하여 수요량을 구하는 것으로 정의한다면 크게무리없어 보입니다. 공급량도 마찬가지입니다.고교과정에선 수요와 수요량의 구분이 가장 기초가 되는부분으로 해당부분을 이해하시고 넘어간다면 문제를 접근하는데 큰 어려움이 없을 것으로 생각됩니다.감사합니다.</t>
+          <t>처음에 풀었을 때 '여유자금 1억 원을 연이율 2%의 1년 만기 정기 예금에 예치하여 (ㄴ)이자소득을 얻음.'이렇게 쓰여있어서 이 부분이 A안의 명시적 비용이라고 생각해서 풀었습니다. 왜 ㄴ이 편익으로 들어가고 A안의 명시적 비용은 없는 것이 되어버리는 건지 이해가 되지 않아요ㅠㅠ답변입니다.A안의 명시적 비용은 쉽게 말해서 A를 선택할 때 내 지갑에서 나간 돈을 말합니다.이자소득은 들어온 돈이기에 편익에 포함됩니다.회사 다니면서 지불하는 돈이 없고 예금하기 위해 지불하는 비용이 없으므로 명시적 비용은 0원이 됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>교재 언제 구매할 수 있나요???</t>
+          <t>개념홀릭 18페이지 7번문제 3번문항</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>교재 언제 구매할 수 있나요???구매를 할 수가 없네요.</t>
+          <t>개념홀릭 18페이지 7번문제 3번문항에 답지에 ㄱ만 효율성 기준으로 생각된다고 나와있는데ㄴ도 ”일의 효율성“ 측면에서 효율성을 기준으로 해결한다고 볼 수 있지 않나요?</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>이용문의</t>
+          <t>경제 문제</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>안녕하세요.강의 및 교재 이용과 관련한 질문은 '이용문의 게시판(교재 관련)'에 문의하시면 답변을 들으실 수 있습니다.============================Q&amp;A운영자입니다.안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.교재 발간 일정은 이곳에서 안내 드리기가 어렵습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>안녕하세요.질문에 답변드리겠습니다.해당 문제의 ㉠은 생산물을 결정하는 문제, ㉡은 분배 방식을 결정하는 경제 문제입니다.생산물의 결정과 분배 방식의 결정 모두 효율성을 고려하는 경제 문제가 맞습니다.다만, 분배 방식의 결정의 경우 효율성과 형평성을 동시에 고려해야 하는 경제 문제입니다.해당 문제 3번 선지의 경우 '㉠과 달리 ㉡에 나타난 경제 문제는 효율성을 기준으로 해결한다.'이고㉠과 ㉡ 모두 효율성을 고려하므로 옳지 않은 선지입니다.답변이 학습에 도움이 되었기를 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>30</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="n">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>가계란?</t>
+          <t>수요변동의 요인</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>가계가 기업에게 노동 토지 자본을 제공한다고 하셨는데가계가 정확이 무엇인가요?사전을 찾아보니 소비의 주체로 가정을 이리는 말이라는데 잘 이해가 안갑니다</t>
+          <t>인과관계에 대해서 질문합니다 수요증가가 원인이 되서 소득이 증가하는건가요 아니면 소득이 증가하니까 수요가 증가하는건지 궁금합니다</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>가계란?</t>
+          <t>수요변동의 요인</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>답변입니다.정부를 제외한 민간경제주체는 가계와 기업 두 가지로 구분됩니다.생산이 목적인 경제주체를 기업이라고 하고 소비가 목적인 경제주체를 가계라고 합니다.일반적인 가정집은 전부 가계에 해당됩니다.예를 들어 우리집 식구는 모두 3명으로 회사에서 일하는 아버지와 어머니 그리고 자녀로 구성되어 있을때 아버지와 어머니는 기업에 노동을 제공하는 가계에 해당됩니다.그리고 자녀는 아직 미성년자이므로 노동을 제공할 수 없어서 소비만 합니다.아버지와 어머니도 회사에서 번 돈을 가지고 소비를 합니다.그래서 주된 목적이 소비에 해당됩니다.이런 구성원은 모두 가계에 해당됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>인과관계에 대해서 질문합니다 수요증가가 원인이 되서 소득이 증가하는건가요 아니면 소득이 증가하니까 수요가 증가하는건지 궁금합니다답변입니다.수요는 사고자하는 욕구인데 사고 싶은 욕구가 증가한다고 소득이 증가하기는 어렵습니다.일반적으로 소득이 증가하니까 수요가 증가합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H129" t="n">
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>가계가 토지와 자본을 제공</t>
+          <t>경제활동 질문</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?</t>
+          <t>중간재에 해당하는 서비스의 종류는 무엇이 있나요?임대료를 가계에서 받는 것은 어떤 경제활동으로 보나요?돈을 내지 않고 재화나 서비스를 이용하는 것도 소비인가요?</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>가계가 토지와 자본을 제공</t>
+          <t>경제활동 질문</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?답변입니다.가능한 부분입니다.좀더 세밀하게 구분한다면생산요소에는 크게 인적자원과 비인적 자원으로 구분되며인적자원은 노동이나 기업경영 능력을 말하고비인적 자원은 토지, 광물, 석유, 나무 같은 자연자원(이런 자연 자원을 토지라고 구분합니다.)과 생산재(이걸 자본이라고 구분합니다. 당연히 기업이 가계로부터 빌린 돈도 자본에 해당됩니다.)로 구분됩니다.여기서 생산재란 자연자원과 다르게 자연적으로 주어져 있는 것이 아니고 사람이 만든 생산수단이라는 점입니다.생산재에는 원재료, 반제품, 공구, 기계, 공장 등이 포함되며 흔히 자본 또는 자본재라고 부릅니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>중간재에 해당하는 서비스의 종류는 무엇이 있나요?중간재에서 재는 재화를 말합니다.그래서 서비스는 해당되지 않습니다.임대료를 가계에서 받는 것은 어떤 경제활동으로 보나요?경제활동에 포함시키지 않습니다.우리가 알고 있는 모든 상황을 경제 개념에 집어넣기 어려운 부분이 있습니다.분배는 생산에 기여한 대가를 기업이 가계에게 지불하는 것을 말하는데 가계로부터 빌린 건물에서 생산을 하는 경우 가계에게 임대료를 지불하는 경우라고 생각해주세요.돈을 내지 않고 재화나 서비스를 이용하는 것도 소비인가요?그렇지 않습니다.소비는 일반적으로 가계가 대가 즉 비용을 지불하고 기업이 제공하는 재화나 서비스를 이용하는 것을 말합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H130" t="n">
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>여유 있을 때 선택지</t>
+          <t>가계와 생산</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?</t>
+          <t xml:space="preserve">'가계'는 '소비'의 주체인데, 생산 요소 시장에서 노동을 제공하는 활동은 '생산'으로 보는게 맞나요? (예: 개인 = 가계, 개인이 회사에서 일을 하는 것 = 생산.)그렇다면 가계는 소비의 주체이지만 생산도 할 수 있다고 봐야 하나요? 가계는 생산을 할 수 없는 개념이라면, 개인이 생산 요소 시장에서 '생산'을 하는 건 어떻게 해석해야 하나요? </t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>여유 있을 때 선택지</t>
+          <t>가계와 생산</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데 혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?답변입니다.틀린 선지가 될 수 있는게 문제의 조건으로 제시된 것이 모든 예산을 다 사용한다고 제시되어 있기 때문입니다.만약 2만원 미만으로도 구입이 가능하다면 굳이 이 조건을 제시할 이유가 없기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.질문에 대하여 답변드리겠습니다.질문에서 말씀하셨듯이 가계는 소비의 주체입니다.다만, 가계가 생산 요소 시장에 생산 요소를 공급하는 것은 '생산' 자체로 보는 것이 아니라 '가계의 역할'로 봐야 할 것입니다.정리하자면 가계가 생산을 하는 것이 아니라 가계는 생산 요소를 공급하는 역할을 통해 '기업의 생산에 기여'하는 것입니다.마찬가지로 '개인이 생산 요소 시장에서 생산을 하는 건 어떻게 해석해야 하나요?'에 대한 답변을 드리자면생산은 가계가 공급한 생산 요소를 공급 받은 '기업에 의해서 이루어지는 것'이라고 정리할 수 있습니다.만약 노동이 생산 요소 시장을 통해 기업에 공급되었다면 그 노동의 활동은 가계에서 이루어지는 것이 아니라기업 활동이 되는 것입니다.답변이 학습에 도움이 되었길 바랍니다.감사합니다.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>선생님 빨리 듣고싶은데…</t>
+          <t>편익-명시적비용</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>박봄 선생님! 귀에 쏙쏙 들어오는 설명 덕분에 경제를 처음 배우는데도 첫단원을 잘 마무리할 수 있었습니다!다름이 아니라, 제가 18일 출고 예정으로 되어있던 경제 수능개념 교재를 13일 경 구매했는데, 벌써 두번째 출고 지연이 되었습니다. 최대한 빨리 12월 내로 개념을 끝낼 계획이었는데, 교재 재송이 조금 많이 늦어지고 있는 것 같습니다..! 혹시 언제쯤 교재가 완성되는지 알 수 있을까요 ?? 🥹</t>
+          <t>여기서 회사원할땐 300만큼 기쁘고 유튜버할땐 330만큼 기뻐. 라고 하셨는데이따 말씀하신 기쁘다는게 경제 용어로 어떤 것에 해당하는 건가요?편익-명시적비용은 암묵적 비용을 말하는건거요?그러면 암묵적 비용은... 각 선택지마다 두개가 있는건데 이 부분이 헷갈려요ㅜ아니ㅕㄴ 그냥 순편익을 구하기 위한 수단?자체로 보는건가요..?</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>이용문의 게시판 문의</t>
+          <t>암묵적비용</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>안녕하세요.질문에 답변 드리겠습니다.기회비용을 구성하는 암묵적 비용은 '다른 대안을 선택했다면 얻을 수 있었던 가치'로 정의됩니다.강의의 사례에서 만약 '회사원'을 선택했다면 '다른 대안(유튜버)을 선택했다면 얻을 수 있었던 가치'가'회사원' 선택에 따른 암묵적 비용이 되는 것입니다.여기서 첫번째 주의점은 '다른 대안인 유튜버'의 편익(400만 원)을 얻기 위해서는 명시적비용(70만 원)을들여야 하기 때문에 '400만 원(편익)-70만 원(명시적 비용)=330만 원'이 '회사원' 선택에 따른 암묵적 비용이 되는 것입니다.두번째 주의점은 질문자님의 '암묵적 비용은...각 선택지마다 두개가 있는건데'에 관한 부분입니다.하나의 선택에 따른 암묵적 비용은 '선택하지 않은 다른 대안을 선택했다면 얻을 수 있는 가치'이므로선택한 대안의 (편익-명시적 비용)은 암묵적 비용이 되지 않습니다. 다만 해당 사례에서 유튜버를 선택했다면선택하지 않은 다른 대안인 회사원의 (편익-명시적 비용)은 '유튜버 선택에 따른 암묵적 비용'이 되는 것입니다.만약 선택지가 3개 이상으로 늘어난다고 해도 a, b, c의 선택지 중 a를 선택했을 때 포기한 선택지는 b또는 c가 되므로하나의 선택에 따른 암묵적 비용은 하나만 존재하게 됩니다.마지막으로 위에서 설명했듯이 '편익-명시적비용' 자체는 다른 용어를 통해 정의하는 것이 아니라 다른 선택의 암묵적 비용을 구하기 위한 한 축으로 생각하시는 것이 비용-편익 분석에 도움이 될 것이라 생각합니다.질문자님의 궁금증이 해결되었길 바랍니다. 감사합니다.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>14</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>생산요소</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요?기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ</t>
+          <t>생산요소는 생산활동을 하기 위해 필요한 요소들을 말하는게 맞나요?</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>생산요소</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요? 기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ답변입니다.문의하신 부분과 관련된 내용의 기출문제가 있다면 출처를 밝혀주시면 더 정확한 답변이 가능합니다.아래 내용은 기회비용의 일반적인 내용입니다.사실 기회비용은 2가지 의미가 있습니다.1. 기회비용 = 포기한 것 중 가장 가치가 큰 것첫번째, 생산가능곡선 문제예시를 든다면 X재 하나 더 생산하기 위해 Y재 몇 개를 포기했느냐를 말합니다.생산가능곡선이 직선인 경우 이렇게 표현합니다.기울기가 직선이 경우 모든 점은 기회비용이 같습니다.기회비용은 어느 한 재화를 더 생산하기 위해 다른 재화를 얼만큼 포기하느냐를 말합니다.기회비용이 일정한 경우에는 생산가능곡선의 기울기가 일정한 직선 형태가 됩니다. 기울기는 곧 기회비용을 의미합니다.예를 들어 최대생산량이 X재 10개, Y재 10개인 생산가능곡선이 직선인 경우 점이 (X재 5개, Y재 5개)에서 우측으로 이동하여 (X재 6개, Y재 4개)가 되었을 때X재가 5개에서 6개로 즉 1개 더 생산하기 위해Y재를 5개에서 4개로 생산을 1개 줄였습니다.이때 X재 1개 더 생산하기 위해 Y재 1개를 포기한 것을 기회비용이라고 표현할 수 있습니다.소비자의 입장에서는 이렇게 표현할 수 있습니다.두번째, 동일한 비용으로 여러 재화를 소비했을 때 얻게 되는 만족의 차이가 있는 경우(5천원짜리 자장면, 짬뽕, 우동을 소비했을 때 각각의 편익이 다른 경우)가 여기에 해당됩니다.2. 기회비용 = 명시적 비용+암묵적 비용입니다.대부분의 기회비용 문제가 여기에 해당됩니다.도움이 되셨으면 좋겠습니다. </t>
+          <t xml:space="preserve">생산요소는 생산활동을 하기 위해 필요한 요소들을 말하는게 맞나요?답변입니다.네 그렇습니다.생산요소는 노동, 토지, 자본 등이 대표적인 사례들입니다.도움이 되셨으면 좋겠습니다. </t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>강의 업로드 문의</t>
+          <t>정답 및 해설 pdf 따로 올려주세요</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025년 이번 강의 업로드가 언제까지 다 올라오나요?마지막강의까지 다 올라오는 시기가 궁금합니다</t>
+          <t>정답 및 해설 pdf 따로 올려주세요교재 페이지 184-199입니다.따로 프린트 해서 보려고 합니다.~~수로하세요.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>수강후기 게시판 문의</t>
+          <t>정답 및 해설 pdf 따로 올려주세요</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강의오류 확인요청, 강의활용법, 신규 강의 일정, 강사제공 학습자료 요청, 강사 이벤트, 숙제제출 등강사 선생님께 문의하시는 내용은 수강후기 게시판에 문의하여 주십시오.강사 선생님과 제작팀은 수강후기를 통해 소통하고 있습니다.그 외사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>정답 및 해설 pdf 따로 올려주세요교재 페이지 184-199입니다.따로 프린트 해서 보려고 합니다.~~수로하세요.답변입니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.해당 게시판은 EBS 교재나 기출문제의 풀이에 대한 질문을 하는 용도로만 사용하는 게시판입니다.도움이 못되어드려 죄송합니다.참고해주세요.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="n">
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>시장</t>
+          <t>경제 선택 고민</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요</t>
+          <t>안녕하세요. 경제로 사탐 런을 할지 고민중인 재수생입니다.2024 현역에서는 생명1, 지구1 을 선택했는데 둘 중 하나를 버리고 경제를 선택할지.. 고민이 돼요우선 성적은 생명1 2등급, 지구1 4등급입니다. 지구과학이 실수가 많았는지 낮은 점수를 맞아버렸어요. 공부를 안 하진 않았지만 1등급 맞을 만큼 많이 하진 않았다고 생각합니다..경제를 고민하는 이유는 저희 학교(전국 단위 자사고)가 1학년 때 경제가 필수과목이라 내신을 했었는데 유일하게 2등급이 나와 저를 구원해주던 과목이었고, 처음 배울 때 부터 재미를 느끼던 과목이었습니다.1학년 때 학교 선생님께서 수능특강과 마더텅으로 문제를 내셔서, 처음 배우는 과목이기에 박봄 선생님 강의를 수강하고 마더텅은 혼자 풀었습니다.1학년이 끝나고 경제를 손에서 놓고 있다가 2학년 때 모의고사 치룰 시기가 오자, 선택과목 고민을 하다가 아직 지구과학 개념학습이 안되어있고 지구과학과 경제 중에 무엇을 선택할지 고민중이었기에 우선 경제를 선택하여 6월, 9월 모의고사를 응시했습니다. 둘 다 1등급 (47점, 44점)을 맞게되었습니다. 모의고사 공부를 따로 하진 않았고 전 날에 기억 되살릴 수 있도록 작년 기출 1회 풀었던 것 같습니다. 하지만 고2 모의고사는 수능에비해 훨씬 쉽고 9월 모의고사 이후 수능에서는 몇 등급이 나올지 궁금해서 풀어봤는데 3-4문제를 틀렸고 3등급이 나오는 것을 보고 그대로 경제를 포기하고 지구과학을 선택하게 되었습니다..제가 과탐을 선택한 이유는 사탐보다 표점이 높고 등급 컷이 낮기 때문인데, 현, 그리고 앞으로의 기조에서는 과탐이 예전만큼 표점 높고 등급 컷이 낮을 것 같지 않기에 과탐의 메리트가 사라졌다고 생각합니다.. 공부해야하는 양은 사탐의 몇 배이고 메디컬 쏠림 현상이 발생하는 상황에서, 소위 말해, 고인물들이 두텁게 과탐 1등급을 차지하고 있는데 현실적으로 1년 안에 내가 그들 만큼, 혹은 그들 보다 높은 성적을 받을 수 있는지, 경제가 과탐보다 표점이 높은 상황에서 내가 과탐을 선택할 이유가 있는지 의문이 듭니다..심지어 2025 대입부터는 많은 학교에서 선택과목 제한을 폐지하는데 물론 이과 지원시 과탐에 가산점이 있지만 과탐을 응시하여 가산점을 받는 것보단 그냥 표점 높은 경제를 선택하는 것이 낫지 않을까.. 생각이 듭니다.경제도 쉽지 않은 과목이란 걸 알고 있지만 아예 안 해본 과목이 아니기 때문에 더욱 고민됩니다.. 근데 이건 제가 2024 수능에 응시한 과탐 과목들에도 해당하는 사항이기 때문에 고민이 더더욱 깊어집니다..저는 이과로도 지원할 생각이 있고 문과로도 지원할 생각이 있습니다. 하지만 우선순위는 이과입니다.여러 상황들 때문에 고민이 더 깊어지는데.. 선생님께서는 어떻게 생각하시는지ㅜㅜ도움이 절실합니다.ㅜㅜ</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>시장</t>
+          <t>경제 선택 고민</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요답변입니다.거래비용 감소 – 물고기를 사러 바닷가를 가야하는데 마트에서 사게 되면 교통비 등이 즐감되는 경우를 말합니다.분업을 통한 특화 – 한 가지 물건을 여러 공정으로 나뉘어 일하는 것을 분업이라고 하는데 단순한 일을 지속적으로 반복하면 금세 익숙해져서 숙련도가 올라가 1개 만들던 것을 2개, 3개 등등 생산량이 증가합니다.이를 생산성의 향상이라고 표현합니다.도움이 되셨으면 좋겠습니다.</t>
+          <t xml:space="preserve">우선순위는 이과입니다.여러 상황들 때문에 고민이 더 깊어지는데.. 선생님께서는 어떻게 생각하시는지ㅜㅜ도움이 절실합니다.ㅜ답변입니다.이건 누구의 조언으로 해결할 수 있는 문제는 아닌 것 같습니다.어떤 선택을 하던지 해당 과목을 열심히 공부하는 거 밖에 없는 부분입니다.본인이 그나마 끌리는 것을 선택해주세요. </t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>17</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>교재 언제 구매할 수 있나요???</t>
+          <t>생산요소 자본</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>교재 언제 구매할 수 있나요???구매를 할 수가 없네요.</t>
+          <t>쨈 가게 주인이 사과를 사면 생산이라고 했는데 그렇다면 여기서 사과가 생산요소 중 자본에 해당한다고 이해해도 될까요?</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>이용문의</t>
+          <t>생산요소 자본</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>안녕하세요.강의 및 교재 이용과 관련한 질문은 '이용문의 게시판(교재 관련)'에 문의하시면 답변을 들으실 수 있습니다.============================Q&amp;A운영자입니다.안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.교재 발간 일정은 이곳에서 안내 드리기가 어렵습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>쨈 가게 주인이 사과를 사면 생산이라고 했는데 그렇다면 여기서 사과가 생산요소 중 자본에 해당한다고 이해해도 될까요?답변입니다.네 그렇습니다.생산요소에는 크게 인적자원과 비인적 자원으로 구분되며인적자원은 노동이나 기업경영능력을 말하고비인적 자원은 토지, 광물, 석유, 나무 같은 자연자원과 생산재로 구분됩니다.여기서 생산재란 자연자원과 다르게 자연적으로 주어져 있는 것이 아니고 사람이 만든 생산수단이라는 점입니다.생산재에는 원재료, 반제품, 공구, 기계, 공장 등이 포함되며 흔히 자본 또는 자본재라고 부릅니다.자본재 중 원재료나 반제품 등은 최종재를 생산하기 위한 중간재 성격을 지닙니다.참고로 기업이 생산을 위해 중간재를 구입하는 것은 '생산적 소비'라고 하여소비가 아닌 생산으로 봅니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>31</v>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="n">
+        <v>13</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>가계란?</t>
+          <t>수요량에 대해서</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>가계가 기업에게 노동 토지 자본을 제공한다고 하셨는데가계가 정확이 무엇인가요?사전을 찾아보니 소비의 주체로 가정을 이리는 말이라는데 잘 이해가 안갑니다</t>
+          <t>수요량은 특정 가격 수준에서 소비자가 구입하고자 하는 상품의 양이니 구매할 것으로 예측되는 값 즉, 예측값 개념으로 이해하는 것이 맞나요? (맞다면 공급량도 갖은 맥락으로 이해하면 되나요?)</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>가계란?</t>
+          <t>수요량</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>답변입니다.정부를 제외한 민간경제주체는 가계와 기업 두 가지로 구분됩니다.생산이 목적인 경제주체를 기업이라고 하고 소비가 목적인 경제주체를 가계라고 합니다.일반적인 가정집은 전부 가계에 해당됩니다.예를 들어 우리집 식구는 모두 3명으로 회사에서 일하는 아버지와 어머니 그리고 자녀로 구성되어 있을때 아버지와 어머니는 기업에 노동을 제공하는 가계에 해당됩니다.그리고 자녀는 아직 미성년자이므로 노동을 제공할 수 없어서 소비만 합니다.아버지와 어머니도 회사에서 번 돈을 가지고 소비를 합니다.그래서 주된 목적이 소비에 해당됩니다.이런 구성원은 모두 가계에 해당됩니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요. 질문에 답변드리겠습니다.수요량이란 주어진 가격수준에서 소비자가 일정기간에 구입할 의사와 능력이 있는 최대수량을 이야기합니다.질문자님께서 예측값이라고 써준 부분이 정확한 뜻을 이해하기 힘든부분이 있으나 위에서 정의한 의사와 능력이 있는 사람들이 구매할 최대수량을 예측하여 수요량을 구하는 것으로 정의한다면 크게무리없어 보입니다. 공급량도 마찬가지입니다.고교과정에선 수요와 수요량의 구분이 가장 기초가 되는부분으로 해당부분을 이해하시고 넘어간다면 문제를 접근하는데 큰 어려움이 없을 것으로 생각됩니다.감사합니다.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H137" t="n">
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>가계가 토지와 자본을 제공</t>
+          <t>교재 언제 구매할 수 있나요???</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?</t>
+          <t>교재 언제 구매할 수 있나요???구매를 할 수가 없네요.</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>가계가 토지와 자본을 제공</t>
+          <t>이용문의</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?답변입니다.가능한 부분입니다.좀더 세밀하게 구분한다면생산요소에는 크게 인적자원과 비인적 자원으로 구분되며인적자원은 노동이나 기업경영 능력을 말하고비인적 자원은 토지, 광물, 석유, 나무 같은 자연자원(이런 자연 자원을 토지라고 구분합니다.)과 생산재(이걸 자본이라고 구분합니다. 당연히 기업이 가계로부터 빌린 돈도 자본에 해당됩니다.)로 구분됩니다.여기서 생산재란 자연자원과 다르게 자연적으로 주어져 있는 것이 아니고 사람이 만든 생산수단이라는 점입니다.생산재에는 원재료, 반제품, 공구, 기계, 공장 등이 포함되며 흔히 자본 또는 자본재라고 부릅니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>안녕하세요.강의 및 교재 이용과 관련한 질문은 '이용문의 게시판(교재 관련)'에 문의하시면 답변을 들으실 수 있습니다.============================Q&amp;A운영자입니다.안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.교재 발간 일정은 이곳에서 안내 드리기가 어렵습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
+        <v>32</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>여유 있을 때 선택지</t>
+          <t>가계란?</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?</t>
+          <t>가계가 기업에게 노동 토지 자본을 제공한다고 하셨는데가계가 정확이 무엇인가요?사전을 찾아보니 소비의 주체로 가정을 이리는 말이라는데 잘 이해가 안갑니다</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>여유 있을 때 선택지</t>
+          <t>가계란?</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데 혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?답변입니다.틀린 선지가 될 수 있는게 문제의 조건으로 제시된 것이 모든 예산을 다 사용한다고 제시되어 있기 때문입니다.만약 2만원 미만으로도 구입이 가능하다면 굳이 이 조건을 제시할 이유가 없기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
+          <t>답변입니다.정부를 제외한 민간경제주체는 가계와 기업 두 가지로 구분됩니다.생산이 목적인 경제주체를 기업이라고 하고 소비가 목적인 경제주체를 가계라고 합니다.일반적인 가정집은 전부 가계에 해당됩니다.예를 들어 우리집 식구는 모두 3명으로 회사에서 일하는 아버지와 어머니 그리고 자녀로 구성되어 있을때 아버지와 어머니는 기업에 노동을 제공하는 가계에 해당됩니다.그리고 자녀는 아직 미성년자이므로 노동을 제공할 수 없어서 소비만 합니다.아버지와 어머니도 회사에서 번 돈을 가지고 소비를 합니다.그래서 주된 목적이 소비에 해당됩니다.이런 구성원은 모두 가계에 해당됩니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
           <t>좋아요</t>
         </is>
       </c>
-      <c r="H139" t="n">
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>선생님 빨리 듣고싶은데…</t>
+          <t>가계가 토지와 자본을 제공</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>박봄 선생님! 귀에 쏙쏙 들어오는 설명 덕분에 경제를 처음 배우는데도 첫단원을 잘 마무리할 수 있었습니다!다름이 아니라, 제가 18일 출고 예정으로 되어있던 경제 수능개념 교재를 13일 경 구매했는데, 벌써 두번째 출고 지연이 되었습니다. 최대한 빨리 12월 내로 개념을 끝낼 계획이었는데, 교재 재송이 조금 많이 늦어지고 있는 것 같습니다..! 혹시 언제쯤 교재가 완성되는지 알 수 있을까요 ?? 🥹</t>
+          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>이용문의 게시판 문의</t>
+          <t>가계가 토지와 자본을 제공</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>토지를 제공한다는거는 예를 들면기업 본사의 건물이 있다고치면 전에 그 땅을 지대를 받고주는 맥락자본을 제공한다는거는 예를 들면기업이 무언가를 생산하기전에 투자를 받는데그 투자를 받는다는 맥락으로 이해하면 되나요?답변입니다.가능한 부분입니다.좀더 세밀하게 구분한다면생산요소에는 크게 인적자원과 비인적 자원으로 구분되며인적자원은 노동이나 기업경영 능력을 말하고비인적 자원은 토지, 광물, 석유, 나무 같은 자연자원(이런 자연 자원을 토지라고 구분합니다.)과 생산재(이걸 자본이라고 구분합니다. 당연히 기업이 가계로부터 빌린 돈도 자본에 해당됩니다.)로 구분됩니다.여기서 생산재란 자연자원과 다르게 자연적으로 주어져 있는 것이 아니고 사람이 만든 생산수단이라는 점입니다.생산재에는 원재료, 반제품, 공구, 기계, 공장 등이 포함되며 흔히 자본 또는 자본재라고 부릅니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>15</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="n">
+        <v>11</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>여유 있을 때 선택지</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요?기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ</t>
+          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>기회비용</t>
+          <t>여유 있을 때 선택지</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요? 기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ답변입니다.문의하신 부분과 관련된 내용의 기출문제가 있다면 출처를 밝혀주시면 더 정확한 답변이 가능합니다.아래 내용은 기회비용의 일반적인 내용입니다.사실 기회비용은 2가지 의미가 있습니다.1. 기회비용 = 포기한 것 중 가장 가치가 큰 것첫번째, 생산가능곡선 문제예시를 든다면 X재 하나 더 생산하기 위해 Y재 몇 개를 포기했느냐를 말합니다.생산가능곡선이 직선인 경우 이렇게 표현합니다.기울기가 직선이 경우 모든 점은 기회비용이 같습니다.기회비용은 어느 한 재화를 더 생산하기 위해 다른 재화를 얼만큼 포기하느냐를 말합니다.기회비용이 일정한 경우에는 생산가능곡선의 기울기가 일정한 직선 형태가 됩니다. 기울기는 곧 기회비용을 의미합니다.예를 들어 최대생산량이 X재 10개, Y재 10개인 생산가능곡선이 직선인 경우 점이 (X재 5개, Y재 5개)에서 우측으로 이동하여 (X재 6개, Y재 4개)가 되었을 때X재가 5개에서 6개로 즉 1개 더 생산하기 위해Y재를 5개에서 4개로 생산을 1개 줄였습니다.이때 X재 1개 더 생산하기 위해 Y재 1개를 포기한 것을 기회비용이라고 표현할 수 있습니다.소비자의 입장에서는 이렇게 표현할 수 있습니다.두번째, 동일한 비용으로 여러 재화를 소비했을 때 얻게 되는 만족의 차이가 있는 경우(5천원짜리 자장면, 짬뽕, 우동을 소비했을 때 각각의 편익이 다른 경우)가 여기에 해당됩니다.2. 기회비용 = 명시적 비용+암묵적 비용입니다.대부분의 기회비용 문제가 여기에 해당됩니다.도움이 되셨으면 좋겠습니다. </t>
+          <t>15번 문제 3번 선지에서는 x재가 3개 y재가 12개, 총 6만원으로 갑의 예산을 넘었기 때문에 선택할 수 없다는 게 명확한데 혹시 문제 중에 예를 들어 x재가 1개 y재가 4개. 총 2만원일 때가 된다면 '갑은 모든 예산을 다 쓴다' 라는 문장 때문에 2만원 밖에 안 쓰는 이 선지는 틀리게 될까요, 아니면 구입 자체는 가능하게 되니 맞는 선지일까요?답변입니다.틀린 선지가 될 수 있는게 문제의 조건으로 제시된 것이 모든 예산을 다 사용한다고 제시되어 있기 때문입니다.만약 2만원 미만으로도 구입이 가능하다면 굳이 이 조건을 제시할 이유가 없기 때문입니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>최고의 답변</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>강의 업로드 문의</t>
+          <t>선생님 빨리 듣고싶은데…</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025년 이번 강의 업로드가 언제까지 다 올라오나요?마지막강의까지 다 올라오는 시기가 궁금합니다</t>
+          <t>박봄 선생님! 귀에 쏙쏙 들어오는 설명 덕분에 경제를 처음 배우는데도 첫단원을 잘 마무리할 수 있었습니다!다름이 아니라, 제가 18일 출고 예정으로 되어있던 경제 수능개념 교재를 13일 경 구매했는데, 벌써 두번째 출고 지연이 되었습니다. 최대한 빨리 12월 내로 개념을 끝낼 계획이었는데, 교재 재송이 조금 많이 늦어지고 있는 것 같습니다..! 혹시 언제쯤 교재가 완성되는지 알 수 있을까요 ?? 🥹</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>수강후기 게시판 문의</t>
+          <t>이용문의 게시판 문의</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강의오류 확인요청, 강의활용법, 신규 강의 일정, 강사제공 학습자료 요청, 강사 이벤트, 숙제제출 등강사 선생님께 문의하시는 내용은 수강후기 게시판에 문의하여 주십시오.강사 선생님과 제작팀은 수강후기를 통해 소통하고 있습니다.그 외사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="n">
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>기회비용</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요?기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>24</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>기회비용</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">기회비용이 명시적 비용과 암묵적 비용으로 나뉜다고 설명하셨는데,명시적 비용은 실제로 지출한 비용이므로 0일 수 있지만묵시적 비용은 다른 대안을 선택했을 때 얻을 수 있는 가치 중 최대인 것이므로 0일 수는 없는 게 맞나요? 기회비용의 정의가 선택 가능한 여러 대안 중 하나의 대안을 선택함으로써 포기하게되는 대안들 중 가장 가치가 큰 것이잖아요. 그런데 명시적 비용도 기회비용에 포함시키는 이유가 뭔가요?정의만 단순히 보면 오히려 묵시적 비용과 같은 말처럼 느껴져서요ㅠㅠ답변입니다.문의하신 부분과 관련된 내용의 기출문제가 있다면 출처를 밝혀주시면 더 정확한 답변이 가능합니다.아래 내용은 기회비용의 일반적인 내용입니다.사실 기회비용은 2가지 의미가 있습니다.1. 기회비용 = 포기한 것 중 가장 가치가 큰 것첫번째, 생산가능곡선 문제예시를 든다면 X재 하나 더 생산하기 위해 Y재 몇 개를 포기했느냐를 말합니다.생산가능곡선이 직선인 경우 이렇게 표현합니다.기울기가 직선이 경우 모든 점은 기회비용이 같습니다.기회비용은 어느 한 재화를 더 생산하기 위해 다른 재화를 얼만큼 포기하느냐를 말합니다.기회비용이 일정한 경우에는 생산가능곡선의 기울기가 일정한 직선 형태가 됩니다. 기울기는 곧 기회비용을 의미합니다.예를 들어 최대생산량이 X재 10개, Y재 10개인 생산가능곡선이 직선인 경우 점이 (X재 5개, Y재 5개)에서 우측으로 이동하여 (X재 6개, Y재 4개)가 되었을 때X재가 5개에서 6개로 즉 1개 더 생산하기 위해Y재를 5개에서 4개로 생산을 1개 줄였습니다.이때 X재 1개 더 생산하기 위해 Y재 1개를 포기한 것을 기회비용이라고 표현할 수 있습니다.소비자의 입장에서는 이렇게 표현할 수 있습니다.두번째, 동일한 비용으로 여러 재화를 소비했을 때 얻게 되는 만족의 차이가 있는 경우(5천원짜리 자장면, 짬뽕, 우동을 소비했을 때 각각의 편익이 다른 경우)가 여기에 해당됩니다.2. 기회비용 = 명시적 비용+암묵적 비용입니다.대부분의 기회비용 문제가 여기에 해당됩니다.도움이 되셨으면 좋겠습니다. </t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>26</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>최고의 답변</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>강의 업로드 문의</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025년 이번 강의 업로드가 언제까지 다 올라오나요?마지막강의까지 다 올라오는 시기가 궁금합니다</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>37</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>수강후기 게시판 문의</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강의오류 확인요청, 강의활용법, 신규 강의 일정, 강사제공 학습자료 요청, 강사 이벤트, 숙제제출 등강사 선생님께 문의하시는 내용은 수강후기 게시판에 문의하여 주십시오.강사 선생님과 제작팀은 수강후기를 통해 소통하고 있습니다.그 외사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>시장</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>32</v>
-      </c>
-      <c r="D143" t="inlineStr">
+      <c r="C145" t="n">
+        <v>33</v>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>시장</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요답변입니다.거래비용 감소 – 물고기를 사러 바닷가를 가야하는데 마트에서 사게 되면 교통비 등이 즐감되는 경우를 말합니다.분업을 통한 특화 – 한 가지 물건을 여러 공정으로 나뉘어 일하는 것을 분업이라고 하는데 단순한 일을 지속적으로 반복하면 금세 익숙해져서 숙련도가 올라가 1개 만들던 것을 2개, 3개 등등 생산량이 증가합니다.이를 생산성의 향상이라고 표현합니다.도움이 되셨으면 좋겠습니다.</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>18</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>좋아요</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
+      <c r="F145" t="n">
         <v>19</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>강의 업로드 문의</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025년 이번 강의 업로드가 언제까지 다 올라오나요?마지막강의까지 다 올라오는 시기가 궁금합니다</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>37</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>수강후기 게시판 문의</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>안녕하세요. 회원님. 이곳 상담실은 EBS 강의 문제풀이가 어려운 부분에 대하여 상담하고 있습니다.강의 내용 중 이해가 어려운 부분에 대하여 질문하여 주시면 감사하겠습니다.강의오류 확인요청, 강의활용법, 신규 강의 일정, 강사제공 학습자료 요청, 강사 이벤트, 숙제제출 등강사 선생님께 문의하시는 내용은 수강후기 게시판에 문의하여 주십시오.강사 선생님과 제작팀은 수강후기를 통해 소통하고 있습니다.그 외사이트 이용 시 불편사항, 궁금한 부분은 고객센터 또는 이용문의 게시판에 문의하여 주십시오.게시판 이용에 참고하여 주십시오.좋은 하루 보내세요.</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>20</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>시장</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>33</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>시장</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>시장의 기능중 1.거래비용감소2.분업을통한 특화를통해생산성향상되는이유를 가르쳐주세요답변입니다.거래비용 감소 – 물고기를 사러 바닷가를 가야하는데 마트에서 사게 되면 교통비 등이 즐감되는 경우를 말합니다.분업을 통한 특화 – 한 가지 물건을 여러 공정으로 나뉘어 일하는 것을 분업이라고 하는데 단순한 일을 지속적으로 반복하면 금세 익숙해져서 숙련도가 올라가 1개 만들던 것을 2개, 3개 등등 생산량이 증가합니다.이를 생산성의 향상이라고 표현합니다.도움이 되셨으면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>20</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>좋아요</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
